--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA+ve/Flaviviridae-GLUE/tabular/locus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBC2F2B-DDA7-DB4E-99A2-4374AA4CE7F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4062C2-808C-694B-A510-1B31619F67A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13280" yWindow="2000" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5432,8 +5432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="A1:R332"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6D08BD-D5DC-1041-A226-DC85C5039734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3596E30-39D4-9949-8811-EF0F537E04E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="780" windowWidth="38180" windowHeight="26880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="500" windowWidth="38180" windowHeight="26880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query_result" sheetId="1" r:id="rId1"/>
@@ -3897,7 +3897,7 @@
   <dimension ref="A1:AA375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C10" sqref="A1:AA375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287D4E93-2C52-0A44-90CA-00F657CE9C15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CD7612-1588-1E4B-8047-0C30560D637C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4535" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4535" uniqueCount="1306">
   <si>
     <t>organism</t>
   </si>
@@ -3938,6 +3938,9 @@
   </si>
   <si>
     <t>EFV-PL2.1.6-Calycopis_cecrops</t>
+  </si>
+  <si>
+    <t>duplicate_id</t>
   </si>
 </sst>
 </file>
@@ -4799,13 +4802,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="A353" sqref="A353"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
@@ -4838,7 +4841,7 @@
         <v>866</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>934</v>
+        <v>1305</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CD7612-1588-1E4B-8047-0C30560D637C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE1869A-0BF9-DB4C-9422-96E483AA152C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4802,8 +4802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="F123" sqref="A1:O365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6720,6 +6720,9 @@
       <c r="F41" s="3">
         <v>3</v>
       </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
       <c r="H41" t="s">
         <v>266</v>
       </c>
@@ -6764,6 +6767,9 @@
       <c r="F42" s="3">
         <v>4</v>
       </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
       <c r="H42" t="s">
         <v>441</v>
       </c>
@@ -6996,6 +7002,9 @@
       <c r="F47" s="3">
         <v>6</v>
       </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
       <c r="H47" t="s">
         <v>461</v>
       </c>
@@ -7886,6 +7895,9 @@
       <c r="F66" s="3">
         <v>5</v>
       </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
       <c r="H66" t="s">
         <v>504</v>
       </c>
@@ -7930,6 +7942,9 @@
       <c r="F67" s="3">
         <v>1</v>
       </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
       <c r="H67" t="s">
         <v>765</v>
       </c>
@@ -7974,6 +7989,9 @@
       <c r="F68" s="3">
         <v>1</v>
       </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
       <c r="H68" t="s">
         <v>640</v>
       </c>
@@ -8018,6 +8036,9 @@
       <c r="F69" s="3">
         <v>1</v>
       </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
       <c r="H69" t="s">
         <v>359</v>
       </c>
@@ -8062,6 +8083,9 @@
       <c r="F70" s="3">
         <v>2</v>
       </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
       <c r="H70" t="s">
         <v>273</v>
       </c>
@@ -8106,6 +8130,9 @@
       <c r="F71" s="3">
         <v>3</v>
       </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
       <c r="H71" t="s">
         <v>273</v>
       </c>
@@ -8150,6 +8177,9 @@
       <c r="F72" s="3">
         <v>3</v>
       </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
       <c r="H72" t="s">
         <v>273</v>
       </c>
@@ -8476,6 +8506,9 @@
       <c r="F79" s="3">
         <v>2</v>
       </c>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
       <c r="H79" t="s">
         <v>130</v>
       </c>
@@ -20740,6 +20773,9 @@
       <c r="F340" s="3">
         <v>1</v>
       </c>
+      <c r="G340" s="3">
+        <v>1</v>
+      </c>
       <c r="H340" t="s">
         <v>688</v>
       </c>
@@ -21630,6 +21666,9 @@
       <c r="F359" s="3">
         <v>5</v>
       </c>
+      <c r="G359" s="3">
+        <v>1</v>
+      </c>
       <c r="H359" t="s">
         <v>144</v>
       </c>
@@ -21674,6 +21713,9 @@
       <c r="F360" s="3">
         <v>5</v>
       </c>
+      <c r="G360" s="3">
+        <v>1</v>
+      </c>
       <c r="H360" t="s">
         <v>608</v>
       </c>
@@ -21718,6 +21760,9 @@
       <c r="F361" s="3">
         <v>6</v>
       </c>
+      <c r="G361" s="3">
+        <v>1</v>
+      </c>
       <c r="H361" t="s">
         <v>675</v>
       </c>
@@ -21762,6 +21807,9 @@
       <c r="F362" s="3">
         <v>7</v>
       </c>
+      <c r="G362" s="3">
+        <v>1</v>
+      </c>
       <c r="H362" t="s">
         <v>234</v>
       </c>
@@ -21806,6 +21854,9 @@
       <c r="F363" s="3">
         <v>7</v>
       </c>
+      <c r="G363" s="3">
+        <v>1</v>
+      </c>
       <c r="H363" t="s">
         <v>574</v>
       </c>
@@ -21849,6 +21900,9 @@
       </c>
       <c r="F364" s="3">
         <v>8</v>
+      </c>
+      <c r="G364" s="3">
+        <v>1</v>
       </c>
       <c r="H364" t="s">
         <v>701</v>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38463390-0573-0A46-A44E-A7D009A75BE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C520DF-D180-EC4C-8904-96FEADE12639}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2700" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3160" yWindow="500" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -3921,27 +3921,6 @@
     <t>EFV-PL2.7-OpeBru</t>
   </si>
   <si>
-    <t>EFV-X2.2-AusLim</t>
-  </si>
-  <si>
-    <t>EFV-X2.3-StyCho</t>
-  </si>
-  <si>
-    <t>EFV-PL2.2-EusHer</t>
-  </si>
-  <si>
-    <t>X2.4-Takifugu</t>
-  </si>
-  <si>
-    <t>X2.5-Phycis</t>
-  </si>
-  <si>
-    <t>X2.6-MorMor</t>
-  </si>
-  <si>
-    <t>X2.7-BroBro</t>
-  </si>
-  <si>
     <t>EFV-X2.9-BolPec</t>
   </si>
   <si>
@@ -3949,6 +3928,27 @@
   </si>
   <si>
     <t>EFV-X1.1-PriCau</t>
+  </si>
+  <si>
+    <t>EFV-X2.3-EurAff</t>
+  </si>
+  <si>
+    <t>EFV-X2.2-StyCho</t>
+  </si>
+  <si>
+    <t>EFV-X2.1-AusLim</t>
+  </si>
+  <si>
+    <t>EFV-X2.4-Takifugu</t>
+  </si>
+  <si>
+    <t>EFV-X2.5-Phycis</t>
+  </si>
+  <si>
+    <t>EFV-X2.6-MorMor</t>
+  </si>
+  <si>
+    <t>EFV-X2.7-BroBro</t>
   </si>
 </sst>
 </file>
@@ -4817,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O362" sqref="A1:O362"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="C344" sqref="A1:O363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20918,7 +20918,7 @@
         <v>4305</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="D343" t="s">
         <v>1268</v>
@@ -20965,7 +20965,7 @@
         <v>2045</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="D344" t="s">
         <v>1268</v>
@@ -21012,7 +21012,7 @@
         <v>4154</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="D345" t="s">
         <v>1268</v>
@@ -21059,7 +21059,7 @@
         <v>276</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="D346" t="s">
         <v>1268</v>
@@ -21106,7 +21106,7 @@
         <v>5089</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="D347" t="s">
         <v>1268</v>
@@ -21153,7 +21153,7 @@
         <v>2043</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="D348" t="s">
         <v>1268</v>
@@ -21200,7 +21200,7 @@
         <v>572</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="D349" t="s">
         <v>1268</v>
@@ -21247,7 +21247,7 @@
         <v>990</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D350" t="s">
         <v>1268</v>
@@ -21294,7 +21294,7 @@
         <v>4907</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D351" t="s">
         <v>1268</v>
@@ -21341,7 +21341,7 @@
         <v>503</v>
       </c>
       <c r="C352" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="D352" t="s">
         <v>1268</v>
@@ -21388,7 +21388,7 @@
         <v>503</v>
       </c>
       <c r="C353" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="D353" t="s">
         <v>1268</v>
@@ -21435,7 +21435,7 @@
         <v>500</v>
       </c>
       <c r="C354" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="D354" t="s">
         <v>1268</v>
@@ -21482,7 +21482,7 @@
         <v>503</v>
       </c>
       <c r="C355" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="D355" t="s">
         <v>1268</v>
@@ -21529,7 +21529,7 @@
         <v>219</v>
       </c>
       <c r="C356" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="D356" t="s">
         <v>1268</v>
@@ -21576,7 +21576,7 @@
         <v>759</v>
       </c>
       <c r="C357" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="D357" t="s">
         <v>1268</v>
@@ -21623,7 +21623,7 @@
         <v>925</v>
       </c>
       <c r="C358" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="D358" t="s">
         <v>1268</v>
@@ -21670,7 +21670,7 @@
         <v>168</v>
       </c>
       <c r="C359" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="D359" t="s">
         <v>1268</v>
@@ -21717,7 +21717,7 @@
         <v>441</v>
       </c>
       <c r="C360" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="D360" t="s">
         <v>1268</v>
@@ -21764,7 +21764,7 @@
         <v>798</v>
       </c>
       <c r="C361" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="D361" t="s">
         <v>1268</v>
@@ -21811,7 +21811,7 @@
         <v>180</v>
       </c>
       <c r="C362" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="D362" t="s">
         <v>1268</v>
@@ -21855,7 +21855,7 @@
         <v>1254</v>
       </c>
       <c r="C363" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="D363" t="s">
         <v>1269</v>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9223614F-C9E8-5248-9DFB-D28A5B12313B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C3B09E-185A-164C-848B-2F97B9371E4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="960" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="640" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -3945,7 +3945,7 @@
     <t>EFV-Tamana.3-AmpSul</t>
   </si>
   <si>
-    <t>EFV-PL2.2-EucHer</t>
+    <t>EFV-PL2.2-EusHer</t>
   </si>
 </sst>
 </file>
@@ -4814,8 +4814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="D353" sqref="A1:O363"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C3B09E-185A-164C-848B-2F97B9371E4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8970BD-EB60-F740-83EB-7675587E2F2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="640" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="1308">
   <si>
     <t>organism</t>
   </si>
@@ -3946,6 +3946,9 @@
   </si>
   <si>
     <t>EFV-PL2.2-EusHer</t>
+  </si>
+  <si>
+    <t>EFV-cISF.1.9-Aedes_aegypti</t>
   </si>
 </sst>
 </file>
@@ -4814,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5258,7 +5261,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>935</v>
+        <v>1307</v>
       </c>
       <c r="B10">
         <v>3750</v>
@@ -5273,10 +5276,10 @@
         <v>899</v>
       </c>
       <c r="F10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
         <v>205</v>
@@ -6809,13 +6812,13 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>879</v>
+        <v>946</v>
       </c>
       <c r="B43">
-        <v>585</v>
+        <v>2740</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D43" t="s">
         <v>1258</v>
@@ -6824,42 +6827,42 @@
         <v>899</v>
       </c>
       <c r="F43" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="I43" t="s">
         <v>11</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>462</v>
+        <v>332</v>
       </c>
       <c r="K43" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="L43" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="M43" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>1264</v>
       </c>
       <c r="O43">
-        <v>587</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B44">
-        <v>2740</v>
+        <v>1067</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>1273</v>
@@ -6874,7 +6877,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="s">
         <v>504</v>
@@ -6889,24 +6892,24 @@
         <v>505</v>
       </c>
       <c r="L44" t="s">
-        <v>506</v>
+        <v>619</v>
       </c>
       <c r="M44" t="s">
         <v>30</v>
       </c>
       <c r="N44">
-        <v>1264</v>
+        <v>859</v>
       </c>
       <c r="O44">
-        <v>4003</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B45">
-        <v>1067</v>
+        <v>1186</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>1273</v>
@@ -6921,7 +6924,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" t="s">
         <v>504</v>
@@ -6936,24 +6939,24 @@
         <v>505</v>
       </c>
       <c r="L45" t="s">
-        <v>619</v>
+        <v>858</v>
       </c>
       <c r="M45" t="s">
         <v>30</v>
       </c>
       <c r="N45">
-        <v>859</v>
+        <v>885</v>
       </c>
       <c r="O45">
-        <v>1925</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B46">
-        <v>1186</v>
+        <v>1075</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>1273</v>
@@ -6968,7 +6971,7 @@
         <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46" t="s">
         <v>504</v>
@@ -6983,27 +6986,27 @@
         <v>505</v>
       </c>
       <c r="L46" t="s">
-        <v>858</v>
+        <v>831</v>
       </c>
       <c r="M46" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N46">
-        <v>885</v>
+        <v>86</v>
       </c>
       <c r="O46">
-        <v>2070</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>949</v>
+        <v>879</v>
       </c>
       <c r="B47">
-        <v>1075</v>
+        <v>585</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D47" t="s">
         <v>1258</v>
@@ -7012,34 +7015,34 @@
         <v>899</v>
       </c>
       <c r="F47" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G47" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="I47" t="s">
         <v>11</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>332</v>
+        <v>462</v>
       </c>
       <c r="K47" t="s">
-        <v>505</v>
+        <v>463</v>
       </c>
       <c r="L47" t="s">
-        <v>831</v>
+        <v>464</v>
       </c>
       <c r="M47" t="s">
         <v>15</v>
       </c>
       <c r="N47">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>1160</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -8125,13 +8128,13 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>1026</v>
+        <v>1266</v>
       </c>
       <c r="B71">
-        <v>1842</v>
+        <v>423</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D71" t="s">
         <v>1262</v>
@@ -8140,45 +8143,45 @@
         <v>903</v>
       </c>
       <c r="F71" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G71" s="3">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="I71" t="s">
         <v>11</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="K71" t="s">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s">
-        <v>427</v>
+        <v>218</v>
       </c>
       <c r="M71" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N71">
-        <v>1185</v>
+        <v>2063</v>
       </c>
       <c r="O71">
-        <v>3026</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B72">
-        <v>6440</v>
+        <v>3732</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D72" t="s">
         <v>1262</v>
@@ -8187,45 +8190,45 @@
         <v>903</v>
       </c>
       <c r="F72" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G72" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="I72" t="s">
         <v>11</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="K72" t="s">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="L72" t="s">
-        <v>305</v>
+        <v>421</v>
       </c>
       <c r="M72" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N72">
-        <v>220</v>
+        <v>1433</v>
       </c>
       <c r="O72">
-        <v>6659</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B73">
-        <v>7927</v>
+        <v>1996</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D73" t="s">
         <v>1262</v>
@@ -8234,45 +8237,45 @@
         <v>903</v>
       </c>
       <c r="F73" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G73" s="3">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="H73" t="s">
-        <v>319</v>
+        <v>215</v>
       </c>
       <c r="I73" t="s">
         <v>11</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>320</v>
+        <v>216</v>
       </c>
       <c r="K73" t="s">
-        <v>321</v>
+        <v>217</v>
       </c>
       <c r="L73" t="s">
-        <v>415</v>
+        <v>526</v>
       </c>
       <c r="M73" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N73">
-        <v>71</v>
+        <v>11404</v>
       </c>
       <c r="O73">
-        <v>7997</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>1095</v>
+        <v>1031</v>
       </c>
       <c r="B74">
-        <v>1062</v>
+        <v>516</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D74" t="s">
         <v>1262</v>
@@ -8281,45 +8284,45 @@
         <v>903</v>
       </c>
       <c r="F74" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74" s="3">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>319</v>
+        <v>215</v>
       </c>
       <c r="I74" t="s">
         <v>11</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>320</v>
+        <v>216</v>
       </c>
       <c r="K74" t="s">
-        <v>321</v>
+        <v>217</v>
       </c>
       <c r="L74" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="M74" t="s">
         <v>15</v>
       </c>
       <c r="N74">
-        <v>45</v>
+        <v>4791</v>
       </c>
       <c r="O74">
-        <v>1106</v>
+        <v>5306</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>1147</v>
+        <v>1032</v>
       </c>
       <c r="B75">
-        <v>351</v>
+        <v>1659</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D75" t="s">
         <v>1262</v>
@@ -8328,42 +8331,42 @@
         <v>903</v>
       </c>
       <c r="F75" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75" s="3">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="I75" t="s">
         <v>11</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="K75" t="s">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="L75" t="s">
-        <v>102</v>
+        <v>401</v>
       </c>
       <c r="M75" t="s">
         <v>30</v>
       </c>
       <c r="N75">
-        <v>242392</v>
+        <v>31</v>
       </c>
       <c r="O75">
-        <v>242742</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>1266</v>
+        <v>1033</v>
       </c>
       <c r="B76">
-        <v>423</v>
+        <v>959</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>1287</v>
@@ -8378,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H76" t="s">
         <v>215</v>
@@ -8393,27 +8396,27 @@
         <v>217</v>
       </c>
       <c r="L76" t="s">
-        <v>218</v>
+        <v>627</v>
       </c>
       <c r="M76" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N76">
-        <v>2063</v>
+        <v>81472</v>
       </c>
       <c r="O76">
-        <v>2485</v>
+        <v>82430</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>1029</v>
+        <v>888</v>
       </c>
       <c r="B77">
-        <v>3732</v>
+        <v>1661</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1287</v>
+        <v>1306</v>
       </c>
       <c r="D77" t="s">
         <v>1262</v>
@@ -8422,45 +8425,45 @@
         <v>903</v>
       </c>
       <c r="F77" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="I77" t="s">
         <v>11</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="K77" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L77" t="s">
-        <v>421</v>
+        <v>317</v>
       </c>
       <c r="M77" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N77">
-        <v>1433</v>
+        <v>8602</v>
       </c>
       <c r="O77">
-        <v>5164</v>
+        <v>10262</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="B78">
-        <v>1996</v>
+        <v>2703</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1287</v>
+        <v>1306</v>
       </c>
       <c r="D78" t="s">
         <v>1262</v>
@@ -8469,45 +8472,45 @@
         <v>903</v>
       </c>
       <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3">
         <v>1</v>
       </c>
-      <c r="G78" s="3">
-        <v>2</v>
-      </c>
       <c r="H78" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="I78" t="s">
         <v>11</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="K78" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L78" t="s">
-        <v>526</v>
+        <v>790</v>
       </c>
       <c r="M78" t="s">
         <v>15</v>
       </c>
       <c r="N78">
-        <v>11404</v>
+        <v>413502</v>
       </c>
       <c r="O78">
-        <v>13399</v>
+        <v>416204</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B79">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1287</v>
+        <v>1306</v>
       </c>
       <c r="D79" t="s">
         <v>1262</v>
@@ -8516,45 +8519,45 @@
         <v>903</v>
       </c>
       <c r="F79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="I79" t="s">
         <v>11</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="K79" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L79" t="s">
-        <v>382</v>
+        <v>133</v>
       </c>
       <c r="M79" t="s">
         <v>15</v>
       </c>
       <c r="N79">
-        <v>4791</v>
+        <v>35764</v>
       </c>
       <c r="O79">
-        <v>5306</v>
+        <v>36234</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="B80">
-        <v>1659</v>
+        <v>1842</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D80" t="s">
         <v>1262</v>
@@ -8563,45 +8566,45 @@
         <v>903</v>
       </c>
       <c r="F80" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G80" s="3">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="H80" t="s">
-        <v>215</v>
+        <v>302</v>
       </c>
       <c r="I80" t="s">
         <v>11</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>216</v>
+        <v>303</v>
       </c>
       <c r="K80" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="L80" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="M80" t="s">
         <v>30</v>
       </c>
       <c r="N80">
-        <v>31</v>
+        <v>1185</v>
       </c>
       <c r="O80">
-        <v>1689</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="B81">
-        <v>959</v>
+        <v>6440</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D81" t="s">
         <v>1262</v>
@@ -8610,42 +8613,42 @@
         <v>903</v>
       </c>
       <c r="F81" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G81" s="3">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H81" t="s">
-        <v>215</v>
+        <v>302</v>
       </c>
       <c r="I81" t="s">
         <v>11</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>216</v>
+        <v>303</v>
       </c>
       <c r="K81" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="L81" t="s">
-        <v>627</v>
+        <v>305</v>
       </c>
       <c r="M81" t="s">
         <v>30</v>
       </c>
       <c r="N81">
-        <v>81472</v>
+        <v>220</v>
       </c>
       <c r="O81">
-        <v>82430</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>1173</v>
+        <v>1028</v>
       </c>
       <c r="B82">
-        <v>6462</v>
+        <v>7927</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>1288</v>
@@ -8660,39 +8663,39 @@
         <v>3</v>
       </c>
       <c r="G82" s="3">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="H82" t="s">
-        <v>408</v>
+        <v>319</v>
       </c>
       <c r="I82" t="s">
         <v>11</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>409</v>
+        <v>320</v>
       </c>
       <c r="K82" t="s">
-        <v>410</v>
+        <v>321</v>
       </c>
       <c r="L82" t="s">
-        <v>788</v>
+        <v>415</v>
       </c>
       <c r="M82" t="s">
         <v>30</v>
       </c>
       <c r="N82">
-        <v>14225</v>
+        <v>71</v>
       </c>
       <c r="O82">
-        <v>20686</v>
+        <v>7997</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>1174</v>
+        <v>1095</v>
       </c>
       <c r="B83">
-        <v>1266</v>
+        <v>1062</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>1288</v>
@@ -8707,86 +8710,86 @@
         <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="H83" t="s">
-        <v>408</v>
+        <v>319</v>
       </c>
       <c r="I83" t="s">
         <v>11</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>409</v>
+        <v>320</v>
       </c>
       <c r="K83" t="s">
-        <v>410</v>
+        <v>321</v>
       </c>
       <c r="L83" t="s">
-        <v>411</v>
+        <v>322</v>
       </c>
       <c r="M83" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N83">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O83">
-        <v>1315</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>1014</v>
+        <v>1147</v>
       </c>
       <c r="B84">
+        <v>351</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E84" t="s">
+        <v>903</v>
+      </c>
+      <c r="F84" s="3">
+        <v>3</v>
+      </c>
+      <c r="G84" s="3">
+        <v>173</v>
+      </c>
+      <c r="H84" t="s">
+        <v>99</v>
+      </c>
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K84" t="s">
+        <v>101</v>
+      </c>
+      <c r="L84" t="s">
         <v>102</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E84" t="s">
-        <v>903</v>
-      </c>
-      <c r="F84" s="3">
-        <v>3</v>
-      </c>
-      <c r="G84" s="3">
-        <v>47</v>
-      </c>
-      <c r="H84" t="s">
-        <v>17</v>
-      </c>
-      <c r="I84" t="s">
-        <v>11</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K84" t="s">
-        <v>19</v>
-      </c>
-      <c r="L84" t="s">
-        <v>755</v>
       </c>
       <c r="M84" t="s">
         <v>30</v>
       </c>
       <c r="N84">
-        <v>5</v>
+        <v>242392</v>
       </c>
       <c r="O84">
-        <v>106</v>
+        <v>242742</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>1036</v>
+        <v>1173</v>
       </c>
       <c r="B85">
-        <v>14405</v>
+        <v>6462</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>1288</v>
@@ -8801,39 +8804,39 @@
         <v>3</v>
       </c>
       <c r="G85" s="3">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="H85" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="I85" t="s">
         <v>11</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>18</v>
+        <v>409</v>
       </c>
       <c r="K85" t="s">
-        <v>19</v>
+        <v>410</v>
       </c>
       <c r="L85" t="s">
-        <v>682</v>
+        <v>788</v>
       </c>
       <c r="M85" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N85">
-        <v>2693</v>
+        <v>14225</v>
       </c>
       <c r="O85">
-        <v>17097</v>
+        <v>20686</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>1037</v>
+        <v>1174</v>
       </c>
       <c r="B86">
-        <v>17258</v>
+        <v>1266</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>1288</v>
@@ -8848,39 +8851,39 @@
         <v>3</v>
       </c>
       <c r="G86" s="3">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="I86" t="s">
         <v>11</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>18</v>
+        <v>409</v>
       </c>
       <c r="K86" t="s">
-        <v>19</v>
+        <v>410</v>
       </c>
       <c r="L86" t="s">
-        <v>649</v>
+        <v>411</v>
       </c>
       <c r="M86" t="s">
         <v>30</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="O86">
-        <v>17259</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>1038</v>
+        <v>1014</v>
       </c>
       <c r="B87">
-        <v>6399</v>
+        <v>102</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>1288</v>
@@ -8895,7 +8898,7 @@
         <v>3</v>
       </c>
       <c r="G87" s="3">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
         <v>17</v>
@@ -8910,24 +8913,24 @@
         <v>19</v>
       </c>
       <c r="L87" t="s">
-        <v>344</v>
+        <v>755</v>
       </c>
       <c r="M87" t="s">
         <v>30</v>
       </c>
       <c r="N87">
-        <v>2117</v>
+        <v>5</v>
       </c>
       <c r="O87">
-        <v>8515</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B88">
-        <v>11055</v>
+        <v>14405</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>1288</v>
@@ -8942,7 +8945,7 @@
         <v>3</v>
       </c>
       <c r="G88" s="3">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H88" t="s">
         <v>17</v>
@@ -8957,24 +8960,24 @@
         <v>19</v>
       </c>
       <c r="L88" t="s">
-        <v>475</v>
+        <v>682</v>
       </c>
       <c r="M88" t="s">
         <v>15</v>
       </c>
       <c r="N88">
-        <v>583</v>
+        <v>2693</v>
       </c>
       <c r="O88">
-        <v>11637</v>
+        <v>17097</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B89">
-        <v>7086</v>
+        <v>17258</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>1288</v>
@@ -8989,7 +8992,7 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H89" t="s">
         <v>17</v>
@@ -9004,24 +9007,24 @@
         <v>19</v>
       </c>
       <c r="L89" t="s">
-        <v>734</v>
+        <v>649</v>
       </c>
       <c r="M89" t="s">
         <v>30</v>
       </c>
       <c r="N89">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="O89">
-        <v>7116</v>
+        <v>17259</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B90">
-        <v>13502</v>
+        <v>6399</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>1288</v>
@@ -9036,7 +9039,7 @@
         <v>3</v>
       </c>
       <c r="G90" s="3">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H90" t="s">
         <v>17</v>
@@ -9051,24 +9054,24 @@
         <v>19</v>
       </c>
       <c r="L90" t="s">
-        <v>742</v>
+        <v>344</v>
       </c>
       <c r="M90" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>2117</v>
       </c>
       <c r="O90">
-        <v>13504</v>
+        <v>8515</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B91">
-        <v>6463</v>
+        <v>11055</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>1288</v>
@@ -9083,7 +9086,7 @@
         <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H91" t="s">
         <v>17</v>
@@ -9098,24 +9101,24 @@
         <v>19</v>
       </c>
       <c r="L91" t="s">
-        <v>254</v>
+        <v>475</v>
       </c>
       <c r="M91" t="s">
         <v>15</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>583</v>
       </c>
       <c r="O91">
-        <v>6463</v>
+        <v>11637</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B92">
-        <v>6157</v>
+        <v>7086</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>1288</v>
@@ -9130,7 +9133,7 @@
         <v>3</v>
       </c>
       <c r="G92" s="3">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H92" t="s">
         <v>17</v>
@@ -9145,24 +9148,24 @@
         <v>19</v>
       </c>
       <c r="L92" t="s">
-        <v>483</v>
+        <v>734</v>
       </c>
       <c r="M92" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N92">
-        <v>1757</v>
+        <v>31</v>
       </c>
       <c r="O92">
-        <v>7913</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B93">
-        <v>1803</v>
+        <v>13502</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>1288</v>
@@ -9177,7 +9180,7 @@
         <v>3</v>
       </c>
       <c r="G93" s="3">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H93" t="s">
         <v>17</v>
@@ -9192,24 +9195,24 @@
         <v>19</v>
       </c>
       <c r="L93" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="M93" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N93">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O93">
-        <v>1823</v>
+        <v>13504</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="B94">
-        <v>1263</v>
+        <v>6463</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>1288</v>
@@ -9224,7 +9227,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H94" t="s">
         <v>17</v>
@@ -9239,24 +9242,24 @@
         <v>19</v>
       </c>
       <c r="L94" t="s">
-        <v>800</v>
+        <v>254</v>
       </c>
       <c r="M94" t="s">
         <v>15</v>
       </c>
       <c r="N94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>1266</v>
+        <v>6463</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B95">
-        <v>951</v>
+        <v>6157</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>1288</v>
@@ -9271,7 +9274,7 @@
         <v>3</v>
       </c>
       <c r="G95" s="3">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H95" t="s">
         <v>17</v>
@@ -9286,24 +9289,24 @@
         <v>19</v>
       </c>
       <c r="L95" t="s">
-        <v>87</v>
+        <v>483</v>
       </c>
       <c r="M95" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>1757</v>
       </c>
       <c r="O95">
-        <v>952</v>
+        <v>7913</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="B96">
-        <v>1327</v>
+        <v>1803</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>1288</v>
@@ -9318,7 +9321,7 @@
         <v>3</v>
       </c>
       <c r="G96" s="3">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H96" t="s">
         <v>17</v>
@@ -9333,24 +9336,24 @@
         <v>19</v>
       </c>
       <c r="L96" t="s">
-        <v>617</v>
+        <v>736</v>
       </c>
       <c r="M96" t="s">
         <v>30</v>
       </c>
       <c r="N96">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="O96">
-        <v>1329</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="B97">
-        <v>513</v>
+        <v>1263</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>1288</v>
@@ -9365,7 +9368,7 @@
         <v>3</v>
       </c>
       <c r="G97" s="3">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H97" t="s">
         <v>17</v>
@@ -9380,24 +9383,24 @@
         <v>19</v>
       </c>
       <c r="L97" t="s">
-        <v>61</v>
+        <v>800</v>
       </c>
       <c r="M97" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O97">
-        <v>513</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="B98">
-        <v>591</v>
+        <v>951</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>1288</v>
@@ -9412,7 +9415,7 @@
         <v>3</v>
       </c>
       <c r="G98" s="3">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H98" t="s">
         <v>17</v>
@@ -9427,24 +9430,24 @@
         <v>19</v>
       </c>
       <c r="L98" t="s">
-        <v>615</v>
+        <v>87</v>
       </c>
       <c r="M98" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N98">
         <v>2</v>
       </c>
       <c r="O98">
-        <v>592</v>
+        <v>952</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B99">
-        <v>483</v>
+        <v>1327</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>1288</v>
@@ -9459,7 +9462,7 @@
         <v>3</v>
       </c>
       <c r="G99" s="3">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s">
         <v>17</v>
@@ -9474,7 +9477,7 @@
         <v>19</v>
       </c>
       <c r="L99" t="s">
-        <v>315</v>
+        <v>617</v>
       </c>
       <c r="M99" t="s">
         <v>30</v>
@@ -9483,15 +9486,15 @@
         <v>3</v>
       </c>
       <c r="O99">
-        <v>485</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="B100">
-        <v>1189</v>
+        <v>513</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>1288</v>
@@ -9506,7 +9509,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s">
         <v>17</v>
@@ -9521,24 +9524,24 @@
         <v>19</v>
       </c>
       <c r="L100" t="s">
-        <v>629</v>
+        <v>61</v>
       </c>
       <c r="M100" t="s">
         <v>30</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>1191</v>
+        <v>513</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B101">
-        <v>501</v>
+        <v>591</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>1288</v>
@@ -9553,7 +9556,7 @@
         <v>3</v>
       </c>
       <c r="G101" s="3">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s">
         <v>17</v>
@@ -9568,7 +9571,7 @@
         <v>19</v>
       </c>
       <c r="L101" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="M101" t="s">
         <v>15</v>
@@ -9577,15 +9580,15 @@
         <v>2</v>
       </c>
       <c r="O101">
-        <v>502</v>
+        <v>592</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="B102">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>1288</v>
@@ -9600,7 +9603,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H102" t="s">
         <v>17</v>
@@ -9615,24 +9618,24 @@
         <v>19</v>
       </c>
       <c r="L102" t="s">
-        <v>845</v>
+        <v>315</v>
       </c>
       <c r="M102" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N102">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="O102">
-        <v>710</v>
+        <v>485</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B103">
-        <v>378</v>
+        <v>1189</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>1288</v>
@@ -9647,7 +9650,7 @@
         <v>3</v>
       </c>
       <c r="G103" s="3">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s">
         <v>17</v>
@@ -9662,24 +9665,24 @@
         <v>19</v>
       </c>
       <c r="L103" t="s">
-        <v>251</v>
+        <v>629</v>
       </c>
       <c r="M103" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N103">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="O103">
-        <v>403</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B104">
-        <v>378</v>
+        <v>501</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>1288</v>
@@ -9694,7 +9697,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H104" t="s">
         <v>17</v>
@@ -9709,24 +9712,24 @@
         <v>19</v>
       </c>
       <c r="L104" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="M104" t="s">
         <v>15</v>
       </c>
       <c r="N104">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="O104">
-        <v>403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B105">
-        <v>435</v>
+        <v>522</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>1288</v>
@@ -9741,7 +9744,7 @@
         <v>3</v>
       </c>
       <c r="G105" s="3">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H105" t="s">
         <v>17</v>
@@ -9756,24 +9759,24 @@
         <v>19</v>
       </c>
       <c r="L105" t="s">
-        <v>625</v>
+        <v>845</v>
       </c>
       <c r="M105" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N105">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="O105">
-        <v>436</v>
+        <v>710</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B106">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>1288</v>
@@ -9788,7 +9791,7 @@
         <v>3</v>
       </c>
       <c r="G106" s="3">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H106" t="s">
         <v>17</v>
@@ -9803,24 +9806,24 @@
         <v>19</v>
       </c>
       <c r="L106" t="s">
-        <v>459</v>
+        <v>251</v>
       </c>
       <c r="M106" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="O106">
-        <v>351</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B107">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>1288</v>
@@ -9835,7 +9838,7 @@
         <v>3</v>
       </c>
       <c r="G107" s="3">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H107" t="s">
         <v>17</v>
@@ -9850,21 +9853,21 @@
         <v>19</v>
       </c>
       <c r="L107" t="s">
-        <v>121</v>
+        <v>632</v>
       </c>
       <c r="M107" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="O107">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B108">
         <v>435</v>
@@ -9882,7 +9885,7 @@
         <v>3</v>
       </c>
       <c r="G108" s="3">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H108" t="s">
         <v>17</v>
@@ -9897,24 +9900,24 @@
         <v>19</v>
       </c>
       <c r="L108" t="s">
-        <v>183</v>
+        <v>625</v>
       </c>
       <c r="M108" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O108">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="B109">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>1288</v>
@@ -9929,7 +9932,7 @@
         <v>3</v>
       </c>
       <c r="G109" s="3">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H109" t="s">
         <v>17</v>
@@ -9944,24 +9947,24 @@
         <v>19</v>
       </c>
       <c r="L109" t="s">
-        <v>748</v>
+        <v>459</v>
       </c>
       <c r="M109" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="B110">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>1288</v>
@@ -9976,7 +9979,7 @@
         <v>3</v>
       </c>
       <c r="G110" s="3">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H110" t="s">
         <v>17</v>
@@ -9991,24 +9994,24 @@
         <v>19</v>
       </c>
       <c r="L110" t="s">
-        <v>721</v>
+        <v>121</v>
       </c>
       <c r="M110" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="B111">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>1288</v>
@@ -10023,7 +10026,7 @@
         <v>3</v>
       </c>
       <c r="G111" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H111" t="s">
         <v>17</v>
@@ -10038,7 +10041,7 @@
         <v>19</v>
       </c>
       <c r="L111" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M111" t="s">
         <v>15</v>
@@ -10047,15 +10050,15 @@
         <v>1</v>
       </c>
       <c r="O111">
-        <v>381</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B112">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>1288</v>
@@ -10070,7 +10073,7 @@
         <v>3</v>
       </c>
       <c r="G112" s="3">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H112" t="s">
         <v>17</v>
@@ -10085,24 +10088,24 @@
         <v>19</v>
       </c>
       <c r="L112" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="M112" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O112">
-        <v>281</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B113">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>1288</v>
@@ -10117,7 +10120,7 @@
         <v>3</v>
       </c>
       <c r="G113" s="3">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H113" t="s">
         <v>17</v>
@@ -10132,7 +10135,7 @@
         <v>19</v>
       </c>
       <c r="L113" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="M113" t="s">
         <v>15</v>
@@ -10141,15 +10144,15 @@
         <v>3</v>
       </c>
       <c r="O113">
-        <v>296</v>
+        <v>398</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B114">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>1288</v>
@@ -10164,7 +10167,7 @@
         <v>3</v>
       </c>
       <c r="G114" s="3">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H114" t="s">
         <v>17</v>
@@ -10179,24 +10182,24 @@
         <v>19</v>
       </c>
       <c r="L114" t="s">
-        <v>466</v>
+        <v>175</v>
       </c>
       <c r="M114" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O114">
-        <v>355</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="B115">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>1288</v>
@@ -10211,7 +10214,7 @@
         <v>3</v>
       </c>
       <c r="G115" s="3">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H115" t="s">
         <v>17</v>
@@ -10226,24 +10229,24 @@
         <v>19</v>
       </c>
       <c r="L115" t="s">
-        <v>860</v>
+        <v>740</v>
       </c>
       <c r="M115" t="s">
         <v>30</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>309</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B116">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>1288</v>
@@ -10258,7 +10261,7 @@
         <v>3</v>
       </c>
       <c r="G116" s="3">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H116" t="s">
         <v>17</v>
@@ -10273,24 +10276,24 @@
         <v>19</v>
       </c>
       <c r="L116" t="s">
-        <v>20</v>
+        <v>647</v>
       </c>
       <c r="M116" t="s">
         <v>15</v>
       </c>
       <c r="N116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O116">
-        <v>271</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B117">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>1288</v>
@@ -10305,7 +10308,7 @@
         <v>3</v>
       </c>
       <c r="G117" s="3">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H117" t="s">
         <v>17</v>
@@ -10320,24 +10323,24 @@
         <v>19</v>
       </c>
       <c r="L117" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="M117" t="s">
         <v>30</v>
       </c>
       <c r="N117">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O117">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B118">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>1288</v>
@@ -10352,7 +10355,7 @@
         <v>3</v>
       </c>
       <c r="G118" s="3">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H118" t="s">
         <v>17</v>
@@ -10367,24 +10370,24 @@
         <v>19</v>
       </c>
       <c r="L118" t="s">
-        <v>57</v>
+        <v>860</v>
       </c>
       <c r="M118" t="s">
         <v>30</v>
       </c>
       <c r="N118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>233</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B119">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>1288</v>
@@ -10399,7 +10402,7 @@
         <v>3</v>
       </c>
       <c r="G119" s="3">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H119" t="s">
         <v>17</v>
@@ -10414,7 +10417,7 @@
         <v>19</v>
       </c>
       <c r="L119" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="M119" t="s">
         <v>15</v>
@@ -10423,15 +10426,15 @@
         <v>2</v>
       </c>
       <c r="O119">
-        <v>223</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B120">
-        <v>231</v>
+        <v>345</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>1288</v>
@@ -10446,7 +10449,7 @@
         <v>3</v>
       </c>
       <c r="G120" s="3">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H120" t="s">
         <v>17</v>
@@ -10461,24 +10464,24 @@
         <v>19</v>
       </c>
       <c r="L120" t="s">
-        <v>481</v>
+        <v>413</v>
       </c>
       <c r="M120" t="s">
         <v>30</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O120">
-        <v>233</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B121">
-        <v>348</v>
+        <v>231</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>1288</v>
@@ -10493,7 +10496,7 @@
         <v>3</v>
       </c>
       <c r="G121" s="3">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H121" t="s">
         <v>17</v>
@@ -10508,24 +10511,24 @@
         <v>19</v>
       </c>
       <c r="L121" t="s">
-        <v>222</v>
+        <v>57</v>
       </c>
       <c r="M121" t="s">
         <v>30</v>
       </c>
       <c r="N121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O121">
-        <v>349</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B122">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>1288</v>
@@ -10540,7 +10543,7 @@
         <v>3</v>
       </c>
       <c r="G122" s="3">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H122" t="s">
         <v>17</v>
@@ -10555,7 +10558,7 @@
         <v>19</v>
       </c>
       <c r="L122" t="s">
-        <v>587</v>
+        <v>123</v>
       </c>
       <c r="M122" t="s">
         <v>15</v>
@@ -10564,15 +10567,15 @@
         <v>2</v>
       </c>
       <c r="O122">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="B123">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>1288</v>
@@ -10587,7 +10590,7 @@
         <v>3</v>
       </c>
       <c r="G123" s="3">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H123" t="s">
         <v>17</v>
@@ -10602,24 +10605,24 @@
         <v>19</v>
       </c>
       <c r="L123" t="s">
-        <v>719</v>
+        <v>481</v>
       </c>
       <c r="M123" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N123">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="O123">
-        <v>367</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="B124">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>1288</v>
@@ -10634,7 +10637,7 @@
         <v>3</v>
       </c>
       <c r="G124" s="3">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H124" t="s">
         <v>17</v>
@@ -10649,24 +10652,24 @@
         <v>19</v>
       </c>
       <c r="L124" t="s">
-        <v>498</v>
+        <v>222</v>
       </c>
       <c r="M124" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O124">
-        <v>281</v>
+        <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="B125">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>1288</v>
@@ -10681,7 +10684,7 @@
         <v>3</v>
       </c>
       <c r="G125" s="3">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H125" t="s">
         <v>17</v>
@@ -10696,7 +10699,7 @@
         <v>19</v>
       </c>
       <c r="L125" t="s">
-        <v>232</v>
+        <v>587</v>
       </c>
       <c r="M125" t="s">
         <v>15</v>
@@ -10705,15 +10708,15 @@
         <v>2</v>
       </c>
       <c r="O125">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B126">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>1288</v>
@@ -10728,7 +10731,7 @@
         <v>3</v>
       </c>
       <c r="G126" s="3">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H126" t="s">
         <v>17</v>
@@ -10743,24 +10746,24 @@
         <v>19</v>
       </c>
       <c r="L126" t="s">
-        <v>169</v>
+        <v>719</v>
       </c>
       <c r="M126" t="s">
         <v>15</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="O126">
-        <v>253</v>
+        <v>367</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="B127">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>1288</v>
@@ -10775,7 +10778,7 @@
         <v>3</v>
       </c>
       <c r="G127" s="3">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H127" t="s">
         <v>17</v>
@@ -10790,24 +10793,24 @@
         <v>19</v>
       </c>
       <c r="L127" t="s">
-        <v>774</v>
+        <v>498</v>
       </c>
       <c r="M127" t="s">
         <v>15</v>
       </c>
       <c r="N127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O127">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="B128">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>1288</v>
@@ -10822,7 +10825,7 @@
         <v>3</v>
       </c>
       <c r="G128" s="3">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H128" t="s">
         <v>17</v>
@@ -10837,7 +10840,7 @@
         <v>19</v>
       </c>
       <c r="L128" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="M128" t="s">
         <v>15</v>
@@ -10846,15 +10849,15 @@
         <v>2</v>
       </c>
       <c r="O128">
-        <v>280</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B129">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>1288</v>
@@ -10869,7 +10872,7 @@
         <v>3</v>
       </c>
       <c r="G129" s="3">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H129" t="s">
         <v>17</v>
@@ -10884,7 +10887,7 @@
         <v>19</v>
       </c>
       <c r="L129" t="s">
-        <v>596</v>
+        <v>169</v>
       </c>
       <c r="M129" t="s">
         <v>15</v>
@@ -10893,15 +10896,15 @@
         <v>2</v>
       </c>
       <c r="O129">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B130">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>1288</v>
@@ -10916,7 +10919,7 @@
         <v>3</v>
       </c>
       <c r="G130" s="3">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H130" t="s">
         <v>17</v>
@@ -10931,24 +10934,24 @@
         <v>19</v>
       </c>
       <c r="L130" t="s">
-        <v>364</v>
+        <v>774</v>
       </c>
       <c r="M130" t="s">
         <v>15</v>
       </c>
       <c r="N130">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="O130">
-        <v>399</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B131">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>1288</v>
@@ -10963,7 +10966,7 @@
         <v>3</v>
       </c>
       <c r="G131" s="3">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H131" t="s">
         <v>17</v>
@@ -10978,24 +10981,24 @@
         <v>19</v>
       </c>
       <c r="L131" t="s">
-        <v>693</v>
+        <v>24</v>
       </c>
       <c r="M131" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O131">
-        <v>342</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B132">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>1288</v>
@@ -11010,7 +11013,7 @@
         <v>3</v>
       </c>
       <c r="G132" s="3">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H132" t="s">
         <v>17</v>
@@ -11025,24 +11028,24 @@
         <v>19</v>
       </c>
       <c r="L132" t="s">
-        <v>397</v>
+        <v>596</v>
       </c>
       <c r="M132" t="s">
         <v>15</v>
       </c>
       <c r="N132">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="O132">
-        <v>332</v>
+        <v>280</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B133">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>1288</v>
@@ -11057,7 +11060,7 @@
         <v>3</v>
       </c>
       <c r="G133" s="3">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H133" t="s">
         <v>17</v>
@@ -11072,24 +11075,24 @@
         <v>19</v>
       </c>
       <c r="L133" t="s">
-        <v>804</v>
+        <v>364</v>
       </c>
       <c r="M133" t="s">
         <v>15</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="O133">
-        <v>219</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="B134">
-        <v>231</v>
+        <v>339</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>1288</v>
@@ -11104,7 +11107,7 @@
         <v>3</v>
       </c>
       <c r="G134" s="3">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H134" t="s">
         <v>17</v>
@@ -11119,24 +11122,24 @@
         <v>19</v>
       </c>
       <c r="L134" t="s">
-        <v>388</v>
+        <v>693</v>
       </c>
       <c r="M134" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O134">
-        <v>231</v>
+        <v>342</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="B135">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>1288</v>
@@ -11151,7 +11154,7 @@
         <v>3</v>
       </c>
       <c r="G135" s="3">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H135" t="s">
         <v>17</v>
@@ -11166,24 +11169,24 @@
         <v>19</v>
       </c>
       <c r="L135" t="s">
-        <v>661</v>
+        <v>397</v>
       </c>
       <c r="M135" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N135">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="O135">
-        <v>250</v>
+        <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="B136">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>1288</v>
@@ -11198,7 +11201,7 @@
         <v>3</v>
       </c>
       <c r="G136" s="3">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H136" t="s">
         <v>17</v>
@@ -11213,24 +11216,24 @@
         <v>19</v>
       </c>
       <c r="L136" t="s">
-        <v>429</v>
+        <v>804</v>
       </c>
       <c r="M136" t="s">
         <v>15</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O136">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="B137">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>1288</v>
@@ -11245,7 +11248,7 @@
         <v>3</v>
       </c>
       <c r="G137" s="3">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H137" t="s">
         <v>17</v>
@@ -11260,24 +11263,24 @@
         <v>19</v>
       </c>
       <c r="L137" t="s">
-        <v>816</v>
+        <v>388</v>
       </c>
       <c r="M137" t="s">
         <v>15</v>
       </c>
       <c r="N137">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="O137">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="B138">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>1288</v>
@@ -11292,7 +11295,7 @@
         <v>3</v>
       </c>
       <c r="G138" s="3">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H138" t="s">
         <v>17</v>
@@ -11307,7 +11310,7 @@
         <v>19</v>
       </c>
       <c r="L138" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="M138" t="s">
         <v>30</v>
@@ -11316,15 +11319,15 @@
         <v>2</v>
       </c>
       <c r="O138">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="B139">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>1288</v>
@@ -11339,7 +11342,7 @@
         <v>3</v>
       </c>
       <c r="G139" s="3">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H139" t="s">
         <v>17</v>
@@ -11354,21 +11357,21 @@
         <v>19</v>
       </c>
       <c r="L139" t="s">
-        <v>770</v>
+        <v>429</v>
       </c>
       <c r="M139" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O139">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B140">
         <v>186</v>
@@ -11386,7 +11389,7 @@
         <v>3</v>
       </c>
       <c r="G140" s="3">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H140" t="s">
         <v>17</v>
@@ -11401,24 +11404,24 @@
         <v>19</v>
       </c>
       <c r="L140" t="s">
-        <v>510</v>
+        <v>816</v>
       </c>
       <c r="M140" t="s">
         <v>15</v>
       </c>
       <c r="N140">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O140">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B141">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>1288</v>
@@ -11433,7 +11436,7 @@
         <v>3</v>
       </c>
       <c r="G141" s="3">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H141" t="s">
         <v>17</v>
@@ -11448,7 +11451,7 @@
         <v>19</v>
       </c>
       <c r="L141" t="s">
-        <v>197</v>
+        <v>651</v>
       </c>
       <c r="M141" t="s">
         <v>30</v>
@@ -11457,15 +11460,15 @@
         <v>2</v>
       </c>
       <c r="O141">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B142">
-        <v>282</v>
+        <v>198</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>1288</v>
@@ -11480,7 +11483,7 @@
         <v>3</v>
       </c>
       <c r="G142" s="3">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H142" t="s">
         <v>17</v>
@@ -11495,24 +11498,24 @@
         <v>19</v>
       </c>
       <c r="L142" t="s">
-        <v>309</v>
+        <v>770</v>
       </c>
       <c r="M142" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N142">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O142">
-        <v>289</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="B143">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>1288</v>
@@ -11527,7 +11530,7 @@
         <v>3</v>
       </c>
       <c r="G143" s="3">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H143" t="s">
         <v>17</v>
@@ -11542,13 +11545,13 @@
         <v>19</v>
       </c>
       <c r="L143" t="s">
-        <v>298</v>
+        <v>510</v>
       </c>
       <c r="M143" t="s">
         <v>15</v>
       </c>
       <c r="N143">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="O143">
         <v>240</v>
@@ -11556,10 +11559,10 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
       <c r="B144">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>1288</v>
@@ -11574,7 +11577,7 @@
         <v>3</v>
       </c>
       <c r="G144" s="3">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H144" t="s">
         <v>17</v>
@@ -11589,24 +11592,24 @@
         <v>19</v>
       </c>
       <c r="L144" t="s">
-        <v>784</v>
+        <v>197</v>
       </c>
       <c r="M144" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N144">
         <v>2</v>
       </c>
       <c r="O144">
-        <v>277</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="B145">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>1288</v>
@@ -11621,7 +11624,7 @@
         <v>3</v>
       </c>
       <c r="G145" s="3">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H145" t="s">
         <v>17</v>
@@ -11636,24 +11639,24 @@
         <v>19</v>
       </c>
       <c r="L145" t="s">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="M145" t="s">
         <v>15</v>
       </c>
       <c r="N145">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O145">
-        <v>197</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="B146">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>1288</v>
@@ -11668,7 +11671,7 @@
         <v>3</v>
       </c>
       <c r="G146" s="3">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H146" t="s">
         <v>17</v>
@@ -11683,24 +11686,24 @@
         <v>19</v>
       </c>
       <c r="L146" t="s">
-        <v>97</v>
+        <v>298</v>
       </c>
       <c r="M146" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N146">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="O146">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="B147">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>1288</v>
@@ -11715,7 +11718,7 @@
         <v>3</v>
       </c>
       <c r="G147" s="3">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H147" t="s">
         <v>17</v>
@@ -11730,24 +11733,24 @@
         <v>19</v>
       </c>
       <c r="L147" t="s">
-        <v>239</v>
+        <v>784</v>
       </c>
       <c r="M147" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O147">
-        <v>216</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="B148">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>1288</v>
@@ -11762,7 +11765,7 @@
         <v>3</v>
       </c>
       <c r="G148" s="3">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H148" t="s">
         <v>17</v>
@@ -11777,24 +11780,24 @@
         <v>19</v>
       </c>
       <c r="L148" t="s">
-        <v>862</v>
+        <v>91</v>
       </c>
       <c r="M148" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N148">
         <v>3</v>
       </c>
       <c r="O148">
-        <v>137</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="B149">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>1288</v>
@@ -11809,7 +11812,7 @@
         <v>3</v>
       </c>
       <c r="G149" s="3">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H149" t="s">
         <v>17</v>
@@ -11824,24 +11827,24 @@
         <v>19</v>
       </c>
       <c r="L149" t="s">
-        <v>500</v>
+        <v>97</v>
       </c>
       <c r="M149" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N149">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="O149">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>1165</v>
+        <v>1138</v>
       </c>
       <c r="B150">
-        <v>2283</v>
+        <v>213</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>1288</v>
@@ -11856,7 +11859,7 @@
         <v>3</v>
       </c>
       <c r="G150" s="3">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="H150" t="s">
         <v>17</v>
@@ -11871,24 +11874,24 @@
         <v>19</v>
       </c>
       <c r="L150" t="s">
-        <v>684</v>
+        <v>239</v>
       </c>
       <c r="M150" t="s">
         <v>30</v>
       </c>
       <c r="N150">
-        <v>10802</v>
+        <v>4</v>
       </c>
       <c r="O150">
-        <v>13084</v>
+        <v>216</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>1167</v>
+        <v>1141</v>
       </c>
       <c r="B151">
-        <v>687</v>
+        <v>135</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>1288</v>
@@ -11903,7 +11906,7 @@
         <v>3</v>
       </c>
       <c r="G151" s="3">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="H151" t="s">
         <v>17</v>
@@ -11918,24 +11921,24 @@
         <v>19</v>
       </c>
       <c r="L151" t="s">
-        <v>808</v>
+        <v>862</v>
       </c>
       <c r="M151" t="s">
         <v>30</v>
       </c>
       <c r="N151">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O151">
-        <v>696</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>1168</v>
+        <v>1145</v>
       </c>
       <c r="B152">
-        <v>372</v>
+        <v>147</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>1288</v>
@@ -11950,7 +11953,7 @@
         <v>3</v>
       </c>
       <c r="G152" s="3">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="H152" t="s">
         <v>17</v>
@@ -11965,24 +11968,24 @@
         <v>19</v>
       </c>
       <c r="L152" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="M152" t="s">
         <v>15</v>
       </c>
       <c r="N152">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="O152">
-        <v>373</v>
+        <v>238</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B153">
-        <v>315</v>
+        <v>2283</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>1288</v>
@@ -11997,7 +12000,7 @@
         <v>3</v>
       </c>
       <c r="G153" s="3">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H153" t="s">
         <v>17</v>
@@ -12012,24 +12015,24 @@
         <v>19</v>
       </c>
       <c r="L153" t="s">
-        <v>477</v>
+        <v>684</v>
       </c>
       <c r="M153" t="s">
         <v>30</v>
       </c>
       <c r="N153">
-        <v>2</v>
+        <v>10802</v>
       </c>
       <c r="O153">
-        <v>316</v>
+        <v>13084</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="B154">
-        <v>219</v>
+        <v>687</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>1288</v>
@@ -12044,7 +12047,7 @@
         <v>3</v>
       </c>
       <c r="G154" s="3">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H154" t="s">
         <v>17</v>
@@ -12059,24 +12062,24 @@
         <v>19</v>
       </c>
       <c r="L154" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="M154" t="s">
         <v>30</v>
       </c>
       <c r="N154">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O154">
-        <v>220</v>
+        <v>696</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B155">
-        <v>6462</v>
+        <v>372</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>1288</v>
@@ -12091,7 +12094,7 @@
         <v>3</v>
       </c>
       <c r="G155" s="3">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H155" t="s">
         <v>17</v>
@@ -12103,27 +12106,27 @@
         <v>18</v>
       </c>
       <c r="K155" t="s">
-        <v>410</v>
+        <v>19</v>
       </c>
       <c r="L155" t="s">
-        <v>788</v>
+        <v>22</v>
       </c>
       <c r="M155" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N155">
-        <v>14225</v>
+        <v>2</v>
       </c>
       <c r="O155">
-        <v>20686</v>
+        <v>373</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B156">
-        <v>1266</v>
+        <v>315</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>1288</v>
@@ -12138,7 +12141,7 @@
         <v>3</v>
       </c>
       <c r="G156" s="3">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H156" t="s">
         <v>17</v>
@@ -12150,27 +12153,27 @@
         <v>18</v>
       </c>
       <c r="K156" t="s">
-        <v>410</v>
+        <v>19</v>
       </c>
       <c r="L156" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="M156" t="s">
         <v>30</v>
       </c>
       <c r="N156">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O156">
-        <v>1315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="B157">
-        <v>1161</v>
+        <v>219</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>1288</v>
@@ -12185,7 +12188,7 @@
         <v>3</v>
       </c>
       <c r="G157" s="3">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H157" t="s">
         <v>17</v>
@@ -12200,24 +12203,24 @@
         <v>19</v>
       </c>
       <c r="L157" t="s">
-        <v>856</v>
+        <v>814</v>
       </c>
       <c r="M157" t="s">
         <v>30</v>
       </c>
       <c r="N157">
-        <v>3881</v>
+        <v>2</v>
       </c>
       <c r="O157">
-        <v>5041</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B158">
-        <v>381</v>
+        <v>6462</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>1288</v>
@@ -12232,7 +12235,7 @@
         <v>3</v>
       </c>
       <c r="G158" s="3">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H158" t="s">
         <v>17</v>
@@ -12244,27 +12247,27 @@
         <v>18</v>
       </c>
       <c r="K158" t="s">
-        <v>19</v>
+        <v>410</v>
       </c>
       <c r="L158" t="s">
-        <v>284</v>
+        <v>788</v>
       </c>
       <c r="M158" t="s">
         <v>30</v>
       </c>
       <c r="N158">
-        <v>2</v>
+        <v>14225</v>
       </c>
       <c r="O158">
-        <v>382</v>
+        <v>20686</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="B159">
-        <v>327</v>
+        <v>1266</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>1288</v>
@@ -12279,7 +12282,7 @@
         <v>3</v>
       </c>
       <c r="G159" s="3">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H159" t="s">
         <v>17</v>
@@ -12291,27 +12294,27 @@
         <v>18</v>
       </c>
       <c r="K159" t="s">
-        <v>19</v>
+        <v>410</v>
       </c>
       <c r="L159" t="s">
-        <v>583</v>
+        <v>411</v>
       </c>
       <c r="M159" t="s">
         <v>30</v>
       </c>
       <c r="N159">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="O159">
-        <v>328</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B160">
-        <v>2316</v>
+        <v>1161</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>1288</v>
@@ -12326,7 +12329,7 @@
         <v>3</v>
       </c>
       <c r="G160" s="3">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H160" t="s">
         <v>17</v>
@@ -12341,24 +12344,24 @@
         <v>19</v>
       </c>
       <c r="L160" t="s">
-        <v>708</v>
+        <v>856</v>
       </c>
       <c r="M160" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N160">
-        <v>1058</v>
+        <v>3881</v>
       </c>
       <c r="O160">
-        <v>3373</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B161">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>1288</v>
@@ -12373,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="G161" s="3">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H161" t="s">
         <v>17</v>
@@ -12388,7 +12391,7 @@
         <v>19</v>
       </c>
       <c r="L161" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="M161" t="s">
         <v>30</v>
@@ -12397,15 +12400,15 @@
         <v>2</v>
       </c>
       <c r="O161">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="B162">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>1288</v>
@@ -12420,7 +12423,7 @@
         <v>3</v>
       </c>
       <c r="G162" s="3">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H162" t="s">
         <v>17</v>
@@ -12435,24 +12438,24 @@
         <v>19</v>
       </c>
       <c r="L162" t="s">
-        <v>262</v>
+        <v>583</v>
       </c>
       <c r="M162" t="s">
         <v>30</v>
       </c>
       <c r="N162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O162">
-        <v>260</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="B163">
-        <v>270</v>
+        <v>2316</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>1288</v>
@@ -12467,7 +12470,7 @@
         <v>3</v>
       </c>
       <c r="G163" s="3">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H163" t="s">
         <v>17</v>
@@ -12482,24 +12485,24 @@
         <v>19</v>
       </c>
       <c r="L163" t="s">
-        <v>201</v>
+        <v>708</v>
       </c>
       <c r="M163" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N163">
-        <v>2</v>
+        <v>1058</v>
       </c>
       <c r="O163">
-        <v>271</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B164">
-        <v>255</v>
+        <v>399</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>1288</v>
@@ -12514,7 +12517,7 @@
         <v>3</v>
       </c>
       <c r="G164" s="3">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H164" t="s">
         <v>17</v>
@@ -12529,24 +12532,24 @@
         <v>19</v>
       </c>
       <c r="L164" t="s">
-        <v>585</v>
+        <v>224</v>
       </c>
       <c r="M164" t="s">
         <v>30</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O164">
-        <v>255</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="B165">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>1288</v>
@@ -12561,7 +12564,7 @@
         <v>3</v>
       </c>
       <c r="G165" s="3">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H165" t="s">
         <v>17</v>
@@ -12576,24 +12579,24 @@
         <v>19</v>
       </c>
       <c r="L165" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="M165" t="s">
         <v>30</v>
       </c>
       <c r="N165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O165">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B166">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>1288</v>
@@ -12608,7 +12611,7 @@
         <v>3</v>
       </c>
       <c r="G166" s="3">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H166" t="s">
         <v>17</v>
@@ -12623,7 +12626,7 @@
         <v>19</v>
       </c>
       <c r="L166" t="s">
-        <v>833</v>
+        <v>201</v>
       </c>
       <c r="M166" t="s">
         <v>30</v>
@@ -12632,15 +12635,15 @@
         <v>2</v>
       </c>
       <c r="O166">
-        <v>172</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B167">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>1288</v>
@@ -12655,7 +12658,7 @@
         <v>3</v>
       </c>
       <c r="G167" s="3">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H167" t="s">
         <v>17</v>
@@ -12670,7 +12673,7 @@
         <v>19</v>
       </c>
       <c r="L167" t="s">
-        <v>485</v>
+        <v>585</v>
       </c>
       <c r="M167" t="s">
         <v>30</v>
@@ -12679,15 +12682,15 @@
         <v>1</v>
       </c>
       <c r="O167">
-        <v>174</v>
+        <v>255</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B168">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>1288</v>
@@ -12702,7 +12705,7 @@
         <v>3</v>
       </c>
       <c r="G168" s="3">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H168" t="s">
         <v>17</v>
@@ -12717,24 +12720,24 @@
         <v>19</v>
       </c>
       <c r="L168" t="s">
-        <v>621</v>
+        <v>181</v>
       </c>
       <c r="M168" t="s">
         <v>30</v>
       </c>
       <c r="N168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O168">
-        <v>147</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B169">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>1288</v>
@@ -12749,7 +12752,7 @@
         <v>3</v>
       </c>
       <c r="G169" s="3">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H169" t="s">
         <v>17</v>
@@ -12764,24 +12767,24 @@
         <v>19</v>
       </c>
       <c r="L169" t="s">
-        <v>167</v>
+        <v>833</v>
       </c>
       <c r="M169" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O169">
-        <v>104</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>975</v>
+        <v>1190</v>
       </c>
       <c r="B170">
-        <v>5951</v>
+        <v>174</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>1288</v>
@@ -12796,39 +12799,39 @@
         <v>3</v>
       </c>
       <c r="G170" s="3">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="H170" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I170" t="s">
         <v>11</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="K170" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="L170" t="s">
-        <v>380</v>
+        <v>485</v>
       </c>
       <c r="M170" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N170">
-        <v>1526901</v>
+        <v>1</v>
       </c>
       <c r="O170">
-        <v>1532851</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>977</v>
+        <v>1191</v>
       </c>
       <c r="B171">
-        <v>3756</v>
+        <v>147</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>1288</v>
@@ -12843,39 +12846,39 @@
         <v>3</v>
       </c>
       <c r="G171" s="3">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="H171" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I171" t="s">
         <v>11</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="K171" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="L171" t="s">
-        <v>95</v>
+        <v>621</v>
       </c>
       <c r="M171" t="s">
         <v>30</v>
       </c>
       <c r="N171">
-        <v>135751</v>
+        <v>1</v>
       </c>
       <c r="O171">
-        <v>139506</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>978</v>
+        <v>1192</v>
       </c>
       <c r="B172">
-        <v>1084</v>
+        <v>102</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>1288</v>
@@ -12890,39 +12893,39 @@
         <v>3</v>
       </c>
       <c r="G172" s="3">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="H172" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I172" t="s">
         <v>11</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="K172" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="L172" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="M172" t="s">
         <v>15</v>
       </c>
       <c r="N172">
-        <v>13307</v>
+        <v>3</v>
       </c>
       <c r="O172">
-        <v>14390</v>
+        <v>104</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>1018</v>
+        <v>975</v>
       </c>
       <c r="B173">
-        <v>564</v>
+        <v>5951</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>1288</v>
@@ -12937,7 +12940,7 @@
         <v>3</v>
       </c>
       <c r="G173" s="3">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="H173" t="s">
         <v>76</v>
@@ -12952,24 +12955,24 @@
         <v>78</v>
       </c>
       <c r="L173" t="s">
-        <v>837</v>
+        <v>380</v>
       </c>
       <c r="M173" t="s">
         <v>15</v>
       </c>
       <c r="N173">
-        <v>12237</v>
+        <v>1526901</v>
       </c>
       <c r="O173">
-        <v>12800</v>
+        <v>1532851</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>1020</v>
+        <v>977</v>
       </c>
       <c r="B174">
-        <v>219</v>
+        <v>3756</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>1288</v>
@@ -12984,7 +12987,7 @@
         <v>3</v>
       </c>
       <c r="G174" s="3">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H174" t="s">
         <v>76</v>
@@ -12999,24 +13002,24 @@
         <v>78</v>
       </c>
       <c r="L174" t="s">
-        <v>539</v>
+        <v>95</v>
       </c>
       <c r="M174" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N174">
-        <v>468128</v>
+        <v>135751</v>
       </c>
       <c r="O174">
-        <v>468346</v>
+        <v>139506</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>1044</v>
+        <v>978</v>
       </c>
       <c r="B175">
-        <v>3628</v>
+        <v>1084</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>1288</v>
@@ -13031,7 +13034,7 @@
         <v>3</v>
       </c>
       <c r="G175" s="3">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="H175" t="s">
         <v>76</v>
@@ -13046,24 +13049,24 @@
         <v>78</v>
       </c>
       <c r="L175" t="s">
-        <v>516</v>
+        <v>245</v>
       </c>
       <c r="M175" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N175">
-        <v>55376</v>
+        <v>13307</v>
       </c>
       <c r="O175">
-        <v>59003</v>
+        <v>14390</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>1052</v>
+        <v>1018</v>
       </c>
       <c r="B176">
-        <v>2091</v>
+        <v>564</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>1288</v>
@@ -13078,7 +13081,7 @@
         <v>3</v>
       </c>
       <c r="G176" s="3">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="H176" t="s">
         <v>76</v>
@@ -13093,24 +13096,24 @@
         <v>78</v>
       </c>
       <c r="L176" t="s">
-        <v>95</v>
+        <v>837</v>
       </c>
       <c r="M176" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N176">
-        <v>120625</v>
+        <v>12237</v>
       </c>
       <c r="O176">
-        <v>122715</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>1064</v>
+        <v>1020</v>
       </c>
       <c r="B177">
-        <v>1068</v>
+        <v>219</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>1288</v>
@@ -13125,7 +13128,7 @@
         <v>3</v>
       </c>
       <c r="G177" s="3">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="H177" t="s">
         <v>76</v>
@@ -13140,24 +13143,24 @@
         <v>78</v>
       </c>
       <c r="L177" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="M177" t="s">
         <v>15</v>
       </c>
       <c r="N177">
-        <v>11308</v>
+        <v>468128</v>
       </c>
       <c r="O177">
-        <v>12375</v>
+        <v>468346</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>1076</v>
+        <v>1044</v>
       </c>
       <c r="B178">
-        <v>420</v>
+        <v>3628</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>1288</v>
@@ -13172,7 +13175,7 @@
         <v>3</v>
       </c>
       <c r="G178" s="3">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="H178" t="s">
         <v>76</v>
@@ -13187,24 +13190,24 @@
         <v>78</v>
       </c>
       <c r="L178" t="s">
-        <v>555</v>
+        <v>516</v>
       </c>
       <c r="M178" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N178">
-        <v>18973</v>
+        <v>55376</v>
       </c>
       <c r="O178">
-        <v>19392</v>
+        <v>59003</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>1142</v>
+        <v>1052</v>
       </c>
       <c r="B179">
-        <v>1126</v>
+        <v>2091</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>1288</v>
@@ -13219,7 +13222,7 @@
         <v>3</v>
       </c>
       <c r="G179" s="3">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="H179" t="s">
         <v>76</v>
@@ -13234,24 +13237,24 @@
         <v>78</v>
       </c>
       <c r="L179" t="s">
-        <v>594</v>
+        <v>95</v>
       </c>
       <c r="M179" t="s">
         <v>30</v>
       </c>
       <c r="N179">
-        <v>745179</v>
+        <v>120625</v>
       </c>
       <c r="O179">
-        <v>746304</v>
+        <v>122715</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>1166</v>
+        <v>1064</v>
       </c>
       <c r="B180">
-        <v>894</v>
+        <v>1068</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>1288</v>
@@ -13266,7 +13269,7 @@
         <v>3</v>
       </c>
       <c r="G180" s="3">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="H180" t="s">
         <v>76</v>
@@ -13281,24 +13284,24 @@
         <v>78</v>
       </c>
       <c r="L180" t="s">
-        <v>247</v>
+        <v>555</v>
       </c>
       <c r="M180" t="s">
         <v>15</v>
       </c>
       <c r="N180">
-        <v>287333</v>
+        <v>11308</v>
       </c>
       <c r="O180">
-        <v>288226</v>
+        <v>12375</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>1183</v>
+        <v>1076</v>
       </c>
       <c r="B181">
-        <v>939</v>
+        <v>420</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>1288</v>
@@ -13313,7 +13316,7 @@
         <v>3</v>
       </c>
       <c r="G181" s="3">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="H181" t="s">
         <v>76</v>
@@ -13328,24 +13331,24 @@
         <v>78</v>
       </c>
       <c r="L181" t="s">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="M181" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N181">
-        <v>2043</v>
+        <v>18973</v>
       </c>
       <c r="O181">
-        <v>2981</v>
+        <v>19392</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>982</v>
+        <v>1142</v>
       </c>
       <c r="B182">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>1288</v>
@@ -13360,39 +13363,39 @@
         <v>3</v>
       </c>
       <c r="G182" s="3">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="H182" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="I182" t="s">
         <v>11</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="K182" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="L182" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="M182" t="s">
         <v>30</v>
       </c>
       <c r="N182">
-        <v>139</v>
+        <v>745179</v>
       </c>
       <c r="O182">
-        <v>1266</v>
+        <v>746304</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>984</v>
+        <v>1166</v>
       </c>
       <c r="B183">
-        <v>826</v>
+        <v>894</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>1288</v>
@@ -13407,39 +13410,39 @@
         <v>3</v>
       </c>
       <c r="G183" s="3">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="H183" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="I183" t="s">
         <v>11</v>
       </c>
       <c r="J183" s="5" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="K183" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="L183" t="s">
-        <v>710</v>
+        <v>247</v>
       </c>
       <c r="M183" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N183">
-        <v>3</v>
+        <v>287333</v>
       </c>
       <c r="O183">
-        <v>828</v>
+        <v>288226</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>1013</v>
+        <v>1183</v>
       </c>
       <c r="B184">
-        <v>168</v>
+        <v>939</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>1288</v>
@@ -13454,39 +13457,39 @@
         <v>3</v>
       </c>
       <c r="G184" s="3">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="H184" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="I184" t="s">
         <v>11</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="K184" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="L184" t="s">
-        <v>780</v>
+        <v>79</v>
       </c>
       <c r="M184" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N184">
-        <v>37</v>
+        <v>2043</v>
       </c>
       <c r="O184">
-        <v>204</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>1017</v>
+        <v>982</v>
       </c>
       <c r="B185">
-        <v>771</v>
+        <v>1128</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>1288</v>
@@ -13501,7 +13504,7 @@
         <v>3</v>
       </c>
       <c r="G185" s="3">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H185" t="s">
         <v>47</v>
@@ -13516,24 +13519,24 @@
         <v>49</v>
       </c>
       <c r="L185" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="M185" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N185">
-        <v>28582</v>
+        <v>139</v>
       </c>
       <c r="O185">
-        <v>29352</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>1047</v>
+        <v>984</v>
       </c>
       <c r="B186">
-        <v>4441</v>
+        <v>826</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>1288</v>
@@ -13548,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="G186" s="3">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="H186" t="s">
         <v>47</v>
@@ -13563,24 +13566,24 @@
         <v>49</v>
       </c>
       <c r="L186" t="s">
-        <v>50</v>
+        <v>710</v>
       </c>
       <c r="M186" t="s">
         <v>30</v>
       </c>
       <c r="N186">
-        <v>45737</v>
+        <v>3</v>
       </c>
       <c r="O186">
-        <v>50177</v>
+        <v>828</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>1069</v>
+        <v>1013</v>
       </c>
       <c r="B187">
-        <v>754</v>
+        <v>168</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>1288</v>
@@ -13595,7 +13598,7 @@
         <v>3</v>
       </c>
       <c r="G187" s="3">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="H187" t="s">
         <v>47</v>
@@ -13610,24 +13613,24 @@
         <v>49</v>
       </c>
       <c r="L187" t="s">
-        <v>438</v>
+        <v>780</v>
       </c>
       <c r="M187" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N187">
-        <v>26171</v>
+        <v>37</v>
       </c>
       <c r="O187">
-        <v>26924</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>1094</v>
+        <v>1017</v>
       </c>
       <c r="B188">
-        <v>411</v>
+        <v>771</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>1288</v>
@@ -13642,7 +13645,7 @@
         <v>3</v>
       </c>
       <c r="G188" s="3">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H188" t="s">
         <v>47</v>
@@ -13657,24 +13660,24 @@
         <v>49</v>
       </c>
       <c r="L188" t="s">
-        <v>158</v>
+        <v>557</v>
       </c>
       <c r="M188" t="s">
         <v>15</v>
       </c>
       <c r="N188">
-        <v>43</v>
+        <v>28582</v>
       </c>
       <c r="O188">
-        <v>453</v>
+        <v>29352</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>1111</v>
+        <v>1047</v>
       </c>
       <c r="B189">
-        <v>234</v>
+        <v>4441</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>1288</v>
@@ -13689,7 +13692,7 @@
         <v>3</v>
       </c>
       <c r="G189" s="3">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="H189" t="s">
         <v>47</v>
@@ -13704,24 +13707,24 @@
         <v>49</v>
       </c>
       <c r="L189" t="s">
-        <v>537</v>
+        <v>50</v>
       </c>
       <c r="M189" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N189">
-        <v>1</v>
+        <v>45737</v>
       </c>
       <c r="O189">
-        <v>234</v>
+        <v>50177</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>1113</v>
+        <v>1069</v>
       </c>
       <c r="B190">
-        <v>267</v>
+        <v>754</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>1288</v>
@@ -13736,7 +13739,7 @@
         <v>3</v>
       </c>
       <c r="G190" s="3">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="H190" t="s">
         <v>47</v>
@@ -13751,24 +13754,24 @@
         <v>49</v>
       </c>
       <c r="L190" t="s">
-        <v>151</v>
+        <v>438</v>
       </c>
       <c r="M190" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N190">
-        <v>1</v>
+        <v>26171</v>
       </c>
       <c r="O190">
-        <v>267</v>
+        <v>26924</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>1127</v>
+        <v>1094</v>
       </c>
       <c r="B191">
-        <v>489</v>
+        <v>411</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>1288</v>
@@ -13783,7 +13786,7 @@
         <v>3</v>
       </c>
       <c r="G191" s="3">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="H191" t="s">
         <v>47</v>
@@ -13798,24 +13801,24 @@
         <v>49</v>
       </c>
       <c r="L191" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="M191" t="s">
         <v>15</v>
       </c>
       <c r="N191">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="O191">
-        <v>612</v>
+        <v>453</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>1139</v>
+        <v>1111</v>
       </c>
       <c r="B192">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>1288</v>
@@ -13830,7 +13833,7 @@
         <v>3</v>
       </c>
       <c r="G192" s="3">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="H192" t="s">
         <v>47</v>
@@ -13845,24 +13848,24 @@
         <v>49</v>
       </c>
       <c r="L192" t="s">
-        <v>74</v>
+        <v>537</v>
       </c>
       <c r="M192" t="s">
         <v>15</v>
       </c>
       <c r="N192">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="O192">
-        <v>196</v>
+        <v>234</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>1144</v>
+        <v>1113</v>
       </c>
       <c r="B193">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>1288</v>
@@ -13877,7 +13880,7 @@
         <v>3</v>
       </c>
       <c r="G193" s="3">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="H193" t="s">
         <v>47</v>
@@ -13892,24 +13895,24 @@
         <v>49</v>
       </c>
       <c r="L193" t="s">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="M193" t="s">
         <v>15</v>
       </c>
       <c r="N193">
-        <v>656</v>
+        <v>1</v>
       </c>
       <c r="O193">
-        <v>826</v>
+        <v>267</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="B194">
-        <v>273</v>
+        <v>489</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>1288</v>
@@ -13924,7 +13927,7 @@
         <v>3</v>
       </c>
       <c r="G194" s="3">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H194" t="s">
         <v>47</v>
@@ -13939,24 +13942,24 @@
         <v>49</v>
       </c>
       <c r="L194" t="s">
-        <v>435</v>
+        <v>241</v>
       </c>
       <c r="M194" t="s">
         <v>15</v>
       </c>
       <c r="N194">
-        <v>370</v>
+        <v>124</v>
       </c>
       <c r="O194">
-        <v>642</v>
+        <v>612</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>1171</v>
+        <v>1139</v>
       </c>
       <c r="B195">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>1288</v>
@@ -13971,7 +13974,7 @@
         <v>3</v>
       </c>
       <c r="G195" s="3">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="H195" t="s">
         <v>47</v>
@@ -13986,24 +13989,24 @@
         <v>49</v>
       </c>
       <c r="L195" t="s">
-        <v>433</v>
+        <v>74</v>
       </c>
       <c r="M195" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N195">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="O195">
-        <v>381</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>1182</v>
+        <v>1144</v>
       </c>
       <c r="B196">
-        <v>957</v>
+        <v>171</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>1288</v>
@@ -14018,7 +14021,7 @@
         <v>3</v>
       </c>
       <c r="G196" s="3">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="H196" t="s">
         <v>47</v>
@@ -14033,24 +14036,24 @@
         <v>49</v>
       </c>
       <c r="L196" t="s">
-        <v>798</v>
+        <v>311</v>
       </c>
       <c r="M196" t="s">
         <v>15</v>
       </c>
       <c r="N196">
-        <v>38731</v>
+        <v>656</v>
       </c>
       <c r="O196">
-        <v>39687</v>
+        <v>826</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>1193</v>
+        <v>1146</v>
       </c>
       <c r="B197">
-        <v>1553</v>
+        <v>273</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>1288</v>
@@ -14065,7 +14068,7 @@
         <v>3</v>
       </c>
       <c r="G197" s="3">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="H197" t="s">
         <v>47</v>
@@ -14080,24 +14083,24 @@
         <v>49</v>
       </c>
       <c r="L197" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="M197" t="s">
         <v>15</v>
       </c>
       <c r="N197">
-        <v>5517</v>
+        <v>370</v>
       </c>
       <c r="O197">
-        <v>7069</v>
+        <v>642</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>1194</v>
+        <v>1171</v>
       </c>
       <c r="B198">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>1288</v>
@@ -14112,7 +14115,7 @@
         <v>3</v>
       </c>
       <c r="G198" s="3">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="H198" t="s">
         <v>47</v>
@@ -14127,24 +14130,24 @@
         <v>49</v>
       </c>
       <c r="L198" t="s">
-        <v>119</v>
+        <v>433</v>
       </c>
       <c r="M198" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N198">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="O198">
-        <v>257</v>
+        <v>381</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
       <c r="B199">
-        <v>5402</v>
+        <v>957</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>1288</v>
@@ -14159,7 +14162,7 @@
         <v>3</v>
       </c>
       <c r="G199" s="3">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H199" t="s">
         <v>47</v>
@@ -14174,24 +14177,24 @@
         <v>49</v>
       </c>
       <c r="L199" t="s">
-        <v>93</v>
+        <v>798</v>
       </c>
       <c r="M199" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N199">
-        <v>28541</v>
+        <v>38731</v>
       </c>
       <c r="O199">
-        <v>33942</v>
+        <v>39687</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>1210</v>
+        <v>1193</v>
       </c>
       <c r="B200">
-        <v>4772</v>
+        <v>1553</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>1288</v>
@@ -14206,7 +14209,7 @@
         <v>3</v>
       </c>
       <c r="G200" s="3">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="H200" t="s">
         <v>47</v>
@@ -14221,24 +14224,24 @@
         <v>49</v>
       </c>
       <c r="L200" t="s">
-        <v>455</v>
+        <v>386</v>
       </c>
       <c r="M200" t="s">
         <v>15</v>
       </c>
       <c r="N200">
-        <v>8952</v>
+        <v>5517</v>
       </c>
       <c r="O200">
-        <v>13723</v>
+        <v>7069</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>1215</v>
+        <v>1194</v>
       </c>
       <c r="B201">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>1288</v>
@@ -14253,7 +14256,7 @@
         <v>3</v>
       </c>
       <c r="G201" s="3">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="H201" t="s">
         <v>47</v>
@@ -14268,24 +14271,24 @@
         <v>49</v>
       </c>
       <c r="L201" t="s">
-        <v>405</v>
+        <v>119</v>
       </c>
       <c r="M201" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N201">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="O201">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>1229</v>
+        <v>1195</v>
       </c>
       <c r="B202">
-        <v>594</v>
+        <v>5402</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>1288</v>
@@ -14300,7 +14303,7 @@
         <v>3</v>
       </c>
       <c r="G202" s="3">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="H202" t="s">
         <v>47</v>
@@ -14315,27 +14318,27 @@
         <v>49</v>
       </c>
       <c r="L202" t="s">
-        <v>570</v>
+        <v>93</v>
       </c>
       <c r="M202" t="s">
         <v>30</v>
       </c>
       <c r="N202">
-        <v>16136</v>
+        <v>28541</v>
       </c>
       <c r="O202">
-        <v>16729</v>
+        <v>33942</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>888</v>
+        <v>1210</v>
       </c>
       <c r="B203">
-        <v>1661</v>
+        <v>4772</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>1306</v>
+        <v>1288</v>
       </c>
       <c r="D203" t="s">
         <v>1262</v>
@@ -14344,45 +14347,45 @@
         <v>903</v>
       </c>
       <c r="F203" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G203" s="3">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="H203" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="I203" t="s">
         <v>11</v>
       </c>
       <c r="J203" s="5" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="K203" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="L203" t="s">
-        <v>317</v>
+        <v>455</v>
       </c>
       <c r="M203" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N203">
-        <v>8602</v>
+        <v>8952</v>
       </c>
       <c r="O203">
-        <v>10262</v>
+        <v>13723</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>1034</v>
+        <v>1215</v>
       </c>
       <c r="B204">
-        <v>2703</v>
+        <v>180</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>1306</v>
+        <v>1288</v>
       </c>
       <c r="D204" t="s">
         <v>1262</v>
@@ -14391,45 +14394,45 @@
         <v>903</v>
       </c>
       <c r="F204" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G204" s="3">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="H204" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="I204" t="s">
         <v>11</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="K204" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="L204" t="s">
-        <v>790</v>
+        <v>405</v>
       </c>
       <c r="M204" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N204">
-        <v>413502</v>
+        <v>92</v>
       </c>
       <c r="O204">
-        <v>416204</v>
+        <v>271</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>1035</v>
+        <v>1229</v>
       </c>
       <c r="B205">
-        <v>471</v>
+        <v>594</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>1306</v>
+        <v>1288</v>
       </c>
       <c r="D205" t="s">
         <v>1262</v>
@@ -14438,34 +14441,34 @@
         <v>903</v>
       </c>
       <c r="F205" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G205" s="3">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="H205" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="I205" t="s">
         <v>11</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="K205" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="L205" t="s">
-        <v>133</v>
+        <v>570</v>
       </c>
       <c r="M205" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N205">
-        <v>35764</v>
+        <v>16136</v>
       </c>
       <c r="O205">
-        <v>36234</v>
+        <v>16729</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
@@ -19734,13 +19737,13 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>1231</v>
+        <v>1163</v>
       </c>
       <c r="B318">
-        <v>2653</v>
+        <v>708</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="D318" t="s">
         <v>1262</v>
@@ -19749,45 +19752,45 @@
         <v>903</v>
       </c>
       <c r="F318" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G318" s="3">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="H318" t="s">
-        <v>63</v>
+        <v>448</v>
       </c>
       <c r="I318" t="s">
         <v>11</v>
       </c>
       <c r="J318" s="5" t="s">
-        <v>64</v>
+        <v>449</v>
       </c>
       <c r="K318" t="s">
-        <v>65</v>
+        <v>450</v>
       </c>
       <c r="L318" t="s">
-        <v>117</v>
+        <v>706</v>
       </c>
       <c r="M318" t="s">
         <v>15</v>
       </c>
       <c r="N318">
-        <v>4809615</v>
+        <v>99289</v>
       </c>
       <c r="O318">
-        <v>4812267</v>
+        <v>99996</v>
       </c>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
-        <v>1232</v>
+        <v>1164</v>
       </c>
       <c r="B319">
-        <v>3055</v>
+        <v>324</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="D319" t="s">
         <v>1262</v>
@@ -19796,45 +19799,45 @@
         <v>903</v>
       </c>
       <c r="F319" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G319" s="3">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="H319" t="s">
-        <v>63</v>
+        <v>448</v>
       </c>
       <c r="I319" t="s">
         <v>11</v>
       </c>
       <c r="J319" s="5" t="s">
-        <v>64</v>
+        <v>449</v>
       </c>
       <c r="K319" t="s">
-        <v>65</v>
+        <v>450</v>
       </c>
       <c r="L319" t="s">
-        <v>117</v>
+        <v>451</v>
       </c>
       <c r="M319" t="s">
         <v>15</v>
       </c>
       <c r="N319">
-        <v>4789683</v>
+        <v>70740</v>
       </c>
       <c r="O319">
-        <v>4792737</v>
+        <v>71063</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>1163</v>
+        <v>1057</v>
       </c>
       <c r="B320">
-        <v>708</v>
+        <v>4823</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D320" t="s">
         <v>1262</v>
@@ -19846,42 +19849,42 @@
         <v>3</v>
       </c>
       <c r="G320" s="3">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="H320" t="s">
-        <v>448</v>
+        <v>600</v>
       </c>
       <c r="I320" t="s">
         <v>11</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>449</v>
+        <v>601</v>
       </c>
       <c r="K320" t="s">
-        <v>450</v>
+        <v>602</v>
       </c>
       <c r="L320" t="s">
-        <v>706</v>
+        <v>603</v>
       </c>
       <c r="M320" t="s">
         <v>15</v>
       </c>
       <c r="N320">
-        <v>99289</v>
+        <v>16257</v>
       </c>
       <c r="O320">
-        <v>99996</v>
+        <v>21079</v>
       </c>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>1164</v>
+        <v>1148</v>
       </c>
       <c r="B321">
-        <v>324</v>
+        <v>16813</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D321" t="s">
         <v>1262</v>
@@ -19893,42 +19896,42 @@
         <v>3</v>
       </c>
       <c r="G321" s="3">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H321" t="s">
-        <v>448</v>
+        <v>52</v>
       </c>
       <c r="I321" t="s">
         <v>11</v>
       </c>
       <c r="J321" s="5" t="s">
-        <v>449</v>
+        <v>53</v>
       </c>
       <c r="K321" t="s">
-        <v>450</v>
+        <v>54</v>
       </c>
       <c r="L321" t="s">
-        <v>451</v>
+        <v>776</v>
       </c>
       <c r="M321" t="s">
         <v>15</v>
       </c>
       <c r="N321">
-        <v>70740</v>
+        <v>488</v>
       </c>
       <c r="O321">
-        <v>71063</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
-        <v>1057</v>
+        <v>1149</v>
       </c>
       <c r="B322">
-        <v>4823</v>
+        <v>7017</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D322" t="s">
         <v>1262</v>
@@ -19940,39 +19943,39 @@
         <v>3</v>
       </c>
       <c r="G322" s="3">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="H322" t="s">
-        <v>600</v>
+        <v>52</v>
       </c>
       <c r="I322" t="s">
         <v>11</v>
       </c>
       <c r="J322" s="5" t="s">
-        <v>601</v>
+        <v>53</v>
       </c>
       <c r="K322" t="s">
-        <v>602</v>
+        <v>54</v>
       </c>
       <c r="L322" t="s">
-        <v>603</v>
+        <v>457</v>
       </c>
       <c r="M322" t="s">
         <v>15</v>
       </c>
       <c r="N322">
-        <v>16257</v>
+        <v>489</v>
       </c>
       <c r="O322">
-        <v>21079</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B323">
-        <v>16813</v>
+        <v>6021</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>1291</v>
@@ -19987,7 +19990,7 @@
         <v>3</v>
       </c>
       <c r="G323" s="3">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H323" t="s">
         <v>52</v>
@@ -20002,24 +20005,24 @@
         <v>54</v>
       </c>
       <c r="L323" t="s">
-        <v>776</v>
+        <v>55</v>
       </c>
       <c r="M323" t="s">
         <v>15</v>
       </c>
       <c r="N323">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="O323">
-        <v>17300</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B324">
-        <v>7017</v>
+        <v>1479</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>1291</v>
@@ -20034,7 +20037,7 @@
         <v>3</v>
       </c>
       <c r="G324" s="3">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H324" t="s">
         <v>52</v>
@@ -20049,24 +20052,24 @@
         <v>54</v>
       </c>
       <c r="L324" t="s">
-        <v>457</v>
+        <v>342</v>
       </c>
       <c r="M324" t="s">
         <v>15</v>
       </c>
       <c r="N324">
-        <v>489</v>
+        <v>13</v>
       </c>
       <c r="O324">
-        <v>7505</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B325">
-        <v>6021</v>
+        <v>1107</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>1291</v>
@@ -20081,7 +20084,7 @@
         <v>3</v>
       </c>
       <c r="G325" s="3">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H325" t="s">
         <v>52</v>
@@ -20096,24 +20099,24 @@
         <v>54</v>
       </c>
       <c r="L325" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="M325" t="s">
         <v>15</v>
       </c>
       <c r="N325">
-        <v>492</v>
+        <v>24</v>
       </c>
       <c r="O325">
-        <v>6512</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B326">
-        <v>1479</v>
+        <v>999</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>1291</v>
@@ -20128,7 +20131,7 @@
         <v>3</v>
       </c>
       <c r="G326" s="3">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H326" t="s">
         <v>52</v>
@@ -20143,24 +20146,24 @@
         <v>54</v>
       </c>
       <c r="L326" t="s">
-        <v>342</v>
+        <v>535</v>
       </c>
       <c r="M326" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N326">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="O326">
-        <v>1491</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B327">
-        <v>1107</v>
+        <v>666</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>1291</v>
@@ -20175,7 +20178,7 @@
         <v>3</v>
       </c>
       <c r="G327" s="3">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H327" t="s">
         <v>52</v>
@@ -20190,24 +20193,24 @@
         <v>54</v>
       </c>
       <c r="L327" t="s">
-        <v>336</v>
+        <v>179</v>
       </c>
       <c r="M327" t="s">
         <v>15</v>
       </c>
       <c r="N327">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="O327">
-        <v>1130</v>
+        <v>673</v>
       </c>
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B328">
-        <v>999</v>
+        <v>711</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>1291</v>
@@ -20222,7 +20225,7 @@
         <v>3</v>
       </c>
       <c r="G328" s="3">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H328" t="s">
         <v>52</v>
@@ -20237,24 +20240,24 @@
         <v>54</v>
       </c>
       <c r="L328" t="s">
-        <v>535</v>
+        <v>796</v>
       </c>
       <c r="M328" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N328">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="O328">
-        <v>1022</v>
+        <v>712</v>
       </c>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B329">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>1291</v>
@@ -20269,7 +20272,7 @@
         <v>3</v>
       </c>
       <c r="G329" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H329" t="s">
         <v>52</v>
@@ -20284,24 +20287,24 @@
         <v>54</v>
       </c>
       <c r="L329" t="s">
-        <v>179</v>
+        <v>841</v>
       </c>
       <c r="M329" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N329">
-        <v>8</v>
+        <v>910</v>
       </c>
       <c r="O329">
-        <v>673</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B330">
-        <v>711</v>
+        <v>513</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>1291</v>
@@ -20316,7 +20319,7 @@
         <v>3</v>
       </c>
       <c r="G330" s="3">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H330" t="s">
         <v>52</v>
@@ -20331,24 +20334,24 @@
         <v>54</v>
       </c>
       <c r="L330" t="s">
-        <v>796</v>
+        <v>177</v>
       </c>
       <c r="M330" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O330">
-        <v>712</v>
+        <v>513</v>
       </c>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B331">
-        <v>684</v>
+        <v>480</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>1291</v>
@@ -20363,7 +20366,7 @@
         <v>3</v>
       </c>
       <c r="G331" s="3">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H331" t="s">
         <v>52</v>
@@ -20378,24 +20381,24 @@
         <v>54</v>
       </c>
       <c r="L331" t="s">
-        <v>841</v>
+        <v>810</v>
       </c>
       <c r="M331" t="s">
         <v>30</v>
       </c>
       <c r="N331">
-        <v>910</v>
+        <v>2343</v>
       </c>
       <c r="O331">
-        <v>1593</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B332">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>1291</v>
@@ -20410,7 +20413,7 @@
         <v>3</v>
       </c>
       <c r="G332" s="3">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H332" t="s">
         <v>52</v>
@@ -20425,24 +20428,24 @@
         <v>54</v>
       </c>
       <c r="L332" t="s">
-        <v>177</v>
+        <v>663</v>
       </c>
       <c r="M332" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N332">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="O332">
-        <v>513</v>
+        <v>652</v>
       </c>
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B333">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>1291</v>
@@ -20457,7 +20460,7 @@
         <v>3</v>
       </c>
       <c r="G333" s="3">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H333" t="s">
         <v>52</v>
@@ -20472,7 +20475,7 @@
         <v>54</v>
       </c>
       <c r="L333" t="s">
-        <v>810</v>
+        <v>699</v>
       </c>
       <c r="M333" t="s">
         <v>30</v>
@@ -20481,15 +20484,15 @@
         <v>2343</v>
       </c>
       <c r="O333">
-        <v>2822</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B334">
-        <v>480</v>
+        <v>273</v>
       </c>
       <c r="C334" s="6" t="s">
         <v>1291</v>
@@ -20504,7 +20507,7 @@
         <v>3</v>
       </c>
       <c r="G334" s="3">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H334" t="s">
         <v>52</v>
@@ -20519,24 +20522,24 @@
         <v>54</v>
       </c>
       <c r="L334" t="s">
-        <v>663</v>
+        <v>137</v>
       </c>
       <c r="M334" t="s">
         <v>15</v>
       </c>
       <c r="N334">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="O334">
-        <v>652</v>
+        <v>273</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B335">
-        <v>492</v>
+        <v>222</v>
       </c>
       <c r="C335" s="6" t="s">
         <v>1291</v>
@@ -20551,7 +20554,7 @@
         <v>3</v>
       </c>
       <c r="G335" s="3">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H335" t="s">
         <v>52</v>
@@ -20566,27 +20569,27 @@
         <v>54</v>
       </c>
       <c r="L335" t="s">
-        <v>699</v>
+        <v>300</v>
       </c>
       <c r="M335" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N335">
-        <v>2343</v>
+        <v>6</v>
       </c>
       <c r="O335">
-        <v>2834</v>
+        <v>227</v>
       </c>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>1161</v>
+        <v>1231</v>
       </c>
       <c r="B336">
-        <v>273</v>
+        <v>2653</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="D336" t="s">
         <v>1262</v>
@@ -20595,45 +20598,45 @@
         <v>903</v>
       </c>
       <c r="F336" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G336" s="3">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="H336" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I336" t="s">
         <v>11</v>
       </c>
       <c r="J336" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K336" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="L336" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="M336" t="s">
         <v>15</v>
       </c>
       <c r="N336">
-        <v>1</v>
+        <v>4809615</v>
       </c>
       <c r="O336">
-        <v>273</v>
+        <v>4812267</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>1162</v>
+        <v>1232</v>
       </c>
       <c r="B337">
-        <v>222</v>
+        <v>3055</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="D337" t="s">
         <v>1262</v>
@@ -20642,45 +20645,45 @@
         <v>903</v>
       </c>
       <c r="F337" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G337" s="3">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="H337" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I337" t="s">
         <v>11</v>
       </c>
       <c r="J337" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K337" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="L337" t="s">
-        <v>300</v>
+        <v>117</v>
       </c>
       <c r="M337" t="s">
         <v>15</v>
       </c>
       <c r="N337">
-        <v>6</v>
+        <v>4789683</v>
       </c>
       <c r="O337">
-        <v>227</v>
+        <v>4792737</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
-        <v>1233</v>
+        <v>890</v>
       </c>
       <c r="B338">
-        <v>546</v>
+        <v>747</v>
       </c>
       <c r="C338" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D338" t="s">
         <v>1263</v>
@@ -20689,45 +20692,45 @@
         <v>904</v>
       </c>
       <c r="F338" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G338" s="3">
         <v>1</v>
       </c>
       <c r="H338" t="s">
-        <v>188</v>
+        <v>688</v>
       </c>
       <c r="I338" t="s">
         <v>11</v>
       </c>
       <c r="J338" s="5" t="s">
-        <v>189</v>
+        <v>689</v>
       </c>
       <c r="K338" t="s">
-        <v>190</v>
+        <v>690</v>
       </c>
       <c r="L338" t="s">
-        <v>191</v>
+        <v>691</v>
       </c>
       <c r="M338" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N338">
-        <v>151</v>
+        <v>558</v>
       </c>
       <c r="O338">
-        <v>696</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>1234</v>
+        <v>1254</v>
       </c>
       <c r="B339">
-        <v>363</v>
+        <v>1425</v>
       </c>
       <c r="C339" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D339" t="s">
         <v>1263</v>
@@ -20736,42 +20739,42 @@
         <v>904</v>
       </c>
       <c r="F339" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G339" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>188</v>
+        <v>326</v>
       </c>
       <c r="I339" t="s">
         <v>11</v>
       </c>
       <c r="J339" s="5" t="s">
-        <v>189</v>
+        <v>327</v>
       </c>
       <c r="K339" t="s">
-        <v>190</v>
+        <v>328</v>
       </c>
       <c r="L339" t="s">
-        <v>827</v>
+        <v>329</v>
       </c>
       <c r="M339" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N339">
-        <v>786</v>
+        <v>4106</v>
       </c>
       <c r="O339">
-        <v>1148</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B340">
-        <v>1425</v>
+        <v>367</v>
       </c>
       <c r="C340" t="s">
         <v>1304</v>
@@ -20786,7 +20789,7 @@
         <v>2</v>
       </c>
       <c r="G340" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H340" t="s">
         <v>326</v>
@@ -20801,27 +20804,27 @@
         <v>328</v>
       </c>
       <c r="L340" t="s">
-        <v>329</v>
+        <v>1256</v>
       </c>
       <c r="M340" t="s">
         <v>30</v>
       </c>
       <c r="N340">
-        <v>4106</v>
+        <v>2838</v>
       </c>
       <c r="O340">
-        <v>5530</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
-        <v>1255</v>
+        <v>1233</v>
       </c>
       <c r="B341">
-        <v>367</v>
+        <v>546</v>
       </c>
       <c r="C341" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D341" t="s">
         <v>1263</v>
@@ -20830,45 +20833,45 @@
         <v>904</v>
       </c>
       <c r="F341" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G341" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="I341" t="s">
         <v>11</v>
       </c>
       <c r="J341" s="5" t="s">
-        <v>327</v>
+        <v>189</v>
       </c>
       <c r="K341" t="s">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="L341" t="s">
-        <v>1256</v>
+        <v>191</v>
       </c>
       <c r="M341" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N341">
-        <v>2838</v>
+        <v>151</v>
       </c>
       <c r="O341">
-        <v>3204</v>
+        <v>696</v>
       </c>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
-        <v>890</v>
+        <v>1234</v>
       </c>
       <c r="B342">
-        <v>747</v>
+        <v>363</v>
       </c>
       <c r="C342" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D342" t="s">
         <v>1263</v>
@@ -20877,34 +20880,34 @@
         <v>904</v>
       </c>
       <c r="F342" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G342" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H342" t="s">
-        <v>688</v>
+        <v>188</v>
       </c>
       <c r="I342" t="s">
         <v>11</v>
       </c>
       <c r="J342" s="5" t="s">
-        <v>689</v>
+        <v>189</v>
       </c>
       <c r="K342" t="s">
-        <v>690</v>
+        <v>190</v>
       </c>
       <c r="L342" t="s">
-        <v>691</v>
+        <v>827</v>
       </c>
       <c r="M342" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N342">
-        <v>558</v>
+        <v>786</v>
       </c>
       <c r="O342">
-        <v>1304</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.2">
@@ -21097,13 +21100,13 @@
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B347">
-        <v>798</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1293</v>
+        <v>5089</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>1297</v>
       </c>
       <c r="D347" t="s">
         <v>1264</v>
@@ -21112,45 +21115,45 @@
         <v>905</v>
       </c>
       <c r="F347" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G347" s="3">
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>574</v>
+        <v>279</v>
       </c>
       <c r="I347" t="s">
         <v>11</v>
       </c>
       <c r="J347" s="5" t="s">
-        <v>575</v>
+        <v>280</v>
       </c>
       <c r="K347" t="s">
-        <v>576</v>
+        <v>281</v>
       </c>
       <c r="L347" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="M347" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N347">
-        <v>1448566</v>
+        <v>645</v>
       </c>
       <c r="O347">
-        <v>1449363</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
-        <v>891</v>
+        <v>1243</v>
       </c>
       <c r="B348">
-        <v>441</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1302</v>
+        <v>2043</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>1297</v>
       </c>
       <c r="D348" t="s">
         <v>1264</v>
@@ -21159,45 +21162,45 @@
         <v>905</v>
       </c>
       <c r="F348" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G348" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H348" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="I348" t="s">
         <v>11</v>
       </c>
       <c r="J348" s="5" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="K348" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="L348" t="s">
-        <v>237</v>
+        <v>560</v>
       </c>
       <c r="M348" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N348">
-        <v>5708</v>
+        <v>285</v>
       </c>
       <c r="O348">
-        <v>6148</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="B349">
-        <v>990</v>
+        <v>572</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D349" t="s">
         <v>1264</v>
@@ -21206,42 +21209,42 @@
         <v>905</v>
       </c>
       <c r="F349" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G349" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H349" t="s">
-        <v>518</v>
+        <v>279</v>
       </c>
       <c r="I349" t="s">
         <v>11</v>
       </c>
       <c r="J349" s="5" t="s">
-        <v>519</v>
+        <v>280</v>
       </c>
       <c r="K349" t="s">
-        <v>520</v>
+        <v>281</v>
       </c>
       <c r="L349" t="s">
-        <v>521</v>
+        <v>282</v>
       </c>
       <c r="M349" t="s">
         <v>15</v>
       </c>
       <c r="N349">
-        <v>138034</v>
+        <v>251</v>
       </c>
       <c r="O349">
-        <v>139023</v>
+        <v>822</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B350">
-        <v>4907</v>
+        <v>990</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>1296</v>
@@ -21256,7 +21259,7 @@
         <v>3</v>
       </c>
       <c r="G350" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
         <v>518</v>
@@ -21271,27 +21274,27 @@
         <v>520</v>
       </c>
       <c r="L350" t="s">
-        <v>849</v>
+        <v>521</v>
       </c>
       <c r="M350" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N350">
-        <v>27785</v>
+        <v>138034</v>
       </c>
       <c r="O350">
-        <v>32691</v>
+        <v>139023</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
-        <v>892</v>
+        <v>1240</v>
       </c>
       <c r="B351">
-        <v>180</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1294</v>
+        <v>4907</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>1296</v>
       </c>
       <c r="D351" t="s">
         <v>1264</v>
@@ -21300,45 +21303,45 @@
         <v>905</v>
       </c>
       <c r="F351" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G351" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H351" t="s">
-        <v>701</v>
+        <v>518</v>
       </c>
       <c r="I351" t="s">
         <v>11</v>
       </c>
       <c r="J351" s="5" t="s">
-        <v>702</v>
+        <v>519</v>
       </c>
       <c r="K351" t="s">
-        <v>703</v>
+        <v>520</v>
       </c>
       <c r="L351" t="s">
-        <v>704</v>
+        <v>849</v>
       </c>
       <c r="M351" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N351">
-        <v>40729</v>
+        <v>27785</v>
       </c>
       <c r="O351">
-        <v>40908</v>
+        <v>32691</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
-        <v>893</v>
+        <v>1246</v>
       </c>
       <c r="B352">
-        <v>168</v>
+        <v>503</v>
       </c>
       <c r="C352" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D352" t="s">
         <v>1264</v>
@@ -21347,45 +21350,45 @@
         <v>905</v>
       </c>
       <c r="F352" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G352" s="3">
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>675</v>
+        <v>226</v>
       </c>
       <c r="I352" t="s">
         <v>11</v>
       </c>
       <c r="J352" s="5" t="s">
-        <v>676</v>
+        <v>227</v>
       </c>
       <c r="K352" t="s">
-        <v>677</v>
+        <v>228</v>
       </c>
       <c r="L352" t="s">
-        <v>678</v>
+        <v>229</v>
       </c>
       <c r="M352" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N352">
-        <v>629</v>
+        <v>4793790</v>
       </c>
       <c r="O352">
-        <v>796</v>
+        <v>4794292</v>
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
-        <v>895</v>
+        <v>1247</v>
       </c>
       <c r="B353">
-        <v>925</v>
+        <v>500</v>
       </c>
       <c r="C353" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D353" t="s">
         <v>1264</v>
@@ -21394,45 +21397,45 @@
         <v>905</v>
       </c>
       <c r="F353" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G353" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H353" t="s">
-        <v>608</v>
+        <v>226</v>
       </c>
       <c r="I353" t="s">
         <v>11</v>
       </c>
       <c r="J353" s="5" t="s">
-        <v>609</v>
+        <v>227</v>
       </c>
       <c r="K353" t="s">
-        <v>610</v>
+        <v>228</v>
       </c>
       <c r="L353" t="s">
-        <v>611</v>
+        <v>229</v>
       </c>
       <c r="M353" t="s">
         <v>30</v>
       </c>
       <c r="N353">
-        <v>12379</v>
+        <v>3097464</v>
       </c>
       <c r="O353">
-        <v>13303</v>
+        <v>3097963</v>
       </c>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
-        <v>894</v>
+        <v>1248</v>
       </c>
       <c r="B354">
-        <v>759</v>
+        <v>503</v>
       </c>
       <c r="C354" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D354" t="s">
         <v>1264</v>
@@ -21441,45 +21444,45 @@
         <v>905</v>
       </c>
       <c r="F354" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G354" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H354" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="I354" t="s">
         <v>11</v>
       </c>
       <c r="J354" s="5" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="K354" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="L354" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="M354" t="s">
         <v>15</v>
       </c>
       <c r="N354">
-        <v>11151</v>
+        <v>2493774</v>
       </c>
       <c r="O354">
-        <v>11909</v>
+        <v>2494276</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
-        <v>1242</v>
+        <v>1249</v>
       </c>
       <c r="B355">
-        <v>5089</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>1297</v>
+        <v>219</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1299</v>
       </c>
       <c r="D355" t="s">
         <v>1264</v>
@@ -21488,45 +21491,45 @@
         <v>905</v>
       </c>
       <c r="F355" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G355" s="3">
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="I355" t="s">
         <v>11</v>
       </c>
       <c r="J355" s="5" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="K355" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="L355" t="s">
-        <v>605</v>
+        <v>334</v>
       </c>
       <c r="M355" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N355">
-        <v>645</v>
+        <v>13757</v>
       </c>
       <c r="O355">
-        <v>5733</v>
+        <v>13975</v>
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B356">
-        <v>2043</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>1297</v>
+        <v>503</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1299</v>
       </c>
       <c r="D356" t="s">
         <v>1264</v>
@@ -21535,45 +21538,45 @@
         <v>905</v>
       </c>
       <c r="F356" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G356" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>279</v>
+        <v>392</v>
       </c>
       <c r="I356" t="s">
         <v>11</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>280</v>
+        <v>393</v>
       </c>
       <c r="K356" t="s">
-        <v>281</v>
+        <v>394</v>
       </c>
       <c r="L356" t="s">
-        <v>560</v>
+        <v>395</v>
       </c>
       <c r="M356" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N356">
-        <v>285</v>
+        <v>8771</v>
       </c>
       <c r="O356">
-        <v>2327</v>
+        <v>9273</v>
       </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
-        <v>1244</v>
+        <v>895</v>
       </c>
       <c r="B357">
-        <v>572</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>1297</v>
+        <v>925</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1300</v>
       </c>
       <c r="D357" t="s">
         <v>1264</v>
@@ -21582,45 +21585,45 @@
         <v>905</v>
       </c>
       <c r="F357" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G357" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>279</v>
+        <v>608</v>
       </c>
       <c r="I357" t="s">
         <v>11</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>280</v>
+        <v>609</v>
       </c>
       <c r="K357" t="s">
-        <v>281</v>
+        <v>610</v>
       </c>
       <c r="L357" t="s">
-        <v>282</v>
+        <v>611</v>
       </c>
       <c r="M357" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N357">
-        <v>251</v>
+        <v>12379</v>
       </c>
       <c r="O357">
-        <v>822</v>
+        <v>13303</v>
       </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
-        <v>1246</v>
+        <v>894</v>
       </c>
       <c r="B358">
-        <v>503</v>
+        <v>759</v>
       </c>
       <c r="C358" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D358" t="s">
         <v>1264</v>
@@ -21629,45 +21632,45 @@
         <v>905</v>
       </c>
       <c r="F358" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G358" s="3">
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="I358" t="s">
         <v>11</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="K358" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="L358" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="M358" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N358">
-        <v>4793790</v>
+        <v>11151</v>
       </c>
       <c r="O358">
-        <v>4794292</v>
+        <v>11909</v>
       </c>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
-        <v>1247</v>
+        <v>893</v>
       </c>
       <c r="B359">
-        <v>500</v>
+        <v>168</v>
       </c>
       <c r="C359" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D359" t="s">
         <v>1264</v>
@@ -21676,45 +21679,45 @@
         <v>905</v>
       </c>
       <c r="F359" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G359" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H359" t="s">
-        <v>226</v>
+        <v>675</v>
       </c>
       <c r="I359" t="s">
         <v>11</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>227</v>
+        <v>676</v>
       </c>
       <c r="K359" t="s">
-        <v>228</v>
+        <v>677</v>
       </c>
       <c r="L359" t="s">
-        <v>229</v>
+        <v>678</v>
       </c>
       <c r="M359" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N359">
-        <v>3097464</v>
+        <v>629</v>
       </c>
       <c r="O359">
-        <v>3097963</v>
+        <v>796</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="B360">
-        <v>503</v>
+        <v>798</v>
       </c>
       <c r="C360" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="D360" t="s">
         <v>1264</v>
@@ -21723,45 +21726,45 @@
         <v>905</v>
       </c>
       <c r="F360" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G360" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H360" t="s">
-        <v>226</v>
+        <v>574</v>
       </c>
       <c r="I360" t="s">
         <v>11</v>
       </c>
       <c r="J360" s="5" t="s">
-        <v>227</v>
+        <v>575</v>
       </c>
       <c r="K360" t="s">
-        <v>228</v>
+        <v>576</v>
       </c>
       <c r="L360" t="s">
-        <v>229</v>
+        <v>577</v>
       </c>
       <c r="M360" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N360">
-        <v>2493774</v>
+        <v>1448566</v>
       </c>
       <c r="O360">
-        <v>2494276</v>
+        <v>1449363</v>
       </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
-        <v>1249</v>
+        <v>891</v>
       </c>
       <c r="B361">
-        <v>219</v>
+        <v>441</v>
       </c>
       <c r="C361" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="D361" t="s">
         <v>1264</v>
@@ -21770,45 +21773,45 @@
         <v>905</v>
       </c>
       <c r="F361" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G361" s="3">
         <v>1</v>
       </c>
       <c r="H361" t="s">
-        <v>331</v>
+        <v>234</v>
       </c>
       <c r="I361" t="s">
         <v>11</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="K361" t="s">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="L361" t="s">
-        <v>334</v>
+        <v>237</v>
       </c>
       <c r="M361" t="s">
         <v>30</v>
       </c>
       <c r="N361">
-        <v>13757</v>
+        <v>5708</v>
       </c>
       <c r="O361">
-        <v>13975</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
-        <v>1245</v>
+        <v>892</v>
       </c>
       <c r="B362">
-        <v>503</v>
+        <v>180</v>
       </c>
       <c r="C362" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="D362" t="s">
         <v>1264</v>
@@ -21817,34 +21820,34 @@
         <v>905</v>
       </c>
       <c r="F362" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G362" s="3">
         <v>1</v>
       </c>
       <c r="H362" t="s">
-        <v>392</v>
+        <v>701</v>
       </c>
       <c r="I362" t="s">
         <v>11</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>393</v>
+        <v>702</v>
       </c>
       <c r="K362" t="s">
-        <v>394</v>
+        <v>703</v>
       </c>
       <c r="L362" t="s">
-        <v>395</v>
+        <v>704</v>
       </c>
       <c r="M362" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N362">
-        <v>8771</v>
+        <v>40729</v>
       </c>
       <c r="O362">
-        <v>9273</v>
+        <v>40908</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.2">
@@ -21885,8 +21888,8 @@
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O362">
     <sortCondition ref="D2:D362"/>
+    <sortCondition ref="F2:F362"/>
     <sortCondition ref="H2:H362"/>
-    <sortCondition ref="F2:F362"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8970BD-EB60-F740-83EB-7675587E2F2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF98A2D-B08A-4046-A8DE-69A4F3DB66F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="640" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="1310">
   <si>
     <t>organism</t>
   </si>
@@ -3949,6 +3949,12 @@
   </si>
   <si>
     <t>EFV-cISF.1.9-Aedes_aegypti</t>
+  </si>
+  <si>
+    <t>EFV-PL2.3.257-Nomia_melanderi</t>
+  </si>
+  <si>
+    <t>EFV-PL2.3.258-Nomia_melanderi</t>
   </si>
 </sst>
 </file>
@@ -4817,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19737,13 +19743,13 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>1163</v>
+        <v>1308</v>
       </c>
       <c r="B318">
-        <v>708</v>
+        <v>2653</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D318" t="s">
         <v>1262</v>
@@ -19755,42 +19761,42 @@
         <v>3</v>
       </c>
       <c r="G318" s="3">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="H318" t="s">
-        <v>448</v>
+        <v>63</v>
       </c>
       <c r="I318" t="s">
         <v>11</v>
       </c>
       <c r="J318" s="5" t="s">
-        <v>449</v>
+        <v>64</v>
       </c>
       <c r="K318" t="s">
-        <v>450</v>
+        <v>65</v>
       </c>
       <c r="L318" t="s">
-        <v>706</v>
+        <v>117</v>
       </c>
       <c r="M318" t="s">
         <v>15</v>
       </c>
       <c r="N318">
-        <v>99289</v>
+        <v>4809615</v>
       </c>
       <c r="O318">
-        <v>99996</v>
+        <v>4812267</v>
       </c>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
-        <v>1164</v>
+        <v>1309</v>
       </c>
       <c r="B319">
-        <v>324</v>
+        <v>3055</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D319" t="s">
         <v>1262</v>
@@ -19802,42 +19808,42 @@
         <v>3</v>
       </c>
       <c r="G319" s="3">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="H319" t="s">
-        <v>448</v>
+        <v>63</v>
       </c>
       <c r="I319" t="s">
         <v>11</v>
       </c>
       <c r="J319" s="5" t="s">
-        <v>449</v>
+        <v>64</v>
       </c>
       <c r="K319" t="s">
-        <v>450</v>
+        <v>65</v>
       </c>
       <c r="L319" t="s">
-        <v>451</v>
+        <v>117</v>
       </c>
       <c r="M319" t="s">
         <v>15</v>
       </c>
       <c r="N319">
-        <v>70740</v>
+        <v>4789683</v>
       </c>
       <c r="O319">
-        <v>71063</v>
+        <v>4792737</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>1057</v>
+        <v>1163</v>
       </c>
       <c r="B320">
-        <v>4823</v>
+        <v>708</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="D320" t="s">
         <v>1262</v>
@@ -19849,42 +19855,42 @@
         <v>3</v>
       </c>
       <c r="G320" s="3">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="H320" t="s">
-        <v>600</v>
+        <v>448</v>
       </c>
       <c r="I320" t="s">
         <v>11</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>601</v>
+        <v>449</v>
       </c>
       <c r="K320" t="s">
-        <v>602</v>
+        <v>450</v>
       </c>
       <c r="L320" t="s">
-        <v>603</v>
+        <v>706</v>
       </c>
       <c r="M320" t="s">
         <v>15</v>
       </c>
       <c r="N320">
-        <v>16257</v>
+        <v>99289</v>
       </c>
       <c r="O320">
-        <v>21079</v>
+        <v>99996</v>
       </c>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>1148</v>
+        <v>1164</v>
       </c>
       <c r="B321">
-        <v>16813</v>
+        <v>324</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D321" t="s">
         <v>1262</v>
@@ -19896,42 +19902,42 @@
         <v>3</v>
       </c>
       <c r="G321" s="3">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="H321" t="s">
-        <v>52</v>
+        <v>448</v>
       </c>
       <c r="I321" t="s">
         <v>11</v>
       </c>
       <c r="J321" s="5" t="s">
-        <v>53</v>
+        <v>449</v>
       </c>
       <c r="K321" t="s">
-        <v>54</v>
+        <v>450</v>
       </c>
       <c r="L321" t="s">
-        <v>776</v>
+        <v>451</v>
       </c>
       <c r="M321" t="s">
         <v>15</v>
       </c>
       <c r="N321">
-        <v>488</v>
+        <v>70740</v>
       </c>
       <c r="O321">
-        <v>17300</v>
+        <v>71063</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
-        <v>1149</v>
+        <v>1057</v>
       </c>
       <c r="B322">
-        <v>7017</v>
+        <v>4823</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D322" t="s">
         <v>1262</v>
@@ -19943,39 +19949,39 @@
         <v>3</v>
       </c>
       <c r="G322" s="3">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="H322" t="s">
-        <v>52</v>
+        <v>600</v>
       </c>
       <c r="I322" t="s">
         <v>11</v>
       </c>
       <c r="J322" s="5" t="s">
-        <v>53</v>
+        <v>601</v>
       </c>
       <c r="K322" t="s">
-        <v>54</v>
+        <v>602</v>
       </c>
       <c r="L322" t="s">
-        <v>457</v>
+        <v>603</v>
       </c>
       <c r="M322" t="s">
         <v>15</v>
       </c>
       <c r="N322">
-        <v>489</v>
+        <v>16257</v>
       </c>
       <c r="O322">
-        <v>7505</v>
+        <v>21079</v>
       </c>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B323">
-        <v>6021</v>
+        <v>16813</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>1291</v>
@@ -19990,7 +19996,7 @@
         <v>3</v>
       </c>
       <c r="G323" s="3">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H323" t="s">
         <v>52</v>
@@ -20005,24 +20011,24 @@
         <v>54</v>
       </c>
       <c r="L323" t="s">
-        <v>55</v>
+        <v>776</v>
       </c>
       <c r="M323" t="s">
         <v>15</v>
       </c>
       <c r="N323">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="O323">
-        <v>6512</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B324">
-        <v>1479</v>
+        <v>7017</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>1291</v>
@@ -20037,7 +20043,7 @@
         <v>3</v>
       </c>
       <c r="G324" s="3">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H324" t="s">
         <v>52</v>
@@ -20052,24 +20058,24 @@
         <v>54</v>
       </c>
       <c r="L324" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="M324" t="s">
         <v>15</v>
       </c>
       <c r="N324">
-        <v>13</v>
+        <v>489</v>
       </c>
       <c r="O324">
-        <v>1491</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B325">
-        <v>1107</v>
+        <v>6021</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>1291</v>
@@ -20084,7 +20090,7 @@
         <v>3</v>
       </c>
       <c r="G325" s="3">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H325" t="s">
         <v>52</v>
@@ -20099,24 +20105,24 @@
         <v>54</v>
       </c>
       <c r="L325" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="M325" t="s">
         <v>15</v>
       </c>
       <c r="N325">
-        <v>24</v>
+        <v>492</v>
       </c>
       <c r="O325">
-        <v>1130</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B326">
-        <v>999</v>
+        <v>1479</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>1291</v>
@@ -20131,7 +20137,7 @@
         <v>3</v>
       </c>
       <c r="G326" s="3">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H326" t="s">
         <v>52</v>
@@ -20146,24 +20152,24 @@
         <v>54</v>
       </c>
       <c r="L326" t="s">
-        <v>535</v>
+        <v>342</v>
       </c>
       <c r="M326" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N326">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="O326">
-        <v>1022</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B327">
-        <v>666</v>
+        <v>1107</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>1291</v>
@@ -20178,7 +20184,7 @@
         <v>3</v>
       </c>
       <c r="G327" s="3">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H327" t="s">
         <v>52</v>
@@ -20193,24 +20199,24 @@
         <v>54</v>
       </c>
       <c r="L327" t="s">
-        <v>179</v>
+        <v>336</v>
       </c>
       <c r="M327" t="s">
         <v>15</v>
       </c>
       <c r="N327">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="O327">
-        <v>673</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B328">
-        <v>711</v>
+        <v>999</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>1291</v>
@@ -20225,7 +20231,7 @@
         <v>3</v>
       </c>
       <c r="G328" s="3">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H328" t="s">
         <v>52</v>
@@ -20240,24 +20246,24 @@
         <v>54</v>
       </c>
       <c r="L328" t="s">
-        <v>796</v>
+        <v>535</v>
       </c>
       <c r="M328" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N328">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="O328">
-        <v>712</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B329">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>1291</v>
@@ -20272,7 +20278,7 @@
         <v>3</v>
       </c>
       <c r="G329" s="3">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H329" t="s">
         <v>52</v>
@@ -20287,24 +20293,24 @@
         <v>54</v>
       </c>
       <c r="L329" t="s">
-        <v>841</v>
+        <v>179</v>
       </c>
       <c r="M329" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N329">
-        <v>910</v>
+        <v>8</v>
       </c>
       <c r="O329">
-        <v>1593</v>
+        <v>673</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B330">
-        <v>513</v>
+        <v>711</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>1291</v>
@@ -20319,7 +20325,7 @@
         <v>3</v>
       </c>
       <c r="G330" s="3">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H330" t="s">
         <v>52</v>
@@ -20334,24 +20340,24 @@
         <v>54</v>
       </c>
       <c r="L330" t="s">
-        <v>177</v>
+        <v>796</v>
       </c>
       <c r="M330" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O330">
-        <v>513</v>
+        <v>712</v>
       </c>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B331">
-        <v>480</v>
+        <v>684</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>1291</v>
@@ -20366,7 +20372,7 @@
         <v>3</v>
       </c>
       <c r="G331" s="3">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H331" t="s">
         <v>52</v>
@@ -20381,24 +20387,24 @@
         <v>54</v>
       </c>
       <c r="L331" t="s">
-        <v>810</v>
+        <v>841</v>
       </c>
       <c r="M331" t="s">
         <v>30</v>
       </c>
       <c r="N331">
-        <v>2343</v>
+        <v>910</v>
       </c>
       <c r="O331">
-        <v>2822</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B332">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>1291</v>
@@ -20413,7 +20419,7 @@
         <v>3</v>
       </c>
       <c r="G332" s="3">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H332" t="s">
         <v>52</v>
@@ -20428,24 +20434,24 @@
         <v>54</v>
       </c>
       <c r="L332" t="s">
-        <v>663</v>
+        <v>177</v>
       </c>
       <c r="M332" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N332">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="O332">
-        <v>652</v>
+        <v>513</v>
       </c>
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B333">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>1291</v>
@@ -20460,7 +20466,7 @@
         <v>3</v>
       </c>
       <c r="G333" s="3">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H333" t="s">
         <v>52</v>
@@ -20475,7 +20481,7 @@
         <v>54</v>
       </c>
       <c r="L333" t="s">
-        <v>699</v>
+        <v>810</v>
       </c>
       <c r="M333" t="s">
         <v>30</v>
@@ -20484,15 +20490,15 @@
         <v>2343</v>
       </c>
       <c r="O333">
-        <v>2834</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B334">
-        <v>273</v>
+        <v>480</v>
       </c>
       <c r="C334" s="6" t="s">
         <v>1291</v>
@@ -20507,7 +20513,7 @@
         <v>3</v>
       </c>
       <c r="G334" s="3">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H334" t="s">
         <v>52</v>
@@ -20522,24 +20528,24 @@
         <v>54</v>
       </c>
       <c r="L334" t="s">
-        <v>137</v>
+        <v>663</v>
       </c>
       <c r="M334" t="s">
         <v>15</v>
       </c>
       <c r="N334">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="O334">
-        <v>273</v>
+        <v>652</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B335">
-        <v>222</v>
+        <v>492</v>
       </c>
       <c r="C335" s="6" t="s">
         <v>1291</v>
@@ -20554,7 +20560,7 @@
         <v>3</v>
       </c>
       <c r="G335" s="3">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H335" t="s">
         <v>52</v>
@@ -20569,27 +20575,27 @@
         <v>54</v>
       </c>
       <c r="L335" t="s">
-        <v>300</v>
+        <v>699</v>
       </c>
       <c r="M335" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N335">
-        <v>6</v>
+        <v>2343</v>
       </c>
       <c r="O335">
-        <v>227</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>1231</v>
+        <v>1161</v>
       </c>
       <c r="B336">
-        <v>2653</v>
+        <v>273</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="D336" t="s">
         <v>1262</v>
@@ -20598,45 +20604,45 @@
         <v>903</v>
       </c>
       <c r="F336" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G336" s="3">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="H336" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I336" t="s">
         <v>11</v>
       </c>
       <c r="J336" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K336" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L336" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="M336" t="s">
         <v>15</v>
       </c>
       <c r="N336">
-        <v>4809615</v>
+        <v>1</v>
       </c>
       <c r="O336">
-        <v>4812267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>1232</v>
+        <v>1162</v>
       </c>
       <c r="B337">
-        <v>3055</v>
+        <v>222</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="D337" t="s">
         <v>1262</v>
@@ -20645,34 +20651,34 @@
         <v>903</v>
       </c>
       <c r="F337" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G337" s="3">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="H337" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I337" t="s">
         <v>11</v>
       </c>
       <c r="J337" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K337" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L337" t="s">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="M337" t="s">
         <v>15</v>
       </c>
       <c r="N337">
-        <v>4789683</v>
+        <v>6</v>
       </c>
       <c r="O337">
-        <v>4792737</v>
+        <v>227</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
@@ -20912,19 +20918,16 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B343">
-        <v>4305</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>1298</v>
+        <v>1250</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1295</v>
       </c>
       <c r="D343" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="E343" t="s">
-        <v>905</v>
+        <v>1253</v>
       </c>
       <c r="F343" s="3">
         <v>1</v>
@@ -20933,36 +20936,27 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>32</v>
+        <v>1251</v>
       </c>
       <c r="I343" t="s">
         <v>11</v>
       </c>
-      <c r="J343" s="5">
-        <v>1</v>
-      </c>
-      <c r="K343" t="s">
-        <v>33</v>
-      </c>
       <c r="L343" t="s">
-        <v>579</v>
-      </c>
-      <c r="M343" t="s">
-        <v>30</v>
+        <v>1252</v>
       </c>
       <c r="N343">
-        <v>125475</v>
+        <v>446</v>
       </c>
       <c r="O343">
-        <v>129779</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B344">
-        <v>2045</v>
+        <v>4305</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>1298</v>
@@ -20977,7 +20971,7 @@
         <v>1</v>
       </c>
       <c r="G344" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H344" t="s">
         <v>32</v>
@@ -20992,24 +20986,24 @@
         <v>33</v>
       </c>
       <c r="L344" t="s">
-        <v>34</v>
+        <v>579</v>
       </c>
       <c r="M344" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N344">
-        <v>412256</v>
+        <v>125475</v>
       </c>
       <c r="O344">
-        <v>414300</v>
+        <v>129779</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B345">
-        <v>4154</v>
+        <v>2045</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>1298</v>
@@ -21024,7 +21018,7 @@
         <v>1</v>
       </c>
       <c r="G345" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H345" t="s">
         <v>32</v>
@@ -21039,24 +21033,24 @@
         <v>33</v>
       </c>
       <c r="L345" t="s">
-        <v>731</v>
+        <v>34</v>
       </c>
       <c r="M345" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N345">
-        <v>23438</v>
+        <v>412256</v>
       </c>
       <c r="O345">
-        <v>27591</v>
+        <v>414300</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B346">
-        <v>276</v>
+        <v>4154</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>1298</v>
@@ -21071,7 +21065,7 @@
         <v>1</v>
       </c>
       <c r="G346" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H346" t="s">
         <v>32</v>
@@ -21086,27 +21080,27 @@
         <v>33</v>
       </c>
       <c r="L346" t="s">
-        <v>839</v>
+        <v>731</v>
       </c>
       <c r="M346" t="s">
         <v>30</v>
       </c>
       <c r="N346">
-        <v>153714</v>
+        <v>23438</v>
       </c>
       <c r="O346">
-        <v>153989</v>
+        <v>27591</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B347">
-        <v>5089</v>
+        <v>276</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D347" t="s">
         <v>1264</v>
@@ -21115,42 +21109,42 @@
         <v>905</v>
       </c>
       <c r="F347" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G347" s="3">
+        <v>4</v>
+      </c>
+      <c r="H347" t="s">
+        <v>32</v>
+      </c>
+      <c r="I347" t="s">
+        <v>11</v>
+      </c>
+      <c r="J347" s="5">
         <v>1</v>
       </c>
-      <c r="H347" t="s">
-        <v>279</v>
-      </c>
-      <c r="I347" t="s">
-        <v>11</v>
-      </c>
-      <c r="J347" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="K347" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="L347" t="s">
-        <v>605</v>
+        <v>839</v>
       </c>
       <c r="M347" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N347">
-        <v>645</v>
+        <v>153714</v>
       </c>
       <c r="O347">
-        <v>5733</v>
+        <v>153989</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B348">
-        <v>2043</v>
+        <v>5089</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>1297</v>
@@ -21165,7 +21159,7 @@
         <v>2</v>
       </c>
       <c r="G348" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H348" t="s">
         <v>279</v>
@@ -21180,24 +21174,24 @@
         <v>281</v>
       </c>
       <c r="L348" t="s">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="M348" t="s">
         <v>15</v>
       </c>
       <c r="N348">
-        <v>285</v>
+        <v>645</v>
       </c>
       <c r="O348">
-        <v>2327</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B349">
-        <v>572</v>
+        <v>2043</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>1297</v>
@@ -21212,7 +21206,7 @@
         <v>2</v>
       </c>
       <c r="G349" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H349" t="s">
         <v>279</v>
@@ -21227,27 +21221,27 @@
         <v>281</v>
       </c>
       <c r="L349" t="s">
-        <v>282</v>
+        <v>560</v>
       </c>
       <c r="M349" t="s">
         <v>15</v>
       </c>
       <c r="N349">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="O349">
-        <v>822</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="B350">
-        <v>990</v>
+        <v>572</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D350" t="s">
         <v>1264</v>
@@ -21256,42 +21250,42 @@
         <v>905</v>
       </c>
       <c r="F350" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G350" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H350" t="s">
-        <v>518</v>
+        <v>279</v>
       </c>
       <c r="I350" t="s">
         <v>11</v>
       </c>
       <c r="J350" s="5" t="s">
-        <v>519</v>
+        <v>280</v>
       </c>
       <c r="K350" t="s">
-        <v>520</v>
+        <v>281</v>
       </c>
       <c r="L350" t="s">
-        <v>521</v>
+        <v>282</v>
       </c>
       <c r="M350" t="s">
         <v>15</v>
       </c>
       <c r="N350">
-        <v>138034</v>
+        <v>251</v>
       </c>
       <c r="O350">
-        <v>139023</v>
+        <v>822</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B351">
-        <v>4907</v>
+        <v>990</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>1296</v>
@@ -21306,7 +21300,7 @@
         <v>3</v>
       </c>
       <c r="G351" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351" t="s">
         <v>518</v>
@@ -21321,27 +21315,27 @@
         <v>520</v>
       </c>
       <c r="L351" t="s">
-        <v>849</v>
+        <v>521</v>
       </c>
       <c r="M351" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N351">
-        <v>27785</v>
+        <v>138034</v>
       </c>
       <c r="O351">
-        <v>32691</v>
+        <v>139023</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="B352">
-        <v>503</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1299</v>
+        <v>4907</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>1296</v>
       </c>
       <c r="D352" t="s">
         <v>1264</v>
@@ -21350,42 +21344,42 @@
         <v>905</v>
       </c>
       <c r="F352" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G352" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H352" t="s">
-        <v>226</v>
+        <v>518</v>
       </c>
       <c r="I352" t="s">
         <v>11</v>
       </c>
       <c r="J352" s="5" t="s">
-        <v>227</v>
+        <v>519</v>
       </c>
       <c r="K352" t="s">
-        <v>228</v>
+        <v>520</v>
       </c>
       <c r="L352" t="s">
-        <v>229</v>
+        <v>849</v>
       </c>
       <c r="M352" t="s">
         <v>30</v>
       </c>
       <c r="N352">
-        <v>4793790</v>
+        <v>27785</v>
       </c>
       <c r="O352">
-        <v>4794292</v>
+        <v>32691</v>
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B353">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C353" t="s">
         <v>1299</v>
@@ -21400,7 +21394,7 @@
         <v>4</v>
       </c>
       <c r="G353" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H353" t="s">
         <v>226</v>
@@ -21421,18 +21415,18 @@
         <v>30</v>
       </c>
       <c r="N353">
-        <v>3097464</v>
+        <v>4793790</v>
       </c>
       <c r="O353">
-        <v>3097963</v>
+        <v>4794292</v>
       </c>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B354">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C354" t="s">
         <v>1299</v>
@@ -21447,7 +21441,7 @@
         <v>4</v>
       </c>
       <c r="G354" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H354" t="s">
         <v>226</v>
@@ -21465,21 +21459,21 @@
         <v>229</v>
       </c>
       <c r="M354" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N354">
-        <v>2493774</v>
+        <v>3097464</v>
       </c>
       <c r="O354">
-        <v>2494276</v>
+        <v>3097963</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B355">
-        <v>219</v>
+        <v>503</v>
       </c>
       <c r="C355" t="s">
         <v>1299</v>
@@ -21494,39 +21488,39 @@
         <v>4</v>
       </c>
       <c r="G355" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H355" t="s">
-        <v>331</v>
+        <v>226</v>
       </c>
       <c r="I355" t="s">
         <v>11</v>
       </c>
       <c r="J355" s="5" t="s">
-        <v>332</v>
+        <v>227</v>
       </c>
       <c r="K355" t="s">
-        <v>333</v>
+        <v>228</v>
       </c>
       <c r="L355" t="s">
-        <v>334</v>
+        <v>229</v>
       </c>
       <c r="M355" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N355">
-        <v>13757</v>
+        <v>2493774</v>
       </c>
       <c r="O355">
-        <v>13975</v>
+        <v>2494276</v>
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="B356">
-        <v>503</v>
+        <v>219</v>
       </c>
       <c r="C356" t="s">
         <v>1299</v>
@@ -21544,39 +21538,39 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="I356" t="s">
         <v>11</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="K356" t="s">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="L356" t="s">
-        <v>395</v>
+        <v>334</v>
       </c>
       <c r="M356" t="s">
         <v>30</v>
       </c>
       <c r="N356">
-        <v>8771</v>
+        <v>13757</v>
       </c>
       <c r="O356">
-        <v>9273</v>
+        <v>13975</v>
       </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
-        <v>895</v>
+        <v>1245</v>
       </c>
       <c r="B357">
-        <v>925</v>
+        <v>503</v>
       </c>
       <c r="C357" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D357" t="s">
         <v>1264</v>
@@ -21585,42 +21579,42 @@
         <v>905</v>
       </c>
       <c r="F357" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G357" s="3">
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>608</v>
+        <v>392</v>
       </c>
       <c r="I357" t="s">
         <v>11</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>609</v>
+        <v>393</v>
       </c>
       <c r="K357" t="s">
-        <v>610</v>
+        <v>394</v>
       </c>
       <c r="L357" t="s">
-        <v>611</v>
+        <v>395</v>
       </c>
       <c r="M357" t="s">
         <v>30</v>
       </c>
       <c r="N357">
-        <v>12379</v>
+        <v>8771</v>
       </c>
       <c r="O357">
-        <v>13303</v>
+        <v>9273</v>
       </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B358">
-        <v>759</v>
+        <v>925</v>
       </c>
       <c r="C358" t="s">
         <v>1300</v>
@@ -21638,39 +21632,39 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>144</v>
+        <v>608</v>
       </c>
       <c r="I358" t="s">
         <v>11</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>145</v>
+        <v>609</v>
       </c>
       <c r="K358" t="s">
-        <v>146</v>
+        <v>610</v>
       </c>
       <c r="L358" t="s">
-        <v>147</v>
+        <v>611</v>
       </c>
       <c r="M358" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N358">
-        <v>11151</v>
+        <v>12379</v>
       </c>
       <c r="O358">
-        <v>11909</v>
+        <v>13303</v>
       </c>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B359">
-        <v>168</v>
+        <v>759</v>
       </c>
       <c r="C359" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D359" t="s">
         <v>1264</v>
@@ -21679,45 +21673,45 @@
         <v>905</v>
       </c>
       <c r="F359" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G359" s="3">
         <v>1</v>
       </c>
       <c r="H359" t="s">
-        <v>675</v>
+        <v>144</v>
       </c>
       <c r="I359" t="s">
         <v>11</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>676</v>
+        <v>145</v>
       </c>
       <c r="K359" t="s">
-        <v>677</v>
+        <v>146</v>
       </c>
       <c r="L359" t="s">
-        <v>678</v>
+        <v>147</v>
       </c>
       <c r="M359" t="s">
         <v>15</v>
       </c>
       <c r="N359">
-        <v>629</v>
+        <v>11151</v>
       </c>
       <c r="O359">
-        <v>796</v>
+        <v>11909</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
-        <v>1241</v>
+        <v>893</v>
       </c>
       <c r="B360">
-        <v>798</v>
+        <v>168</v>
       </c>
       <c r="C360" t="s">
-        <v>1293</v>
+        <v>1301</v>
       </c>
       <c r="D360" t="s">
         <v>1264</v>
@@ -21726,45 +21720,45 @@
         <v>905</v>
       </c>
       <c r="F360" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G360" s="3">
         <v>1</v>
       </c>
       <c r="H360" t="s">
-        <v>574</v>
+        <v>675</v>
       </c>
       <c r="I360" t="s">
         <v>11</v>
       </c>
       <c r="J360" s="5" t="s">
-        <v>575</v>
+        <v>676</v>
       </c>
       <c r="K360" t="s">
-        <v>576</v>
+        <v>677</v>
       </c>
       <c r="L360" t="s">
-        <v>577</v>
+        <v>678</v>
       </c>
       <c r="M360" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N360">
-        <v>1448566</v>
+        <v>629</v>
       </c>
       <c r="O360">
-        <v>1449363</v>
+        <v>796</v>
       </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
-        <v>891</v>
+        <v>1241</v>
       </c>
       <c r="B361">
-        <v>441</v>
+        <v>798</v>
       </c>
       <c r="C361" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="D361" t="s">
         <v>1264</v>
@@ -21779,39 +21773,39 @@
         <v>1</v>
       </c>
       <c r="H361" t="s">
-        <v>234</v>
+        <v>574</v>
       </c>
       <c r="I361" t="s">
         <v>11</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>235</v>
+        <v>575</v>
       </c>
       <c r="K361" t="s">
-        <v>236</v>
+        <v>576</v>
       </c>
       <c r="L361" t="s">
-        <v>237</v>
+        <v>577</v>
       </c>
       <c r="M361" t="s">
         <v>30</v>
       </c>
       <c r="N361">
-        <v>5708</v>
+        <v>1448566</v>
       </c>
       <c r="O361">
-        <v>6148</v>
+        <v>1449363</v>
       </c>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B362">
-        <v>180</v>
+        <v>441</v>
       </c>
       <c r="C362" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="D362" t="s">
         <v>1264</v>
@@ -21820,76 +21814,88 @@
         <v>905</v>
       </c>
       <c r="F362" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G362" s="3">
         <v>1</v>
       </c>
       <c r="H362" t="s">
-        <v>701</v>
+        <v>234</v>
       </c>
       <c r="I362" t="s">
         <v>11</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>702</v>
+        <v>235</v>
       </c>
       <c r="K362" t="s">
-        <v>703</v>
+        <v>236</v>
       </c>
       <c r="L362" t="s">
-        <v>704</v>
+        <v>237</v>
       </c>
       <c r="M362" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N362">
-        <v>40729</v>
+        <v>5708</v>
       </c>
       <c r="O362">
-        <v>40908</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
-        <v>1250</v>
+        <v>892</v>
+      </c>
+      <c r="B363">
+        <v>180</v>
       </c>
       <c r="C363" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D363" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E363" t="s">
-        <v>1253</v>
+        <v>905</v>
       </c>
       <c r="F363" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G363" s="3">
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>1251</v>
+        <v>701</v>
       </c>
       <c r="I363" t="s">
         <v>11</v>
       </c>
+      <c r="J363" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="K363" t="s">
+        <v>703</v>
+      </c>
       <c r="L363" t="s">
-        <v>1252</v>
+        <v>704</v>
+      </c>
+      <c r="M363" t="s">
+        <v>15</v>
       </c>
       <c r="N363">
-        <v>446</v>
+        <v>40729</v>
       </c>
       <c r="O363">
-        <v>1327</v>
+        <v>40908</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O362">
-    <sortCondition ref="D2:D362"/>
-    <sortCondition ref="F2:F362"/>
-    <sortCondition ref="H2:H362"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O363">
+    <sortCondition ref="D2:D363"/>
+    <sortCondition ref="F2:F363"/>
+    <sortCondition ref="H2:H363"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF98A2D-B08A-4046-A8DE-69A4F3DB66F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFEC1E6-D8E4-9A43-AD7A-FD198776736A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="640" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="1313">
   <si>
     <t>organism</t>
   </si>
@@ -3777,9 +3777,6 @@
     <t>EFV-X2.4.1-Takifugu_flavidus</t>
   </si>
   <si>
-    <t>EFV-X1.1.1-Priapulus_caudatus</t>
-  </si>
-  <si>
     <t>Priapulus_caudatus</t>
   </si>
   <si>
@@ -3955,6 +3952,18 @@
   </si>
   <si>
     <t>EFV-PL2.3.258-Nomia_melanderi</t>
+  </si>
+  <si>
+    <t>EFV-X1.1-Priapulus_caudatus</t>
+  </si>
+  <si>
+    <t>EFV-X1.2-Priapulus_caudatus</t>
+  </si>
+  <si>
+    <t>Priapulus</t>
+  </si>
+  <si>
+    <t>AXZU02047183</t>
   </si>
 </sst>
 </file>
@@ -4821,10 +4830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O363"/>
+  <dimension ref="A1:O364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="A320" sqref="A320"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C360" sqref="A1:O364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4853,7 +4862,7 @@
         <v>864</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>906</v>
@@ -4862,7 +4871,7 @@
         <v>866</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -4897,10 +4906,10 @@
         <v>13814</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E2" t="s">
         <v>899</v>
@@ -4944,10 +4953,10 @@
         <v>2864</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E3" t="s">
         <v>899</v>
@@ -4991,10 +5000,10 @@
         <v>13973</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E4" t="s">
         <v>899</v>
@@ -5038,10 +5047,10 @@
         <v>1497</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E5" t="s">
         <v>899</v>
@@ -5085,10 +5094,10 @@
         <v>8365</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D6" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E6" t="s">
         <v>899</v>
@@ -5132,10 +5141,10 @@
         <v>15225</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D7" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E7" t="s">
         <v>899</v>
@@ -5179,10 +5188,10 @@
         <v>504</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D8" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E8" t="s">
         <v>899</v>
@@ -5226,10 +5235,10 @@
         <v>258</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D9" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E9" t="s">
         <v>899</v>
@@ -5267,16 +5276,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B10">
         <v>3750</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D10" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E10" t="s">
         <v>899</v>
@@ -5320,10 +5329,10 @@
         <v>7604</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D11" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E11" t="s">
         <v>899</v>
@@ -5367,10 +5376,10 @@
         <v>6549</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D12" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E12" t="s">
         <v>899</v>
@@ -5414,10 +5423,10 @@
         <v>2049</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E13" t="s">
         <v>899</v>
@@ -5461,10 +5470,10 @@
         <v>1545</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D14" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E14" t="s">
         <v>899</v>
@@ -5508,10 +5517,10 @@
         <v>1407</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D15" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E15" t="s">
         <v>899</v>
@@ -5555,10 +5564,10 @@
         <v>11549</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D16" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E16" t="s">
         <v>899</v>
@@ -5602,10 +5611,10 @@
         <v>1194</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D17" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E17" t="s">
         <v>899</v>
@@ -5649,10 +5658,10 @@
         <v>1167</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D18" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E18" t="s">
         <v>899</v>
@@ -5696,10 +5705,10 @@
         <v>1047</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E19" t="s">
         <v>899</v>
@@ -5743,10 +5752,10 @@
         <v>1492</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D20" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E20" t="s">
         <v>899</v>
@@ -5790,10 +5799,10 @@
         <v>5721</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D21" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E21" t="s">
         <v>899</v>
@@ -5837,10 +5846,10 @@
         <v>1807</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D22" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E22" t="s">
         <v>899</v>
@@ -5884,10 +5893,10 @@
         <v>939</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D23" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E23" t="s">
         <v>899</v>
@@ -5931,10 +5940,10 @@
         <v>1375</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D24" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E24" t="s">
         <v>899</v>
@@ -5978,10 +5987,10 @@
         <v>6893</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D25" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E25" t="s">
         <v>899</v>
@@ -6025,10 +6034,10 @@
         <v>1228</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D26" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E26" t="s">
         <v>899</v>
@@ -6072,10 +6081,10 @@
         <v>744</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D27" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E27" t="s">
         <v>899</v>
@@ -6119,10 +6128,10 @@
         <v>1331</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D28" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E28" t="s">
         <v>899</v>
@@ -6166,10 +6175,10 @@
         <v>575</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D29" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E29" t="s">
         <v>899</v>
@@ -6213,10 +6222,10 @@
         <v>495</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D30" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E30" t="s">
         <v>899</v>
@@ -6260,10 +6269,10 @@
         <v>415</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D31" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E31" t="s">
         <v>899</v>
@@ -6307,10 +6316,10 @@
         <v>2807</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D32" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E32" t="s">
         <v>899</v>
@@ -6354,10 +6363,10 @@
         <v>501</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D33" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E33" t="s">
         <v>899</v>
@@ -6401,10 +6410,10 @@
         <v>270</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D34" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E34" t="s">
         <v>899</v>
@@ -6448,10 +6457,10 @@
         <v>462</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D35" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E35" t="s">
         <v>899</v>
@@ -6495,10 +6504,10 @@
         <v>261</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D36" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E36" t="s">
         <v>899</v>
@@ -6542,10 +6551,10 @@
         <v>321</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D37" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E37" t="s">
         <v>899</v>
@@ -6589,10 +6598,10 @@
         <v>3878</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D38" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E38" t="s">
         <v>899</v>
@@ -6636,10 +6645,10 @@
         <v>171</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D39" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E39" t="s">
         <v>899</v>
@@ -6683,10 +6692,10 @@
         <v>207</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D40" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E40" t="s">
         <v>899</v>
@@ -6730,10 +6739,10 @@
         <v>1965</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E41" t="s">
         <v>899</v>
@@ -6777,10 +6786,10 @@
         <v>1663</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D42" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E42" t="s">
         <v>899</v>
@@ -6824,10 +6833,10 @@
         <v>2740</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D43" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E43" t="s">
         <v>899</v>
@@ -6871,10 +6880,10 @@
         <v>1067</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D44" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E44" t="s">
         <v>899</v>
@@ -6918,10 +6927,10 @@
         <v>1186</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D45" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E45" t="s">
         <v>899</v>
@@ -6965,10 +6974,10 @@
         <v>1075</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D46" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E46" t="s">
         <v>899</v>
@@ -7012,10 +7021,10 @@
         <v>585</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D47" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E47" t="s">
         <v>899</v>
@@ -7059,10 +7068,10 @@
         <v>4469</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D48" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E48" t="s">
         <v>900</v>
@@ -7106,10 +7115,10 @@
         <v>2558</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D49" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E49" t="s">
         <v>900</v>
@@ -7153,10 +7162,10 @@
         <v>1125</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D50" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E50" t="s">
         <v>900</v>
@@ -7200,10 +7209,10 @@
         <v>3633</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D51" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E51" t="s">
         <v>900</v>
@@ -7247,10 +7256,10 @@
         <v>681</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D52" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E52" t="s">
         <v>900</v>
@@ -7294,10 +7303,10 @@
         <v>567</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D53" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E53" t="s">
         <v>900</v>
@@ -7341,10 +7350,10 @@
         <v>1086</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D54" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E54" t="s">
         <v>900</v>
@@ -7388,10 +7397,10 @@
         <v>873</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D55" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E55" t="s">
         <v>900</v>
@@ -7435,10 +7444,10 @@
         <v>483</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D56" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E56" t="s">
         <v>900</v>
@@ -7482,10 +7491,10 @@
         <v>726</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D57" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E57" t="s">
         <v>900</v>
@@ -7529,10 +7538,10 @@
         <v>243</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D58" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E58" t="s">
         <v>900</v>
@@ -7576,10 +7585,10 @@
         <v>345</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D59" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E59" t="s">
         <v>900</v>
@@ -7623,10 +7632,10 @@
         <v>324</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D60" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E60" t="s">
         <v>900</v>
@@ -7670,10 +7679,10 @@
         <v>5761</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D61" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E61" t="s">
         <v>900</v>
@@ -7717,10 +7726,10 @@
         <v>1588</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D62" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E62" t="s">
         <v>900</v>
@@ -7764,10 +7773,10 @@
         <v>1599</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D63" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E63" t="s">
         <v>900</v>
@@ -7811,10 +7820,10 @@
         <v>954</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D64" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E64" t="s">
         <v>900</v>
@@ -7858,10 +7867,10 @@
         <v>753</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D65" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E65" t="s">
         <v>900</v>
@@ -7899,16 +7908,16 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B66">
         <v>741</v>
       </c>
       <c r="C66" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D66" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E66" t="s">
         <v>901</v>
@@ -7946,16 +7955,16 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B67">
         <v>2307</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D67" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E67" t="s">
         <v>902</v>
@@ -7993,16 +8002,16 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B68">
         <v>2108</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D68" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E68" t="s">
         <v>902</v>
@@ -8040,16 +8049,16 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B69">
         <v>1572</v>
       </c>
       <c r="C69" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D69" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E69" t="s">
         <v>902</v>
@@ -8087,16 +8096,16 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B70">
         <v>1404</v>
       </c>
       <c r="C70" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D70" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E70" t="s">
         <v>902</v>
@@ -8134,16 +8143,16 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B71">
         <v>423</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D71" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E71" t="s">
         <v>903</v>
@@ -8187,10 +8196,10 @@
         <v>3732</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D72" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E72" t="s">
         <v>903</v>
@@ -8234,10 +8243,10 @@
         <v>1996</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D73" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E73" t="s">
         <v>903</v>
@@ -8281,10 +8290,10 @@
         <v>516</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D74" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E74" t="s">
         <v>903</v>
@@ -8328,10 +8337,10 @@
         <v>1659</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D75" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E75" t="s">
         <v>903</v>
@@ -8375,10 +8384,10 @@
         <v>959</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D76" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E76" t="s">
         <v>903</v>
@@ -8422,10 +8431,10 @@
         <v>1661</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D77" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E77" t="s">
         <v>903</v>
@@ -8469,10 +8478,10 @@
         <v>2703</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D78" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E78" t="s">
         <v>903</v>
@@ -8516,10 +8525,10 @@
         <v>471</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D79" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E79" t="s">
         <v>903</v>
@@ -8563,10 +8572,10 @@
         <v>1842</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D80" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E80" t="s">
         <v>903</v>
@@ -8610,10 +8619,10 @@
         <v>6440</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D81" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E81" t="s">
         <v>903</v>
@@ -8657,10 +8666,10 @@
         <v>7927</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D82" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E82" t="s">
         <v>903</v>
@@ -8704,10 +8713,10 @@
         <v>1062</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D83" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E83" t="s">
         <v>903</v>
@@ -8751,10 +8760,10 @@
         <v>351</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D84" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E84" t="s">
         <v>903</v>
@@ -8798,10 +8807,10 @@
         <v>6462</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E85" t="s">
         <v>903</v>
@@ -8845,10 +8854,10 @@
         <v>1266</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D86" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E86" t="s">
         <v>903</v>
@@ -8892,10 +8901,10 @@
         <v>102</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D87" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E87" t="s">
         <v>903</v>
@@ -8939,10 +8948,10 @@
         <v>14405</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D88" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E88" t="s">
         <v>903</v>
@@ -8986,10 +8995,10 @@
         <v>17258</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D89" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E89" t="s">
         <v>903</v>
@@ -9033,10 +9042,10 @@
         <v>6399</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D90" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E90" t="s">
         <v>903</v>
@@ -9080,10 +9089,10 @@
         <v>11055</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D91" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E91" t="s">
         <v>903</v>
@@ -9127,10 +9136,10 @@
         <v>7086</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D92" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E92" t="s">
         <v>903</v>
@@ -9174,10 +9183,10 @@
         <v>13502</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D93" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E93" t="s">
         <v>903</v>
@@ -9221,10 +9230,10 @@
         <v>6463</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D94" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E94" t="s">
         <v>903</v>
@@ -9268,10 +9277,10 @@
         <v>6157</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D95" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E95" t="s">
         <v>903</v>
@@ -9315,10 +9324,10 @@
         <v>1803</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D96" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E96" t="s">
         <v>903</v>
@@ -9362,10 +9371,10 @@
         <v>1263</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D97" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E97" t="s">
         <v>903</v>
@@ -9409,10 +9418,10 @@
         <v>951</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D98" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E98" t="s">
         <v>903</v>
@@ -9456,10 +9465,10 @@
         <v>1327</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D99" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E99" t="s">
         <v>903</v>
@@ -9503,10 +9512,10 @@
         <v>513</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D100" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E100" t="s">
         <v>903</v>
@@ -9550,10 +9559,10 @@
         <v>591</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D101" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E101" t="s">
         <v>903</v>
@@ -9597,10 +9606,10 @@
         <v>483</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D102" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E102" t="s">
         <v>903</v>
@@ -9644,10 +9653,10 @@
         <v>1189</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D103" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E103" t="s">
         <v>903</v>
@@ -9691,10 +9700,10 @@
         <v>501</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D104" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E104" t="s">
         <v>903</v>
@@ -9738,10 +9747,10 @@
         <v>522</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D105" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E105" t="s">
         <v>903</v>
@@ -9785,10 +9794,10 @@
         <v>378</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D106" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E106" t="s">
         <v>903</v>
@@ -9832,10 +9841,10 @@
         <v>378</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D107" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E107" t="s">
         <v>903</v>
@@ -9879,10 +9888,10 @@
         <v>435</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D108" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E108" t="s">
         <v>903</v>
@@ -9926,10 +9935,10 @@
         <v>351</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D109" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E109" t="s">
         <v>903</v>
@@ -9973,10 +9982,10 @@
         <v>393</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D110" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E110" t="s">
         <v>903</v>
@@ -10020,10 +10029,10 @@
         <v>435</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D111" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E111" t="s">
         <v>903</v>
@@ -10067,10 +10076,10 @@
         <v>318</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D112" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E112" t="s">
         <v>903</v>
@@ -10114,10 +10123,10 @@
         <v>396</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D113" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E113" t="s">
         <v>903</v>
@@ -10161,10 +10170,10 @@
         <v>381</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D114" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E114" t="s">
         <v>903</v>
@@ -10208,10 +10217,10 @@
         <v>279</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D115" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E115" t="s">
         <v>903</v>
@@ -10255,10 +10264,10 @@
         <v>294</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D116" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E116" t="s">
         <v>903</v>
@@ -10302,10 +10311,10 @@
         <v>354</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D117" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E117" t="s">
         <v>903</v>
@@ -10349,10 +10358,10 @@
         <v>309</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D118" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E118" t="s">
         <v>903</v>
@@ -10396,10 +10405,10 @@
         <v>270</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D119" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E119" t="s">
         <v>903</v>
@@ -10443,10 +10452,10 @@
         <v>345</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D120" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E120" t="s">
         <v>903</v>
@@ -10490,10 +10499,10 @@
         <v>231</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D121" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E121" t="s">
         <v>903</v>
@@ -10537,10 +10546,10 @@
         <v>222</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D122" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E122" t="s">
         <v>903</v>
@@ -10584,10 +10593,10 @@
         <v>231</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D123" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E123" t="s">
         <v>903</v>
@@ -10631,10 +10640,10 @@
         <v>348</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D124" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E124" t="s">
         <v>903</v>
@@ -10678,10 +10687,10 @@
         <v>228</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D125" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E125" t="s">
         <v>903</v>
@@ -10725,10 +10734,10 @@
         <v>306</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D126" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E126" t="s">
         <v>903</v>
@@ -10772,10 +10781,10 @@
         <v>279</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D127" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E127" t="s">
         <v>903</v>
@@ -10819,10 +10828,10 @@
         <v>225</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D128" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E128" t="s">
         <v>903</v>
@@ -10866,10 +10875,10 @@
         <v>252</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D129" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E129" t="s">
         <v>903</v>
@@ -10913,10 +10922,10 @@
         <v>291</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D130" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E130" t="s">
         <v>903</v>
@@ -10960,10 +10969,10 @@
         <v>279</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D131" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E131" t="s">
         <v>903</v>
@@ -11007,10 +11016,10 @@
         <v>279</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D132" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E132" t="s">
         <v>903</v>
@@ -11054,10 +11063,10 @@
         <v>240</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D133" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E133" t="s">
         <v>903</v>
@@ -11101,10 +11110,10 @@
         <v>339</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D134" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E134" t="s">
         <v>903</v>
@@ -11148,10 +11157,10 @@
         <v>285</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D135" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E135" t="s">
         <v>903</v>
@@ -11195,10 +11204,10 @@
         <v>219</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D136" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E136" t="s">
         <v>903</v>
@@ -11242,10 +11251,10 @@
         <v>231</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D137" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E137" t="s">
         <v>903</v>
@@ -11289,10 +11298,10 @@
         <v>249</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D138" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E138" t="s">
         <v>903</v>
@@ -11336,10 +11345,10 @@
         <v>228</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D139" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E139" t="s">
         <v>903</v>
@@ -11383,10 +11392,10 @@
         <v>186</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D140" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E140" t="s">
         <v>903</v>
@@ -11430,10 +11439,10 @@
         <v>222</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D141" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E141" t="s">
         <v>903</v>
@@ -11477,10 +11486,10 @@
         <v>198</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D142" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E142" t="s">
         <v>903</v>
@@ -11524,10 +11533,10 @@
         <v>186</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D143" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E143" t="s">
         <v>903</v>
@@ -11571,10 +11580,10 @@
         <v>204</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D144" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E144" t="s">
         <v>903</v>
@@ -11618,10 +11627,10 @@
         <v>282</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D145" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E145" t="s">
         <v>903</v>
@@ -11665,10 +11674,10 @@
         <v>240</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D146" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E146" t="s">
         <v>903</v>
@@ -11712,10 +11721,10 @@
         <v>276</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D147" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E147" t="s">
         <v>903</v>
@@ -11759,10 +11768,10 @@
         <v>195</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D148" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E148" t="s">
         <v>903</v>
@@ -11806,10 +11815,10 @@
         <v>195</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D149" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E149" t="s">
         <v>903</v>
@@ -11853,10 +11862,10 @@
         <v>213</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D150" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E150" t="s">
         <v>903</v>
@@ -11900,10 +11909,10 @@
         <v>135</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D151" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E151" t="s">
         <v>903</v>
@@ -11947,10 +11956,10 @@
         <v>147</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D152" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E152" t="s">
         <v>903</v>
@@ -11994,10 +12003,10 @@
         <v>2283</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D153" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E153" t="s">
         <v>903</v>
@@ -12041,10 +12050,10 @@
         <v>687</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D154" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E154" t="s">
         <v>903</v>
@@ -12088,10 +12097,10 @@
         <v>372</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D155" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E155" t="s">
         <v>903</v>
@@ -12135,10 +12144,10 @@
         <v>315</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D156" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E156" t="s">
         <v>903</v>
@@ -12182,10 +12191,10 @@
         <v>219</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D157" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E157" t="s">
         <v>903</v>
@@ -12229,10 +12238,10 @@
         <v>6462</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D158" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E158" t="s">
         <v>903</v>
@@ -12276,10 +12285,10 @@
         <v>1266</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D159" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E159" t="s">
         <v>903</v>
@@ -12323,10 +12332,10 @@
         <v>1161</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D160" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E160" t="s">
         <v>903</v>
@@ -12370,10 +12379,10 @@
         <v>381</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D161" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E161" t="s">
         <v>903</v>
@@ -12417,10 +12426,10 @@
         <v>327</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D162" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E162" t="s">
         <v>903</v>
@@ -12464,10 +12473,10 @@
         <v>2316</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D163" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E163" t="s">
         <v>903</v>
@@ -12511,10 +12520,10 @@
         <v>399</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D164" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E164" t="s">
         <v>903</v>
@@ -12558,10 +12567,10 @@
         <v>258</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D165" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E165" t="s">
         <v>903</v>
@@ -12605,10 +12614,10 @@
         <v>270</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D166" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E166" t="s">
         <v>903</v>
@@ -12652,10 +12661,10 @@
         <v>255</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D167" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E167" t="s">
         <v>903</v>
@@ -12699,10 +12708,10 @@
         <v>267</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D168" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E168" t="s">
         <v>903</v>
@@ -12746,10 +12755,10 @@
         <v>171</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D169" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E169" t="s">
         <v>903</v>
@@ -12793,10 +12802,10 @@
         <v>174</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D170" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E170" t="s">
         <v>903</v>
@@ -12840,10 +12849,10 @@
         <v>147</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D171" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E171" t="s">
         <v>903</v>
@@ -12887,10 +12896,10 @@
         <v>102</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D172" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E172" t="s">
         <v>903</v>
@@ -12934,10 +12943,10 @@
         <v>5951</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D173" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E173" t="s">
         <v>903</v>
@@ -12981,10 +12990,10 @@
         <v>3756</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D174" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E174" t="s">
         <v>903</v>
@@ -13028,10 +13037,10 @@
         <v>1084</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D175" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E175" t="s">
         <v>903</v>
@@ -13075,10 +13084,10 @@
         <v>564</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D176" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E176" t="s">
         <v>903</v>
@@ -13122,10 +13131,10 @@
         <v>219</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D177" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E177" t="s">
         <v>903</v>
@@ -13169,10 +13178,10 @@
         <v>3628</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D178" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E178" t="s">
         <v>903</v>
@@ -13216,10 +13225,10 @@
         <v>2091</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D179" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E179" t="s">
         <v>903</v>
@@ -13263,10 +13272,10 @@
         <v>1068</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D180" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E180" t="s">
         <v>903</v>
@@ -13310,10 +13319,10 @@
         <v>420</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D181" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E181" t="s">
         <v>903</v>
@@ -13357,10 +13366,10 @@
         <v>1126</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D182" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E182" t="s">
         <v>903</v>
@@ -13404,10 +13413,10 @@
         <v>894</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D183" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E183" t="s">
         <v>903</v>
@@ -13451,10 +13460,10 @@
         <v>939</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D184" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E184" t="s">
         <v>903</v>
@@ -13498,10 +13507,10 @@
         <v>1128</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D185" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E185" t="s">
         <v>903</v>
@@ -13545,10 +13554,10 @@
         <v>826</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D186" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E186" t="s">
         <v>903</v>
@@ -13592,10 +13601,10 @@
         <v>168</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D187" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E187" t="s">
         <v>903</v>
@@ -13639,10 +13648,10 @@
         <v>771</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D188" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E188" t="s">
         <v>903</v>
@@ -13686,10 +13695,10 @@
         <v>4441</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D189" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E189" t="s">
         <v>903</v>
@@ -13733,10 +13742,10 @@
         <v>754</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D190" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E190" t="s">
         <v>903</v>
@@ -13780,10 +13789,10 @@
         <v>411</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D191" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E191" t="s">
         <v>903</v>
@@ -13827,10 +13836,10 @@
         <v>234</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D192" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E192" t="s">
         <v>903</v>
@@ -13874,10 +13883,10 @@
         <v>267</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D193" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E193" t="s">
         <v>903</v>
@@ -13921,10 +13930,10 @@
         <v>489</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D194" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E194" t="s">
         <v>903</v>
@@ -13968,10 +13977,10 @@
         <v>180</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D195" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E195" t="s">
         <v>903</v>
@@ -14015,10 +14024,10 @@
         <v>171</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D196" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E196" t="s">
         <v>903</v>
@@ -14062,10 +14071,10 @@
         <v>273</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D197" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E197" t="s">
         <v>903</v>
@@ -14109,10 +14118,10 @@
         <v>300</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D198" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E198" t="s">
         <v>903</v>
@@ -14156,10 +14165,10 @@
         <v>957</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D199" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E199" t="s">
         <v>903</v>
@@ -14203,10 +14212,10 @@
         <v>1553</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D200" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E200" t="s">
         <v>903</v>
@@ -14250,10 +14259,10 @@
         <v>255</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D201" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E201" t="s">
         <v>903</v>
@@ -14297,10 +14306,10 @@
         <v>5402</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D202" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E202" t="s">
         <v>903</v>
@@ -14344,10 +14353,10 @@
         <v>4772</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D203" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E203" t="s">
         <v>903</v>
@@ -14391,10 +14400,10 @@
         <v>180</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D204" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E204" t="s">
         <v>903</v>
@@ -14438,10 +14447,10 @@
         <v>594</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D205" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E205" t="s">
         <v>903</v>
@@ -14485,10 +14494,10 @@
         <v>373</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D206" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E206" t="s">
         <v>903</v>
@@ -14532,10 +14541,10 @@
         <v>652</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D207" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E207" t="s">
         <v>903</v>
@@ -14579,10 +14588,10 @@
         <v>225</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D208" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E208" t="s">
         <v>903</v>
@@ -14626,10 +14635,10 @@
         <v>429</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D209" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E209" t="s">
         <v>903</v>
@@ -14673,10 +14682,10 @@
         <v>605</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D210" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E210" t="s">
         <v>903</v>
@@ -14720,10 +14729,10 @@
         <v>222</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D211" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E211" t="s">
         <v>903</v>
@@ -14767,10 +14776,10 @@
         <v>231</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D212" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E212" t="s">
         <v>903</v>
@@ -14814,10 +14823,10 @@
         <v>1753</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D213" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E213" t="s">
         <v>903</v>
@@ -14861,10 +14870,10 @@
         <v>2469</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D214" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E214" t="s">
         <v>903</v>
@@ -14908,10 +14917,10 @@
         <v>246</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D215" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E215" t="s">
         <v>903</v>
@@ -14955,10 +14964,10 @@
         <v>2342</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D216" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E216" t="s">
         <v>903</v>
@@ -15002,10 +15011,10 @@
         <v>1385</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D217" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E217" t="s">
         <v>903</v>
@@ -15049,10 +15058,10 @@
         <v>2455</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D218" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E218" t="s">
         <v>903</v>
@@ -15096,10 +15105,10 @@
         <v>327</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D219" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E219" t="s">
         <v>903</v>
@@ -15143,10 +15152,10 @@
         <v>1104</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D220" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E220" t="s">
         <v>903</v>
@@ -15190,10 +15199,10 @@
         <v>198</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D221" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E221" t="s">
         <v>903</v>
@@ -15237,10 +15246,10 @@
         <v>3023</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D222" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E222" t="s">
         <v>903</v>
@@ -15284,10 +15293,10 @@
         <v>3707</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D223" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E223" t="s">
         <v>903</v>
@@ -15331,10 +15340,10 @@
         <v>1862</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D224" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E224" t="s">
         <v>903</v>
@@ -15378,10 +15387,10 @@
         <v>2213</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D225" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E225" t="s">
         <v>903</v>
@@ -15425,10 +15434,10 @@
         <v>10396</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D226" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E226" t="s">
         <v>903</v>
@@ -15472,10 +15481,10 @@
         <v>4221</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D227" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E227" t="s">
         <v>903</v>
@@ -15519,10 +15528,10 @@
         <v>372</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D228" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E228" t="s">
         <v>903</v>
@@ -15566,10 +15575,10 @@
         <v>183</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D229" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E229" t="s">
         <v>903</v>
@@ -15613,10 +15622,10 @@
         <v>747</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D230" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E230" t="s">
         <v>903</v>
@@ -15660,10 +15669,10 @@
         <v>576</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D231" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E231" t="s">
         <v>903</v>
@@ -15707,10 +15716,10 @@
         <v>576</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D232" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E232" t="s">
         <v>903</v>
@@ -15754,10 +15763,10 @@
         <v>1019</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D233" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E233" t="s">
         <v>903</v>
@@ -15801,10 +15810,10 @@
         <v>5097</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D234" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E234" t="s">
         <v>903</v>
@@ -15848,10 +15857,10 @@
         <v>2189</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D235" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E235" t="s">
         <v>903</v>
@@ -15895,10 +15904,10 @@
         <v>1414</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D236" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E236" t="s">
         <v>903</v>
@@ -15942,10 +15951,10 @@
         <v>3975</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D237" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E237" t="s">
         <v>903</v>
@@ -15989,10 +15998,10 @@
         <v>13933</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D238" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E238" t="s">
         <v>903</v>
@@ -16036,10 +16045,10 @@
         <v>6810</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D239" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E239" t="s">
         <v>903</v>
@@ -16083,10 +16092,10 @@
         <v>5824</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D240" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E240" t="s">
         <v>903</v>
@@ -16130,10 +16139,10 @@
         <v>6307</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D241" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E241" t="s">
         <v>903</v>
@@ -16177,10 +16186,10 @@
         <v>1062</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D242" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E242" t="s">
         <v>903</v>
@@ -16224,10 +16233,10 @@
         <v>3121</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D243" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E243" t="s">
         <v>903</v>
@@ -16271,10 +16280,10 @@
         <v>921</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D244" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E244" t="s">
         <v>903</v>
@@ -16318,10 +16327,10 @@
         <v>765</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D245" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E245" t="s">
         <v>903</v>
@@ -16365,10 +16374,10 @@
         <v>9714</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D246" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E246" t="s">
         <v>903</v>
@@ -16412,10 +16421,10 @@
         <v>5897</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D247" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E247" t="s">
         <v>903</v>
@@ -16459,10 +16468,10 @@
         <v>2190</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D248" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E248" t="s">
         <v>903</v>
@@ -16506,10 +16515,10 @@
         <v>4248</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D249" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E249" t="s">
         <v>903</v>
@@ -16553,10 +16562,10 @@
         <v>918</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D250" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E250" t="s">
         <v>903</v>
@@ -16600,10 +16609,10 @@
         <v>1557</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D251" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E251" t="s">
         <v>903</v>
@@ -16647,10 +16656,10 @@
         <v>7425</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D252" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E252" t="s">
         <v>903</v>
@@ -16694,10 +16703,10 @@
         <v>1341</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D253" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E253" t="s">
         <v>903</v>
@@ -16741,10 +16750,10 @@
         <v>1492</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D254" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E254" t="s">
         <v>903</v>
@@ -16788,10 +16797,10 @@
         <v>411</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D255" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E255" t="s">
         <v>903</v>
@@ -16835,10 +16844,10 @@
         <v>357</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D256" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E256" t="s">
         <v>903</v>
@@ -16882,10 +16891,10 @@
         <v>548</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D257" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E257" t="s">
         <v>903</v>
@@ -16929,10 +16938,10 @@
         <v>620</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D258" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E258" t="s">
         <v>903</v>
@@ -16976,10 +16985,10 @@
         <v>162</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D259" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E259" t="s">
         <v>903</v>
@@ -17023,10 +17032,10 @@
         <v>7837</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D260" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E260" t="s">
         <v>903</v>
@@ -17070,10 +17079,10 @@
         <v>288</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D261" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E261" t="s">
         <v>903</v>
@@ -17117,10 +17126,10 @@
         <v>252</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D262" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E262" t="s">
         <v>903</v>
@@ -17164,10 +17173,10 @@
         <v>357</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D263" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E263" t="s">
         <v>903</v>
@@ -17211,10 +17220,10 @@
         <v>153</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D264" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E264" t="s">
         <v>903</v>
@@ -17258,10 +17267,10 @@
         <v>4895</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D265" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E265" t="s">
         <v>903</v>
@@ -17305,10 +17314,10 @@
         <v>718</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D266" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E266" t="s">
         <v>903</v>
@@ -17352,10 +17361,10 @@
         <v>576</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D267" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E267" t="s">
         <v>903</v>
@@ -17399,10 +17408,10 @@
         <v>570</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D268" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E268" t="s">
         <v>903</v>
@@ -17446,10 +17455,10 @@
         <v>471</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D269" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E269" t="s">
         <v>903</v>
@@ -17493,10 +17502,10 @@
         <v>540</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D270" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E270" t="s">
         <v>903</v>
@@ -17540,10 +17549,10 @@
         <v>539</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D271" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E271" t="s">
         <v>903</v>
@@ -17587,10 +17596,10 @@
         <v>318</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D272" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E272" t="s">
         <v>903</v>
@@ -17634,10 +17643,10 @@
         <v>294</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D273" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E273" t="s">
         <v>903</v>
@@ -17681,10 +17690,10 @@
         <v>318</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D274" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E274" t="s">
         <v>903</v>
@@ -17728,10 +17737,10 @@
         <v>300</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D275" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E275" t="s">
         <v>903</v>
@@ -17775,10 +17784,10 @@
         <v>411</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D276" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E276" t="s">
         <v>903</v>
@@ -17822,10 +17831,10 @@
         <v>255</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D277" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E277" t="s">
         <v>903</v>
@@ -17869,10 +17878,10 @@
         <v>450</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D278" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E278" t="s">
         <v>903</v>
@@ -17916,10 +17925,10 @@
         <v>258</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D279" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E279" t="s">
         <v>903</v>
@@ -17963,10 +17972,10 @@
         <v>450</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D280" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E280" t="s">
         <v>903</v>
@@ -18010,10 +18019,10 @@
         <v>249</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D281" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E281" t="s">
         <v>903</v>
@@ -18057,10 +18066,10 @@
         <v>393</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D282" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E282" t="s">
         <v>903</v>
@@ -18104,10 +18113,10 @@
         <v>416</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D283" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E283" t="s">
         <v>903</v>
@@ -18151,10 +18160,10 @@
         <v>450</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D284" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E284" t="s">
         <v>903</v>
@@ -18198,10 +18207,10 @@
         <v>333</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D285" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E285" t="s">
         <v>903</v>
@@ -18245,10 +18254,10 @@
         <v>231</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D286" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E286" t="s">
         <v>903</v>
@@ -18292,10 +18301,10 @@
         <v>231</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D287" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E287" t="s">
         <v>903</v>
@@ -18339,10 +18348,10 @@
         <v>351</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D288" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E288" t="s">
         <v>903</v>
@@ -18386,10 +18395,10 @@
         <v>351</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D289" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E289" t="s">
         <v>903</v>
@@ -18433,10 +18442,10 @@
         <v>153</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D290" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E290" t="s">
         <v>903</v>
@@ -18480,10 +18489,10 @@
         <v>252</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D291" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E291" t="s">
         <v>903</v>
@@ -18527,10 +18536,10 @@
         <v>213</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D292" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E292" t="s">
         <v>903</v>
@@ -18574,10 +18583,10 @@
         <v>548</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D293" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E293" t="s">
         <v>903</v>
@@ -18621,10 +18630,10 @@
         <v>811</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D294" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E294" t="s">
         <v>903</v>
@@ -18668,10 +18677,10 @@
         <v>330</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D295" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E295" t="s">
         <v>903</v>
@@ -18715,10 +18724,10 @@
         <v>297</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D296" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E296" t="s">
         <v>903</v>
@@ -18762,10 +18771,10 @@
         <v>411</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D297" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E297" t="s">
         <v>903</v>
@@ -18809,10 +18818,10 @@
         <v>411</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D298" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E298" t="s">
         <v>903</v>
@@ -18856,10 +18865,10 @@
         <v>255</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D299" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E299" t="s">
         <v>903</v>
@@ -18903,10 +18912,10 @@
         <v>297</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D300" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E300" t="s">
         <v>903</v>
@@ -18950,10 +18959,10 @@
         <v>294</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D301" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E301" t="s">
         <v>903</v>
@@ -18997,10 +19006,10 @@
         <v>222</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D302" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E302" t="s">
         <v>903</v>
@@ -19044,10 +19053,10 @@
         <v>255</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D303" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E303" t="s">
         <v>903</v>
@@ -19091,10 +19100,10 @@
         <v>516</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D304" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E304" t="s">
         <v>903</v>
@@ -19138,10 +19147,10 @@
         <v>285</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D305" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E305" t="s">
         <v>903</v>
@@ -19185,10 +19194,10 @@
         <v>285</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D306" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E306" t="s">
         <v>903</v>
@@ -19232,10 +19241,10 @@
         <v>285</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D307" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E307" t="s">
         <v>903</v>
@@ -19279,10 +19288,10 @@
         <v>222</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D308" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E308" t="s">
         <v>903</v>
@@ -19326,10 +19335,10 @@
         <v>249</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D309" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E309" t="s">
         <v>903</v>
@@ -19373,10 +19382,10 @@
         <v>177</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D310" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E310" t="s">
         <v>903</v>
@@ -19420,10 +19429,10 @@
         <v>453</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D311" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E311" t="s">
         <v>903</v>
@@ -19467,10 +19476,10 @@
         <v>384</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D312" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E312" t="s">
         <v>903</v>
@@ -19514,10 +19523,10 @@
         <v>384</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D313" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E313" t="s">
         <v>903</v>
@@ -19561,10 +19570,10 @@
         <v>297</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D314" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E314" t="s">
         <v>903</v>
@@ -19608,10 +19617,10 @@
         <v>297</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D315" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E315" t="s">
         <v>903</v>
@@ -19655,10 +19664,10 @@
         <v>216</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D316" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E316" t="s">
         <v>903</v>
@@ -19702,10 +19711,10 @@
         <v>306</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D317" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E317" t="s">
         <v>903</v>
@@ -19743,16 +19752,16 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B318">
         <v>2653</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D318" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E318" t="s">
         <v>903</v>
@@ -19790,16 +19799,16 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B319">
         <v>3055</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D319" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E319" t="s">
         <v>903</v>
@@ -19843,10 +19852,10 @@
         <v>708</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D320" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E320" t="s">
         <v>903</v>
@@ -19890,10 +19899,10 @@
         <v>324</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D321" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E321" t="s">
         <v>903</v>
@@ -19937,10 +19946,10 @@
         <v>4823</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D322" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E322" t="s">
         <v>903</v>
@@ -19984,10 +19993,10 @@
         <v>16813</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D323" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E323" t="s">
         <v>903</v>
@@ -20031,10 +20040,10 @@
         <v>7017</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D324" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E324" t="s">
         <v>903</v>
@@ -20078,10 +20087,10 @@
         <v>6021</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D325" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E325" t="s">
         <v>903</v>
@@ -20125,10 +20134,10 @@
         <v>1479</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D326" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E326" t="s">
         <v>903</v>
@@ -20172,10 +20181,10 @@
         <v>1107</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D327" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E327" t="s">
         <v>903</v>
@@ -20219,10 +20228,10 @@
         <v>999</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D328" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E328" t="s">
         <v>903</v>
@@ -20266,10 +20275,10 @@
         <v>666</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D329" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E329" t="s">
         <v>903</v>
@@ -20313,10 +20322,10 @@
         <v>711</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D330" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E330" t="s">
         <v>903</v>
@@ -20360,10 +20369,10 @@
         <v>684</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D331" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E331" t="s">
         <v>903</v>
@@ -20407,10 +20416,10 @@
         <v>513</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D332" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E332" t="s">
         <v>903</v>
@@ -20454,10 +20463,10 @@
         <v>480</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D333" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E333" t="s">
         <v>903</v>
@@ -20501,10 +20510,10 @@
         <v>480</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D334" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E334" t="s">
         <v>903</v>
@@ -20548,10 +20557,10 @@
         <v>492</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D335" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E335" t="s">
         <v>903</v>
@@ -20595,10 +20604,10 @@
         <v>273</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D336" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E336" t="s">
         <v>903</v>
@@ -20642,10 +20651,10 @@
         <v>222</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D337" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E337" t="s">
         <v>903</v>
@@ -20689,10 +20698,10 @@
         <v>747</v>
       </c>
       <c r="C338" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D338" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E338" t="s">
         <v>904</v>
@@ -20730,16 +20739,16 @@
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B339">
         <v>1425</v>
       </c>
       <c r="C339" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D339" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E339" t="s">
         <v>904</v>
@@ -20777,16 +20786,16 @@
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B340">
         <v>367</v>
       </c>
       <c r="C340" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D340" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E340" t="s">
         <v>904</v>
@@ -20810,7 +20819,7 @@
         <v>328</v>
       </c>
       <c r="L340" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="M340" t="s">
         <v>30</v>
@@ -20830,10 +20839,10 @@
         <v>546</v>
       </c>
       <c r="C341" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D341" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E341" t="s">
         <v>904</v>
@@ -20877,10 +20886,10 @@
         <v>363</v>
       </c>
       <c r="C342" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D342" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E342" t="s">
         <v>904</v>
@@ -20918,16 +20927,19 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1295</v>
+        <v>1235</v>
+      </c>
+      <c r="B343">
+        <v>4305</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>1297</v>
       </c>
       <c r="D343" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E343" t="s">
-        <v>1253</v>
+        <v>905</v>
       </c>
       <c r="F343" s="3">
         <v>1</v>
@@ -20936,33 +20948,42 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>1251</v>
+        <v>32</v>
       </c>
       <c r="I343" t="s">
         <v>11</v>
       </c>
+      <c r="J343" s="5">
+        <v>1</v>
+      </c>
+      <c r="K343" t="s">
+        <v>33</v>
+      </c>
       <c r="L343" t="s">
-        <v>1252</v>
+        <v>579</v>
+      </c>
+      <c r="M343" t="s">
+        <v>30</v>
       </c>
       <c r="N343">
-        <v>446</v>
+        <v>125475</v>
       </c>
       <c r="O343">
-        <v>1327</v>
+        <v>129779</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B344">
-        <v>4305</v>
+        <v>2045</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D344" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E344" t="s">
         <v>905</v>
@@ -20971,7 +20992,7 @@
         <v>1</v>
       </c>
       <c r="G344" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H344" t="s">
         <v>32</v>
@@ -20986,30 +21007,30 @@
         <v>33</v>
       </c>
       <c r="L344" t="s">
-        <v>579</v>
+        <v>34</v>
       </c>
       <c r="M344" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N344">
-        <v>125475</v>
+        <v>412256</v>
       </c>
       <c r="O344">
-        <v>129779</v>
+        <v>414300</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B345">
-        <v>2045</v>
+        <v>4154</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D345" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E345" t="s">
         <v>905</v>
@@ -21018,7 +21039,7 @@
         <v>1</v>
       </c>
       <c r="G345" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H345" t="s">
         <v>32</v>
@@ -21033,30 +21054,30 @@
         <v>33</v>
       </c>
       <c r="L345" t="s">
-        <v>34</v>
+        <v>731</v>
       </c>
       <c r="M345" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N345">
-        <v>412256</v>
+        <v>23438</v>
       </c>
       <c r="O345">
-        <v>414300</v>
+        <v>27591</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B346">
-        <v>4154</v>
+        <v>276</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D346" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E346" t="s">
         <v>905</v>
@@ -21065,7 +21086,7 @@
         <v>1</v>
       </c>
       <c r="G346" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H346" t="s">
         <v>32</v>
@@ -21080,77 +21101,77 @@
         <v>33</v>
       </c>
       <c r="L346" t="s">
-        <v>731</v>
+        <v>839</v>
       </c>
       <c r="M346" t="s">
         <v>30</v>
       </c>
       <c r="N346">
-        <v>23438</v>
+        <v>153714</v>
       </c>
       <c r="O346">
-        <v>27591</v>
+        <v>153989</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="B347">
-        <v>276</v>
+        <v>5089</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D347" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E347" t="s">
         <v>905</v>
       </c>
       <c r="F347" s="3">
+        <v>2</v>
+      </c>
+      <c r="G347" s="3">
         <v>1</v>
       </c>
-      <c r="G347" s="3">
-        <v>4</v>
-      </c>
       <c r="H347" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="I347" t="s">
         <v>11</v>
       </c>
-      <c r="J347" s="5">
-        <v>1</v>
+      <c r="J347" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="K347" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="L347" t="s">
-        <v>839</v>
+        <v>605</v>
       </c>
       <c r="M347" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N347">
-        <v>153714</v>
+        <v>645</v>
       </c>
       <c r="O347">
-        <v>153989</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B348">
-        <v>5089</v>
+        <v>2043</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D348" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E348" t="s">
         <v>905</v>
@@ -21159,7 +21180,7 @@
         <v>2</v>
       </c>
       <c r="G348" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H348" t="s">
         <v>279</v>
@@ -21174,30 +21195,30 @@
         <v>281</v>
       </c>
       <c r="L348" t="s">
-        <v>605</v>
+        <v>560</v>
       </c>
       <c r="M348" t="s">
         <v>15</v>
       </c>
       <c r="N348">
-        <v>645</v>
+        <v>285</v>
       </c>
       <c r="O348">
-        <v>5733</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B349">
-        <v>2043</v>
+        <v>572</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D349" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E349" t="s">
         <v>905</v>
@@ -21206,7 +21227,7 @@
         <v>2</v>
       </c>
       <c r="G349" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H349" t="s">
         <v>279</v>
@@ -21221,77 +21242,77 @@
         <v>281</v>
       </c>
       <c r="L349" t="s">
-        <v>560</v>
+        <v>282</v>
       </c>
       <c r="M349" t="s">
         <v>15</v>
       </c>
       <c r="N349">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="O349">
-        <v>2327</v>
+        <v>822</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B350">
-        <v>572</v>
+        <v>990</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D350" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E350" t="s">
         <v>905</v>
       </c>
       <c r="F350" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G350" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>279</v>
+        <v>518</v>
       </c>
       <c r="I350" t="s">
         <v>11</v>
       </c>
       <c r="J350" s="5" t="s">
-        <v>280</v>
+        <v>519</v>
       </c>
       <c r="K350" t="s">
-        <v>281</v>
+        <v>520</v>
       </c>
       <c r="L350" t="s">
-        <v>282</v>
+        <v>521</v>
       </c>
       <c r="M350" t="s">
         <v>15</v>
       </c>
       <c r="N350">
-        <v>251</v>
+        <v>138034</v>
       </c>
       <c r="O350">
-        <v>822</v>
+        <v>139023</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B351">
-        <v>990</v>
+        <v>4907</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D351" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E351" t="s">
         <v>905</v>
@@ -21300,7 +21321,7 @@
         <v>3</v>
       </c>
       <c r="G351" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H351" t="s">
         <v>518</v>
@@ -21315,77 +21336,77 @@
         <v>520</v>
       </c>
       <c r="L351" t="s">
-        <v>521</v>
+        <v>849</v>
       </c>
       <c r="M351" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N351">
-        <v>138034</v>
+        <v>27785</v>
       </c>
       <c r="O351">
-        <v>139023</v>
+        <v>32691</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="B352">
-        <v>4907</v>
-      </c>
-      <c r="C352" s="6" t="s">
-        <v>1296</v>
+        <v>503</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1298</v>
       </c>
       <c r="D352" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E352" t="s">
         <v>905</v>
       </c>
       <c r="F352" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G352" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>518</v>
+        <v>226</v>
       </c>
       <c r="I352" t="s">
         <v>11</v>
       </c>
       <c r="J352" s="5" t="s">
-        <v>519</v>
+        <v>227</v>
       </c>
       <c r="K352" t="s">
-        <v>520</v>
+        <v>228</v>
       </c>
       <c r="L352" t="s">
-        <v>849</v>
+        <v>229</v>
       </c>
       <c r="M352" t="s">
         <v>30</v>
       </c>
       <c r="N352">
-        <v>27785</v>
+        <v>4793790</v>
       </c>
       <c r="O352">
-        <v>32691</v>
+        <v>4794292</v>
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B353">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C353" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D353" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E353" t="s">
         <v>905</v>
@@ -21394,7 +21415,7 @@
         <v>4</v>
       </c>
       <c r="G353" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H353" t="s">
         <v>226</v>
@@ -21415,24 +21436,24 @@
         <v>30</v>
       </c>
       <c r="N353">
-        <v>4793790</v>
+        <v>3097464</v>
       </c>
       <c r="O353">
-        <v>4794292</v>
+        <v>3097963</v>
       </c>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B354">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C354" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D354" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E354" t="s">
         <v>905</v>
@@ -21441,7 +21462,7 @@
         <v>4</v>
       </c>
       <c r="G354" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H354" t="s">
         <v>226</v>
@@ -21459,27 +21480,27 @@
         <v>229</v>
       </c>
       <c r="M354" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N354">
-        <v>3097464</v>
+        <v>2493774</v>
       </c>
       <c r="O354">
-        <v>3097963</v>
+        <v>2494276</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B355">
-        <v>503</v>
+        <v>219</v>
       </c>
       <c r="C355" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D355" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E355" t="s">
         <v>905</v>
@@ -21488,45 +21509,45 @@
         <v>4</v>
       </c>
       <c r="G355" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
       <c r="I355" t="s">
         <v>11</v>
       </c>
       <c r="J355" s="5" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="K355" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="L355" t="s">
-        <v>229</v>
+        <v>334</v>
       </c>
       <c r="M355" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N355">
-        <v>2493774</v>
+        <v>13757</v>
       </c>
       <c r="O355">
-        <v>2494276</v>
+        <v>13975</v>
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B356">
-        <v>219</v>
+        <v>503</v>
       </c>
       <c r="C356" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D356" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E356" t="s">
         <v>905</v>
@@ -21538,89 +21559,89 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="I356" t="s">
         <v>11</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>332</v>
+        <v>393</v>
       </c>
       <c r="K356" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="L356" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="M356" t="s">
         <v>30</v>
       </c>
       <c r="N356">
-        <v>13757</v>
+        <v>8771</v>
       </c>
       <c r="O356">
-        <v>13975</v>
+        <v>9273</v>
       </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
-        <v>1245</v>
+        <v>895</v>
       </c>
       <c r="B357">
-        <v>503</v>
+        <v>925</v>
       </c>
       <c r="C357" t="s">
         <v>1299</v>
       </c>
       <c r="D357" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E357" t="s">
         <v>905</v>
       </c>
       <c r="F357" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G357" s="3">
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>392</v>
+        <v>608</v>
       </c>
       <c r="I357" t="s">
         <v>11</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>393</v>
+        <v>609</v>
       </c>
       <c r="K357" t="s">
-        <v>394</v>
+        <v>610</v>
       </c>
       <c r="L357" t="s">
-        <v>395</v>
+        <v>611</v>
       </c>
       <c r="M357" t="s">
         <v>30</v>
       </c>
       <c r="N357">
-        <v>8771</v>
+        <v>12379</v>
       </c>
       <c r="O357">
-        <v>9273</v>
+        <v>13303</v>
       </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B358">
-        <v>925</v>
+        <v>759</v>
       </c>
       <c r="C358" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D358" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E358" t="s">
         <v>905</v>
@@ -21632,136 +21653,136 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>608</v>
+        <v>144</v>
       </c>
       <c r="I358" t="s">
         <v>11</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>609</v>
+        <v>145</v>
       </c>
       <c r="K358" t="s">
-        <v>610</v>
+        <v>146</v>
       </c>
       <c r="L358" t="s">
-        <v>611</v>
+        <v>147</v>
       </c>
       <c r="M358" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N358">
-        <v>12379</v>
+        <v>11151</v>
       </c>
       <c r="O358">
-        <v>13303</v>
+        <v>11909</v>
       </c>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B359">
-        <v>759</v>
+        <v>168</v>
       </c>
       <c r="C359" t="s">
         <v>1300</v>
       </c>
       <c r="D359" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E359" t="s">
         <v>905</v>
       </c>
       <c r="F359" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G359" s="3">
         <v>1</v>
       </c>
       <c r="H359" t="s">
-        <v>144</v>
+        <v>675</v>
       </c>
       <c r="I359" t="s">
         <v>11</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>145</v>
+        <v>676</v>
       </c>
       <c r="K359" t="s">
-        <v>146</v>
+        <v>677</v>
       </c>
       <c r="L359" t="s">
-        <v>147</v>
+        <v>678</v>
       </c>
       <c r="M359" t="s">
         <v>15</v>
       </c>
       <c r="N359">
-        <v>11151</v>
+        <v>629</v>
       </c>
       <c r="O359">
-        <v>11909</v>
+        <v>796</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
-        <v>893</v>
+        <v>1241</v>
       </c>
       <c r="B360">
-        <v>168</v>
+        <v>798</v>
       </c>
       <c r="C360" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="D360" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E360" t="s">
         <v>905</v>
       </c>
       <c r="F360" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G360" s="3">
         <v>1</v>
       </c>
       <c r="H360" t="s">
-        <v>675</v>
+        <v>574</v>
       </c>
       <c r="I360" t="s">
         <v>11</v>
       </c>
       <c r="J360" s="5" t="s">
-        <v>676</v>
+        <v>575</v>
       </c>
       <c r="K360" t="s">
-        <v>677</v>
+        <v>576</v>
       </c>
       <c r="L360" t="s">
-        <v>678</v>
+        <v>577</v>
       </c>
       <c r="M360" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N360">
-        <v>629</v>
+        <v>1448566</v>
       </c>
       <c r="O360">
-        <v>796</v>
+        <v>1449363</v>
       </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
-        <v>1241</v>
+        <v>891</v>
       </c>
       <c r="B361">
-        <v>798</v>
+        <v>441</v>
       </c>
       <c r="C361" t="s">
-        <v>1293</v>
+        <v>1301</v>
       </c>
       <c r="D361" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E361" t="s">
         <v>905</v>
@@ -21773,83 +21794,83 @@
         <v>1</v>
       </c>
       <c r="H361" t="s">
-        <v>574</v>
+        <v>234</v>
       </c>
       <c r="I361" t="s">
         <v>11</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>575</v>
+        <v>235</v>
       </c>
       <c r="K361" t="s">
-        <v>576</v>
+        <v>236</v>
       </c>
       <c r="L361" t="s">
-        <v>577</v>
+        <v>237</v>
       </c>
       <c r="M361" t="s">
         <v>30</v>
       </c>
       <c r="N361">
-        <v>1448566</v>
+        <v>5708</v>
       </c>
       <c r="O361">
-        <v>1449363</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B362">
-        <v>441</v>
+        <v>180</v>
       </c>
       <c r="C362" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="D362" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E362" t="s">
         <v>905</v>
       </c>
       <c r="F362" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G362" s="3">
         <v>1</v>
       </c>
       <c r="H362" t="s">
-        <v>234</v>
+        <v>701</v>
       </c>
       <c r="I362" t="s">
         <v>11</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>235</v>
+        <v>702</v>
       </c>
       <c r="K362" t="s">
-        <v>236</v>
+        <v>703</v>
       </c>
       <c r="L362" t="s">
-        <v>237</v>
+        <v>704</v>
       </c>
       <c r="M362" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N362">
-        <v>5708</v>
+        <v>40729</v>
       </c>
       <c r="O362">
-        <v>6148</v>
+        <v>40908</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
-        <v>892</v>
+        <v>1309</v>
       </c>
       <c r="B363">
-        <v>180</v>
+        <v>882</v>
       </c>
       <c r="C363" t="s">
         <v>1294</v>
@@ -21858,44 +21879,91 @@
         <v>1264</v>
       </c>
       <c r="E363" t="s">
-        <v>905</v>
+        <v>1252</v>
       </c>
       <c r="F363" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G363" s="3">
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>701</v>
+        <v>1250</v>
       </c>
       <c r="I363" t="s">
         <v>11</v>
       </c>
-      <c r="J363" s="5" t="s">
-        <v>702</v>
+      <c r="J363" s="5">
+        <v>1</v>
       </c>
       <c r="K363" t="s">
-        <v>703</v>
+        <v>1311</v>
       </c>
       <c r="L363" t="s">
-        <v>704</v>
+        <v>1251</v>
       </c>
       <c r="M363" t="s">
         <v>15</v>
       </c>
       <c r="N363">
-        <v>40729</v>
+        <v>446</v>
       </c>
       <c r="O363">
-        <v>40908</v>
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A364" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B364">
+        <v>597</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E364" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F364" s="3">
+        <v>1</v>
+      </c>
+      <c r="G364" s="3">
+        <v>1</v>
+      </c>
+      <c r="H364" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I364" t="s">
+        <v>11</v>
+      </c>
+      <c r="J364" s="5">
+        <v>1</v>
+      </c>
+      <c r="K364" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L364" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M364" t="s">
+        <v>30</v>
+      </c>
+      <c r="N364">
+        <v>11361</v>
+      </c>
+      <c r="O364">
+        <v>11957</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O363">
-    <sortCondition ref="D2:D363"/>
-    <sortCondition ref="F2:F363"/>
-    <sortCondition ref="H2:H363"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O362">
+    <sortCondition ref="D2:D362"/>
+    <sortCondition ref="F2:F362"/>
+    <sortCondition ref="H2:H362"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21922,7 +21990,7 @@
         <v>880</v>
       </c>
       <c r="D1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E1" t="s">
         <v>900</v>
@@ -21990,7 +22058,7 @@
         <v>865</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>906</v>
@@ -22430,7 +22498,7 @@
         <v>871</v>
       </c>
       <c r="D11" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E11" t="s">
         <v>902</v>
@@ -22475,7 +22543,7 @@
         <v>871</v>
       </c>
       <c r="D12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E12" t="s">
         <v>902</v>
@@ -22520,7 +22588,7 @@
         <v>871</v>
       </c>
       <c r="D13" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E13" t="s">
         <v>902</v>
@@ -25589,7 +25657,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1">
         <v>525</v>
@@ -25598,7 +25666,7 @@
         <v>897</v>
       </c>
       <c r="D1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E1" t="s">
         <v>902</v>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFEC1E6-D8E4-9A43-AD7A-FD198776736A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DFEF67-DDD2-2643-A62D-19097CFAD01E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="640" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="1315">
   <si>
     <t>organism</t>
   </si>
@@ -3964,6 +3964,12 @@
   </si>
   <si>
     <t>AXZU02047183</t>
+  </si>
+  <si>
+    <t>EFV-PL2.7.189-Operophtera_brumata</t>
+  </si>
+  <si>
+    <t>EFV-PL2.7.190-Operophtera_brumata</t>
   </si>
 </sst>
 </file>
@@ -4833,7 +4839,7 @@
   <dimension ref="A1:O364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C360" sqref="A1:O364"/>
+      <selection activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19846,7 +19852,7 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>1163</v>
+        <v>1313</v>
       </c>
       <c r="B320">
         <v>708</v>
@@ -19861,7 +19867,7 @@
         <v>903</v>
       </c>
       <c r="F320" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G320" s="3">
         <v>189</v>
@@ -19893,7 +19899,7 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>1164</v>
+        <v>1314</v>
       </c>
       <c r="B321">
         <v>324</v>
@@ -19908,7 +19914,7 @@
         <v>903</v>
       </c>
       <c r="F321" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G321" s="3">
         <v>190</v>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DFEF67-DDD2-2643-A62D-19097CFAD01E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064959EA-63E5-924E-A7C8-6FB5C29666F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="640" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4838,8 +4838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A320" sqref="A320"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064959EA-63E5-924E-A7C8-6FB5C29666F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B5F7EF-ED19-3641-9DD0-5E72ADC031DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="640" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="1317">
   <si>
     <t>organism</t>
   </si>
@@ -3891,9 +3891,6 @@
     <t>EFV-PL2.3-Apoidae</t>
   </si>
   <si>
-    <t>EFV-PL2.3-OsmBic</t>
-  </si>
-  <si>
     <t>EFV-PL2.5-AnoGla</t>
   </si>
   <si>
@@ -3966,10 +3963,19 @@
     <t>AXZU02047183</t>
   </si>
   <si>
-    <t>EFV-PL2.7.189-Operophtera_brumata</t>
-  </si>
-  <si>
-    <t>EFV-PL2.7.190-Operophtera_brumata</t>
+    <t>EFV-PL2.7.1-Operophtera_brumata</t>
+  </si>
+  <si>
+    <t>EFV-PL2.7.2-Operophtera_brumata</t>
+  </si>
+  <si>
+    <t>EFV-PL2.5.1-Anoplophora_glabripennis</t>
+  </si>
+  <si>
+    <t>EFV-PL2.4-AndCur</t>
+  </si>
+  <si>
+    <t>EFV-PL2.4.2-Andricus_curvator</t>
   </si>
 </sst>
 </file>
@@ -4838,8 +4844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="J332" sqref="A1:O364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5282,7 +5288,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B10">
         <v>3750</v>
@@ -8437,7 +8443,7 @@
         <v>1661</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D77" t="s">
         <v>1261</v>
@@ -8484,7 +8490,7 @@
         <v>2703</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D78" t="s">
         <v>1261</v>
@@ -8531,7 +8537,7 @@
         <v>471</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D79" t="s">
         <v>1261</v>
@@ -8572,13 +8578,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>1026</v>
+        <v>1316</v>
       </c>
       <c r="B80">
         <v>1842</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1287</v>
+        <v>1315</v>
       </c>
       <c r="D80" t="s">
         <v>1261</v>
@@ -8587,10 +8593,10 @@
         <v>903</v>
       </c>
       <c r="F80" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G80" s="3">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="H80" t="s">
         <v>302</v>
@@ -8619,13 +8625,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>1027</v>
+        <v>1316</v>
       </c>
       <c r="B81">
         <v>6440</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1287</v>
+        <v>1315</v>
       </c>
       <c r="D81" t="s">
         <v>1261</v>
@@ -8634,10 +8640,10 @@
         <v>903</v>
       </c>
       <c r="F81" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G81" s="3">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H81" t="s">
         <v>302</v>
@@ -8672,7 +8678,7 @@
         <v>7927</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1287</v>
+        <v>1315</v>
       </c>
       <c r="D82" t="s">
         <v>1261</v>
@@ -8681,10 +8687,10 @@
         <v>903</v>
       </c>
       <c r="F82" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G82" s="3">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
         <v>319</v>
@@ -8719,7 +8725,7 @@
         <v>1062</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1287</v>
+        <v>1315</v>
       </c>
       <c r="D83" t="s">
         <v>1261</v>
@@ -8728,10 +8734,10 @@
         <v>903</v>
       </c>
       <c r="F83" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83" s="3">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>319</v>
@@ -8760,13 +8766,13 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>1147</v>
+        <v>1314</v>
       </c>
       <c r="B84">
         <v>351</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D84" t="s">
         <v>1261</v>
@@ -8775,10 +8781,10 @@
         <v>903</v>
       </c>
       <c r="F84" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G84" s="3">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>99</v>
@@ -19758,7 +19764,7 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B318">
         <v>2653</v>
@@ -19805,7 +19811,7 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B319">
         <v>3055</v>
@@ -19852,13 +19858,13 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>1313</v>
+        <v>1057</v>
       </c>
       <c r="B320">
-        <v>708</v>
+        <v>4823</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="D320" t="s">
         <v>1261</v>
@@ -19867,45 +19873,45 @@
         <v>903</v>
       </c>
       <c r="F320" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G320" s="3">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="H320" t="s">
-        <v>448</v>
+        <v>600</v>
       </c>
       <c r="I320" t="s">
         <v>11</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>449</v>
+        <v>601</v>
       </c>
       <c r="K320" t="s">
-        <v>450</v>
+        <v>602</v>
       </c>
       <c r="L320" t="s">
-        <v>706</v>
+        <v>603</v>
       </c>
       <c r="M320" t="s">
         <v>15</v>
       </c>
       <c r="N320">
-        <v>99289</v>
+        <v>16257</v>
       </c>
       <c r="O320">
-        <v>99996</v>
+        <v>21079</v>
       </c>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>1314</v>
+        <v>1148</v>
       </c>
       <c r="B321">
-        <v>324</v>
+        <v>16813</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D321" t="s">
         <v>1261</v>
@@ -19914,45 +19920,45 @@
         <v>903</v>
       </c>
       <c r="F321" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G321" s="3">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="H321" t="s">
-        <v>448</v>
+        <v>52</v>
       </c>
       <c r="I321" t="s">
         <v>11</v>
       </c>
       <c r="J321" s="5" t="s">
-        <v>449</v>
+        <v>53</v>
       </c>
       <c r="K321" t="s">
-        <v>450</v>
+        <v>54</v>
       </c>
       <c r="L321" t="s">
-        <v>451</v>
+        <v>776</v>
       </c>
       <c r="M321" t="s">
         <v>15</v>
       </c>
       <c r="N321">
-        <v>70740</v>
+        <v>488</v>
       </c>
       <c r="O321">
-        <v>71063</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
-        <v>1057</v>
+        <v>1149</v>
       </c>
       <c r="B322">
-        <v>4823</v>
+        <v>7017</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D322" t="s">
         <v>1261</v>
@@ -19961,45 +19967,45 @@
         <v>903</v>
       </c>
       <c r="F322" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G322" s="3">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="H322" t="s">
-        <v>600</v>
+        <v>52</v>
       </c>
       <c r="I322" t="s">
         <v>11</v>
       </c>
       <c r="J322" s="5" t="s">
-        <v>601</v>
+        <v>53</v>
       </c>
       <c r="K322" t="s">
-        <v>602</v>
+        <v>54</v>
       </c>
       <c r="L322" t="s">
-        <v>603</v>
+        <v>457</v>
       </c>
       <c r="M322" t="s">
         <v>15</v>
       </c>
       <c r="N322">
-        <v>16257</v>
+        <v>489</v>
       </c>
       <c r="O322">
-        <v>21079</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B323">
-        <v>16813</v>
+        <v>6021</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D323" t="s">
         <v>1261</v>
@@ -20008,10 +20014,10 @@
         <v>903</v>
       </c>
       <c r="F323" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G323" s="3">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="H323" t="s">
         <v>52</v>
@@ -20026,27 +20032,27 @@
         <v>54</v>
       </c>
       <c r="L323" t="s">
-        <v>776</v>
+        <v>55</v>
       </c>
       <c r="M323" t="s">
         <v>15</v>
       </c>
       <c r="N323">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="O323">
-        <v>17300</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B324">
-        <v>7017</v>
+        <v>1479</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D324" t="s">
         <v>1261</v>
@@ -20055,10 +20061,10 @@
         <v>903</v>
       </c>
       <c r="F324" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G324" s="3">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H324" t="s">
         <v>52</v>
@@ -20073,27 +20079,27 @@
         <v>54</v>
       </c>
       <c r="L324" t="s">
-        <v>457</v>
+        <v>342</v>
       </c>
       <c r="M324" t="s">
         <v>15</v>
       </c>
       <c r="N324">
-        <v>489</v>
+        <v>13</v>
       </c>
       <c r="O324">
-        <v>7505</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B325">
-        <v>6021</v>
+        <v>1107</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D325" t="s">
         <v>1261</v>
@@ -20102,10 +20108,10 @@
         <v>903</v>
       </c>
       <c r="F325" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G325" s="3">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H325" t="s">
         <v>52</v>
@@ -20120,27 +20126,27 @@
         <v>54</v>
       </c>
       <c r="L325" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="M325" t="s">
         <v>15</v>
       </c>
       <c r="N325">
-        <v>492</v>
+        <v>24</v>
       </c>
       <c r="O325">
-        <v>6512</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B326">
-        <v>1479</v>
+        <v>999</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D326" t="s">
         <v>1261</v>
@@ -20149,10 +20155,10 @@
         <v>903</v>
       </c>
       <c r="F326" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G326" s="3">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H326" t="s">
         <v>52</v>
@@ -20167,27 +20173,27 @@
         <v>54</v>
       </c>
       <c r="L326" t="s">
-        <v>342</v>
+        <v>535</v>
       </c>
       <c r="M326" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N326">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="O326">
-        <v>1491</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B327">
-        <v>1107</v>
+        <v>666</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D327" t="s">
         <v>1261</v>
@@ -20196,10 +20202,10 @@
         <v>903</v>
       </c>
       <c r="F327" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G327" s="3">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H327" t="s">
         <v>52</v>
@@ -20214,27 +20220,27 @@
         <v>54</v>
       </c>
       <c r="L327" t="s">
-        <v>336</v>
+        <v>179</v>
       </c>
       <c r="M327" t="s">
         <v>15</v>
       </c>
       <c r="N327">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="O327">
-        <v>1130</v>
+        <v>673</v>
       </c>
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B328">
-        <v>999</v>
+        <v>711</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D328" t="s">
         <v>1261</v>
@@ -20243,10 +20249,10 @@
         <v>903</v>
       </c>
       <c r="F328" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G328" s="3">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H328" t="s">
         <v>52</v>
@@ -20261,27 +20267,27 @@
         <v>54</v>
       </c>
       <c r="L328" t="s">
-        <v>535</v>
+        <v>796</v>
       </c>
       <c r="M328" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N328">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="O328">
-        <v>1022</v>
+        <v>712</v>
       </c>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B329">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D329" t="s">
         <v>1261</v>
@@ -20290,10 +20296,10 @@
         <v>903</v>
       </c>
       <c r="F329" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G329" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H329" t="s">
         <v>52</v>
@@ -20308,27 +20314,27 @@
         <v>54</v>
       </c>
       <c r="L329" t="s">
-        <v>179</v>
+        <v>841</v>
       </c>
       <c r="M329" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N329">
-        <v>8</v>
+        <v>910</v>
       </c>
       <c r="O329">
-        <v>673</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B330">
-        <v>711</v>
+        <v>513</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D330" t="s">
         <v>1261</v>
@@ -20337,10 +20343,10 @@
         <v>903</v>
       </c>
       <c r="F330" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G330" s="3">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H330" t="s">
         <v>52</v>
@@ -20355,27 +20361,27 @@
         <v>54</v>
       </c>
       <c r="L330" t="s">
-        <v>796</v>
+        <v>177</v>
       </c>
       <c r="M330" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O330">
-        <v>712</v>
+        <v>513</v>
       </c>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B331">
-        <v>684</v>
+        <v>480</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D331" t="s">
         <v>1261</v>
@@ -20384,10 +20390,10 @@
         <v>903</v>
       </c>
       <c r="F331" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G331" s="3">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H331" t="s">
         <v>52</v>
@@ -20402,27 +20408,27 @@
         <v>54</v>
       </c>
       <c r="L331" t="s">
-        <v>841</v>
+        <v>810</v>
       </c>
       <c r="M331" t="s">
         <v>30</v>
       </c>
       <c r="N331">
-        <v>910</v>
+        <v>2343</v>
       </c>
       <c r="O331">
-        <v>1593</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B332">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D332" t="s">
         <v>1261</v>
@@ -20431,10 +20437,10 @@
         <v>903</v>
       </c>
       <c r="F332" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G332" s="3">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H332" t="s">
         <v>52</v>
@@ -20449,27 +20455,27 @@
         <v>54</v>
       </c>
       <c r="L332" t="s">
-        <v>177</v>
+        <v>663</v>
       </c>
       <c r="M332" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N332">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="O332">
-        <v>513</v>
+        <v>652</v>
       </c>
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B333">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D333" t="s">
         <v>1261</v>
@@ -20478,10 +20484,10 @@
         <v>903</v>
       </c>
       <c r="F333" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G333" s="3">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H333" t="s">
         <v>52</v>
@@ -20496,7 +20502,7 @@
         <v>54</v>
       </c>
       <c r="L333" t="s">
-        <v>810</v>
+        <v>699</v>
       </c>
       <c r="M333" t="s">
         <v>30</v>
@@ -20505,18 +20511,18 @@
         <v>2343</v>
       </c>
       <c r="O333">
-        <v>2822</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B334">
-        <v>480</v>
+        <v>273</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D334" t="s">
         <v>1261</v>
@@ -20525,10 +20531,10 @@
         <v>903</v>
       </c>
       <c r="F334" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G334" s="3">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H334" t="s">
         <v>52</v>
@@ -20543,27 +20549,27 @@
         <v>54</v>
       </c>
       <c r="L334" t="s">
-        <v>663</v>
+        <v>137</v>
       </c>
       <c r="M334" t="s">
         <v>15</v>
       </c>
       <c r="N334">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="O334">
-        <v>652</v>
+        <v>273</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B335">
-        <v>492</v>
+        <v>222</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D335" t="s">
         <v>1261</v>
@@ -20572,10 +20578,10 @@
         <v>903</v>
       </c>
       <c r="F335" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G335" s="3">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H335" t="s">
         <v>52</v>
@@ -20590,24 +20596,24 @@
         <v>54</v>
       </c>
       <c r="L335" t="s">
-        <v>699</v>
+        <v>300</v>
       </c>
       <c r="M335" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N335">
-        <v>2343</v>
+        <v>6</v>
       </c>
       <c r="O335">
-        <v>2834</v>
+        <v>227</v>
       </c>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>1161</v>
+        <v>1312</v>
       </c>
       <c r="B336">
-        <v>273</v>
+        <v>708</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>1290</v>
@@ -20619,42 +20625,42 @@
         <v>903</v>
       </c>
       <c r="F336" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G336" s="3">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>52</v>
+        <v>448</v>
       </c>
       <c r="I336" t="s">
         <v>11</v>
       </c>
       <c r="J336" s="5" t="s">
-        <v>53</v>
+        <v>449</v>
       </c>
       <c r="K336" t="s">
-        <v>54</v>
+        <v>450</v>
       </c>
       <c r="L336" t="s">
-        <v>137</v>
+        <v>706</v>
       </c>
       <c r="M336" t="s">
         <v>15</v>
       </c>
       <c r="N336">
-        <v>1</v>
+        <v>99289</v>
       </c>
       <c r="O336">
-        <v>273</v>
+        <v>99996</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>1162</v>
+        <v>1313</v>
       </c>
       <c r="B337">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>1290</v>
@@ -20666,34 +20672,34 @@
         <v>903</v>
       </c>
       <c r="F337" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G337" s="3">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="H337" t="s">
-        <v>52</v>
+        <v>448</v>
       </c>
       <c r="I337" t="s">
         <v>11</v>
       </c>
       <c r="J337" s="5" t="s">
-        <v>53</v>
+        <v>449</v>
       </c>
       <c r="K337" t="s">
-        <v>54</v>
+        <v>450</v>
       </c>
       <c r="L337" t="s">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="M337" t="s">
         <v>15</v>
       </c>
       <c r="N337">
-        <v>6</v>
+        <v>70740</v>
       </c>
       <c r="O337">
-        <v>227</v>
+        <v>71063</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
@@ -20704,7 +20710,7 @@
         <v>747</v>
       </c>
       <c r="C338" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D338" t="s">
         <v>1262</v>
@@ -20751,7 +20757,7 @@
         <v>1425</v>
       </c>
       <c r="C339" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D339" t="s">
         <v>1262</v>
@@ -20798,7 +20804,7 @@
         <v>367</v>
       </c>
       <c r="C340" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D340" t="s">
         <v>1262</v>
@@ -20845,7 +20851,7 @@
         <v>546</v>
       </c>
       <c r="C341" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D341" t="s">
         <v>1262</v>
@@ -20892,7 +20898,7 @@
         <v>363</v>
       </c>
       <c r="C342" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D342" t="s">
         <v>1262</v>
@@ -20933,19 +20939,19 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
-        <v>1235</v>
+        <v>1308</v>
       </c>
       <c r="B343">
-        <v>4305</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>1297</v>
+        <v>882</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1293</v>
       </c>
       <c r="D343" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E343" t="s">
-        <v>905</v>
+        <v>1252</v>
       </c>
       <c r="F343" s="3">
         <v>1</v>
@@ -20954,7 +20960,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>32</v>
+        <v>1250</v>
       </c>
       <c r="I343" t="s">
         <v>11</v>
@@ -20963,45 +20969,45 @@
         <v>1</v>
       </c>
       <c r="K343" t="s">
-        <v>33</v>
+        <v>1310</v>
       </c>
       <c r="L343" t="s">
-        <v>579</v>
+        <v>1251</v>
       </c>
       <c r="M343" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N343">
-        <v>125475</v>
+        <v>446</v>
       </c>
       <c r="O343">
-        <v>129779</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
-        <v>1236</v>
+        <v>1309</v>
       </c>
       <c r="B344">
-        <v>2045</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>1297</v>
+        <v>597</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1293</v>
       </c>
       <c r="D344" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E344" t="s">
-        <v>905</v>
+        <v>1252</v>
       </c>
       <c r="F344" s="3">
         <v>1</v>
       </c>
       <c r="G344" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>32</v>
+        <v>1250</v>
       </c>
       <c r="I344" t="s">
         <v>11</v>
@@ -21010,30 +21016,30 @@
         <v>1</v>
       </c>
       <c r="K344" t="s">
-        <v>33</v>
+        <v>1310</v>
       </c>
       <c r="L344" t="s">
-        <v>34</v>
+        <v>1311</v>
       </c>
       <c r="M344" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N344">
-        <v>412256</v>
+        <v>11361</v>
       </c>
       <c r="O344">
-        <v>414300</v>
+        <v>11957</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B345">
-        <v>4154</v>
+        <v>4305</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D345" t="s">
         <v>1263</v>
@@ -21045,7 +21051,7 @@
         <v>1</v>
       </c>
       <c r="G345" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H345" t="s">
         <v>32</v>
@@ -21060,27 +21066,27 @@
         <v>33</v>
       </c>
       <c r="L345" t="s">
-        <v>731</v>
+        <v>579</v>
       </c>
       <c r="M345" t="s">
         <v>30</v>
       </c>
       <c r="N345">
-        <v>23438</v>
+        <v>125475</v>
       </c>
       <c r="O345">
-        <v>27591</v>
+        <v>129779</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B346">
-        <v>276</v>
+        <v>2045</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D346" t="s">
         <v>1263</v>
@@ -21092,7 +21098,7 @@
         <v>1</v>
       </c>
       <c r="G346" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H346" t="s">
         <v>32</v>
@@ -21107,24 +21113,24 @@
         <v>33</v>
       </c>
       <c r="L346" t="s">
-        <v>839</v>
+        <v>34</v>
       </c>
       <c r="M346" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N346">
-        <v>153714</v>
+        <v>412256</v>
       </c>
       <c r="O346">
-        <v>153989</v>
+        <v>414300</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="B347">
-        <v>5089</v>
+        <v>4154</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>1296</v>
@@ -21136,42 +21142,42 @@
         <v>905</v>
       </c>
       <c r="F347" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G347" s="3">
+        <v>3</v>
+      </c>
+      <c r="H347" t="s">
+        <v>32</v>
+      </c>
+      <c r="I347" t="s">
+        <v>11</v>
+      </c>
+      <c r="J347" s="5">
         <v>1</v>
       </c>
-      <c r="H347" t="s">
-        <v>279</v>
-      </c>
-      <c r="I347" t="s">
-        <v>11</v>
-      </c>
-      <c r="J347" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="K347" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="L347" t="s">
-        <v>605</v>
+        <v>731</v>
       </c>
       <c r="M347" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N347">
-        <v>645</v>
+        <v>23438</v>
       </c>
       <c r="O347">
-        <v>5733</v>
+        <v>27591</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="B348">
-        <v>2043</v>
+        <v>276</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>1296</v>
@@ -21183,45 +21189,45 @@
         <v>905</v>
       </c>
       <c r="F348" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G348" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H348" t="s">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="I348" t="s">
         <v>11</v>
       </c>
-      <c r="J348" s="5" t="s">
-        <v>280</v>
+      <c r="J348" s="5">
+        <v>1</v>
       </c>
       <c r="K348" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="L348" t="s">
-        <v>560</v>
+        <v>839</v>
       </c>
       <c r="M348" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N348">
-        <v>285</v>
+        <v>153714</v>
       </c>
       <c r="O348">
-        <v>2327</v>
+        <v>153989</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B349">
-        <v>572</v>
+        <v>5089</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D349" t="s">
         <v>1263</v>
@@ -21233,7 +21239,7 @@
         <v>2</v>
       </c>
       <c r="G349" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H349" t="s">
         <v>279</v>
@@ -21248,24 +21254,24 @@
         <v>281</v>
       </c>
       <c r="L349" t="s">
-        <v>282</v>
+        <v>605</v>
       </c>
       <c r="M349" t="s">
         <v>15</v>
       </c>
       <c r="N349">
-        <v>251</v>
+        <v>645</v>
       </c>
       <c r="O349">
-        <v>822</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="B350">
-        <v>990</v>
+        <v>2043</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>1295</v>
@@ -21277,42 +21283,42 @@
         <v>905</v>
       </c>
       <c r="F350" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G350" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H350" t="s">
-        <v>518</v>
+        <v>279</v>
       </c>
       <c r="I350" t="s">
         <v>11</v>
       </c>
       <c r="J350" s="5" t="s">
-        <v>519</v>
+        <v>280</v>
       </c>
       <c r="K350" t="s">
-        <v>520</v>
+        <v>281</v>
       </c>
       <c r="L350" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="M350" t="s">
         <v>15</v>
       </c>
       <c r="N350">
-        <v>138034</v>
+        <v>285</v>
       </c>
       <c r="O350">
-        <v>139023</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="B351">
-        <v>4907</v>
+        <v>572</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>1295</v>
@@ -21324,45 +21330,45 @@
         <v>905</v>
       </c>
       <c r="F351" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G351" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H351" t="s">
-        <v>518</v>
+        <v>279</v>
       </c>
       <c r="I351" t="s">
         <v>11</v>
       </c>
       <c r="J351" s="5" t="s">
-        <v>519</v>
+        <v>280</v>
       </c>
       <c r="K351" t="s">
-        <v>520</v>
+        <v>281</v>
       </c>
       <c r="L351" t="s">
-        <v>849</v>
+        <v>282</v>
       </c>
       <c r="M351" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N351">
-        <v>27785</v>
+        <v>251</v>
       </c>
       <c r="O351">
-        <v>32691</v>
+        <v>822</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="B352">
-        <v>503</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1298</v>
+        <v>990</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>1294</v>
       </c>
       <c r="D352" t="s">
         <v>1263</v>
@@ -21371,45 +21377,45 @@
         <v>905</v>
       </c>
       <c r="F352" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G352" s="3">
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>226</v>
+        <v>518</v>
       </c>
       <c r="I352" t="s">
         <v>11</v>
       </c>
       <c r="J352" s="5" t="s">
-        <v>227</v>
+        <v>519</v>
       </c>
       <c r="K352" t="s">
-        <v>228</v>
+        <v>520</v>
       </c>
       <c r="L352" t="s">
-        <v>229</v>
+        <v>521</v>
       </c>
       <c r="M352" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N352">
-        <v>4793790</v>
+        <v>138034</v>
       </c>
       <c r="O352">
-        <v>4794292</v>
+        <v>139023</v>
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="B353">
-        <v>500</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1298</v>
+        <v>4907</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>1294</v>
       </c>
       <c r="D353" t="s">
         <v>1263</v>
@@ -21418,45 +21424,45 @@
         <v>905</v>
       </c>
       <c r="F353" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G353" s="3">
         <v>2</v>
       </c>
       <c r="H353" t="s">
-        <v>226</v>
+        <v>518</v>
       </c>
       <c r="I353" t="s">
         <v>11</v>
       </c>
       <c r="J353" s="5" t="s">
-        <v>227</v>
+        <v>519</v>
       </c>
       <c r="K353" t="s">
-        <v>228</v>
+        <v>520</v>
       </c>
       <c r="L353" t="s">
-        <v>229</v>
+        <v>849</v>
       </c>
       <c r="M353" t="s">
         <v>30</v>
       </c>
       <c r="N353">
-        <v>3097464</v>
+        <v>27785</v>
       </c>
       <c r="O353">
-        <v>3097963</v>
+        <v>32691</v>
       </c>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B354">
         <v>503</v>
       </c>
       <c r="C354" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D354" t="s">
         <v>1263</v>
@@ -21468,7 +21474,7 @@
         <v>4</v>
       </c>
       <c r="G354" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H354" t="s">
         <v>226</v>
@@ -21486,24 +21492,24 @@
         <v>229</v>
       </c>
       <c r="M354" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N354">
-        <v>2493774</v>
+        <v>4793790</v>
       </c>
       <c r="O354">
-        <v>2494276</v>
+        <v>4794292</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B355">
-        <v>219</v>
+        <v>500</v>
       </c>
       <c r="C355" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D355" t="s">
         <v>1263</v>
@@ -21515,42 +21521,42 @@
         <v>4</v>
       </c>
       <c r="G355" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H355" t="s">
-        <v>331</v>
+        <v>226</v>
       </c>
       <c r="I355" t="s">
         <v>11</v>
       </c>
       <c r="J355" s="5" t="s">
-        <v>332</v>
+        <v>227</v>
       </c>
       <c r="K355" t="s">
-        <v>333</v>
+        <v>228</v>
       </c>
       <c r="L355" t="s">
-        <v>334</v>
+        <v>229</v>
       </c>
       <c r="M355" t="s">
         <v>30</v>
       </c>
       <c r="N355">
-        <v>13757</v>
+        <v>3097464</v>
       </c>
       <c r="O355">
-        <v>13975</v>
+        <v>3097963</v>
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="B356">
         <v>503</v>
       </c>
       <c r="C356" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D356" t="s">
         <v>1263</v>
@@ -21562,42 +21568,42 @@
         <v>4</v>
       </c>
       <c r="G356" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H356" t="s">
-        <v>392</v>
+        <v>226</v>
       </c>
       <c r="I356" t="s">
         <v>11</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>393</v>
+        <v>227</v>
       </c>
       <c r="K356" t="s">
-        <v>394</v>
+        <v>228</v>
       </c>
       <c r="L356" t="s">
-        <v>395</v>
+        <v>229</v>
       </c>
       <c r="M356" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N356">
-        <v>8771</v>
+        <v>2493774</v>
       </c>
       <c r="O356">
-        <v>9273</v>
+        <v>2494276</v>
       </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
-        <v>895</v>
+        <v>1249</v>
       </c>
       <c r="B357">
-        <v>925</v>
+        <v>219</v>
       </c>
       <c r="C357" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D357" t="s">
         <v>1263</v>
@@ -21606,45 +21612,45 @@
         <v>905</v>
       </c>
       <c r="F357" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G357" s="3">
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>608</v>
+        <v>331</v>
       </c>
       <c r="I357" t="s">
         <v>11</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>609</v>
+        <v>332</v>
       </c>
       <c r="K357" t="s">
-        <v>610</v>
+        <v>333</v>
       </c>
       <c r="L357" t="s">
-        <v>611</v>
+        <v>334</v>
       </c>
       <c r="M357" t="s">
         <v>30</v>
       </c>
       <c r="N357">
-        <v>12379</v>
+        <v>13757</v>
       </c>
       <c r="O357">
-        <v>13303</v>
+        <v>13975</v>
       </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
-        <v>894</v>
+        <v>1245</v>
       </c>
       <c r="B358">
-        <v>759</v>
+        <v>503</v>
       </c>
       <c r="C358" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D358" t="s">
         <v>1263</v>
@@ -21653,45 +21659,45 @@
         <v>905</v>
       </c>
       <c r="F358" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G358" s="3">
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>144</v>
+        <v>392</v>
       </c>
       <c r="I358" t="s">
         <v>11</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>145</v>
+        <v>393</v>
       </c>
       <c r="K358" t="s">
-        <v>146</v>
+        <v>394</v>
       </c>
       <c r="L358" t="s">
-        <v>147</v>
+        <v>395</v>
       </c>
       <c r="M358" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N358">
-        <v>11151</v>
+        <v>8771</v>
       </c>
       <c r="O358">
-        <v>11909</v>
+        <v>9273</v>
       </c>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B359">
-        <v>168</v>
+        <v>925</v>
       </c>
       <c r="C359" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D359" t="s">
         <v>1263</v>
@@ -21700,45 +21706,45 @@
         <v>905</v>
       </c>
       <c r="F359" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G359" s="3">
         <v>1</v>
       </c>
       <c r="H359" t="s">
-        <v>675</v>
+        <v>608</v>
       </c>
       <c r="I359" t="s">
         <v>11</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>676</v>
+        <v>609</v>
       </c>
       <c r="K359" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="L359" t="s">
-        <v>678</v>
+        <v>611</v>
       </c>
       <c r="M359" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N359">
-        <v>629</v>
+        <v>12379</v>
       </c>
       <c r="O359">
-        <v>796</v>
+        <v>13303</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
-        <v>1241</v>
+        <v>894</v>
       </c>
       <c r="B360">
-        <v>798</v>
+        <v>759</v>
       </c>
       <c r="C360" t="s">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="D360" t="s">
         <v>1263</v>
@@ -21747,45 +21753,45 @@
         <v>905</v>
       </c>
       <c r="F360" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G360" s="3">
         <v>1</v>
       </c>
       <c r="H360" t="s">
-        <v>574</v>
+        <v>144</v>
       </c>
       <c r="I360" t="s">
         <v>11</v>
       </c>
       <c r="J360" s="5" t="s">
-        <v>575</v>
+        <v>145</v>
       </c>
       <c r="K360" t="s">
-        <v>576</v>
+        <v>146</v>
       </c>
       <c r="L360" t="s">
-        <v>577</v>
+        <v>147</v>
       </c>
       <c r="M360" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N360">
-        <v>1448566</v>
+        <v>11151</v>
       </c>
       <c r="O360">
-        <v>1449363</v>
+        <v>11909</v>
       </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B361">
-        <v>441</v>
+        <v>168</v>
       </c>
       <c r="C361" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D361" t="s">
         <v>1263</v>
@@ -21794,45 +21800,45 @@
         <v>905</v>
       </c>
       <c r="F361" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G361" s="3">
         <v>1</v>
       </c>
       <c r="H361" t="s">
-        <v>234</v>
+        <v>675</v>
       </c>
       <c r="I361" t="s">
         <v>11</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>235</v>
+        <v>676</v>
       </c>
       <c r="K361" t="s">
-        <v>236</v>
+        <v>677</v>
       </c>
       <c r="L361" t="s">
-        <v>237</v>
+        <v>678</v>
       </c>
       <c r="M361" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N361">
-        <v>5708</v>
+        <v>629</v>
       </c>
       <c r="O361">
-        <v>6148</v>
+        <v>796</v>
       </c>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
-        <v>892</v>
+        <v>1241</v>
       </c>
       <c r="B362">
-        <v>180</v>
+        <v>798</v>
       </c>
       <c r="C362" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D362" t="s">
         <v>1263</v>
@@ -21841,135 +21847,135 @@
         <v>905</v>
       </c>
       <c r="F362" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G362" s="3">
         <v>1</v>
       </c>
       <c r="H362" t="s">
-        <v>701</v>
+        <v>574</v>
       </c>
       <c r="I362" t="s">
         <v>11</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>702</v>
+        <v>575</v>
       </c>
       <c r="K362" t="s">
-        <v>703</v>
+        <v>576</v>
       </c>
       <c r="L362" t="s">
-        <v>704</v>
+        <v>577</v>
       </c>
       <c r="M362" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N362">
-        <v>40729</v>
+        <v>1448566</v>
       </c>
       <c r="O362">
-        <v>40908</v>
+        <v>1449363</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
-        <v>1309</v>
+        <v>891</v>
       </c>
       <c r="B363">
-        <v>882</v>
+        <v>441</v>
       </c>
       <c r="C363" t="s">
-        <v>1294</v>
+        <v>1300</v>
       </c>
       <c r="D363" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E363" t="s">
-        <v>1252</v>
+        <v>905</v>
       </c>
       <c r="F363" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G363" s="3">
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>1250</v>
+        <v>234</v>
       </c>
       <c r="I363" t="s">
         <v>11</v>
       </c>
-      <c r="J363" s="5">
-        <v>1</v>
+      <c r="J363" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="K363" t="s">
-        <v>1311</v>
+        <v>236</v>
       </c>
       <c r="L363" t="s">
-        <v>1251</v>
+        <v>237</v>
       </c>
       <c r="M363" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N363">
-        <v>446</v>
+        <v>5708</v>
       </c>
       <c r="O363">
-        <v>1327</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
-        <v>1310</v>
+        <v>892</v>
       </c>
       <c r="B364">
-        <v>597</v>
+        <v>180</v>
       </c>
       <c r="C364" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D364" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E364" t="s">
-        <v>1252</v>
+        <v>905</v>
       </c>
       <c r="F364" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G364" s="3">
         <v>1</v>
       </c>
       <c r="H364" t="s">
-        <v>1250</v>
+        <v>701</v>
       </c>
       <c r="I364" t="s">
         <v>11</v>
       </c>
-      <c r="J364" s="5">
-        <v>1</v>
+      <c r="J364" s="5" t="s">
+        <v>702</v>
       </c>
       <c r="K364" t="s">
-        <v>1311</v>
+        <v>703</v>
       </c>
       <c r="L364" t="s">
-        <v>1312</v>
+        <v>704</v>
       </c>
       <c r="M364" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N364">
-        <v>11361</v>
+        <v>40729</v>
       </c>
       <c r="O364">
-        <v>11957</v>
+        <v>40908</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O362">
-    <sortCondition ref="D2:D362"/>
-    <sortCondition ref="F2:F362"/>
-    <sortCondition ref="H2:H362"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O364">
+    <sortCondition ref="D2:D364"/>
+    <sortCondition ref="F2:F364"/>
+    <sortCondition ref="H2:H364"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B5F7EF-ED19-3641-9DD0-5E72ADC031DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84D7C60-57B5-6446-A051-CB886FB4B366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="640" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3972,10 +3972,10 @@
     <t>EFV-PL2.5.1-Anoplophora_glabripennis</t>
   </si>
   <si>
-    <t>EFV-PL2.4-AndCur</t>
-  </si>
-  <si>
     <t>EFV-PL2.4.2-Andricus_curvator</t>
+  </si>
+  <si>
+    <t>EFV-PL2.4-Andricus</t>
   </si>
 </sst>
 </file>
@@ -4844,8 +4844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="J332" sqref="A1:O364"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8578,13 +8578,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B80">
         <v>1842</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D80" t="s">
         <v>1261</v>
@@ -8625,13 +8625,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B81">
         <v>6440</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D81" t="s">
         <v>1261</v>
@@ -8678,7 +8678,7 @@
         <v>7927</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D82" t="s">
         <v>1261</v>
@@ -8725,7 +8725,7 @@
         <v>1062</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D83" t="s">
         <v>1261</v>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A988C64-0B65-3844-9188-C7C66DE0D015}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731DAAC2-80F7-2644-81F0-F1C6FB36CA74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="640" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="1327">
   <si>
     <t>organism</t>
   </si>
@@ -3976,6 +3976,36 @@
   </si>
   <si>
     <t>EFV-PL2.4-Andricus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.4.1-Andricus_quercusramuli</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.1-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.2-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.3-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.4-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.5-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.6-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.7-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.8-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.9-Xenocatantops_brachycerus</t>
   </si>
 </sst>
 </file>
@@ -4844,8 +4874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="C317" sqref="A1:O364"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19764,7 +19794,7 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>1028</v>
+        <v>1317</v>
       </c>
       <c r="B318">
         <v>7927</v>
@@ -19811,7 +19841,7 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
-        <v>1095</v>
+        <v>1317</v>
       </c>
       <c r="B319">
         <v>1062</v>
@@ -19905,7 +19935,7 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>1148</v>
+        <v>1318</v>
       </c>
       <c r="B321">
         <v>16813</v>
@@ -19952,7 +19982,7 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
-        <v>1149</v>
+        <v>1319</v>
       </c>
       <c r="B322">
         <v>7017</v>
@@ -19999,7 +20029,7 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
-        <v>1150</v>
+        <v>1320</v>
       </c>
       <c r="B323">
         <v>6021</v>
@@ -20046,7 +20076,7 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
-        <v>1151</v>
+        <v>1321</v>
       </c>
       <c r="B324">
         <v>1479</v>
@@ -20064,7 +20094,7 @@
         <v>6</v>
       </c>
       <c r="G324" s="3">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="H324" t="s">
         <v>52</v>
@@ -20093,7 +20123,7 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
-        <v>1152</v>
+        <v>1322</v>
       </c>
       <c r="B325">
         <v>1107</v>
@@ -20111,7 +20141,7 @@
         <v>6</v>
       </c>
       <c r="G325" s="3">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="H325" t="s">
         <v>52</v>
@@ -20140,7 +20170,7 @@
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
-        <v>1153</v>
+        <v>1323</v>
       </c>
       <c r="B326">
         <v>999</v>
@@ -20158,7 +20188,7 @@
         <v>6</v>
       </c>
       <c r="G326" s="3">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="H326" t="s">
         <v>52</v>
@@ -20187,7 +20217,7 @@
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
-        <v>1154</v>
+        <v>1324</v>
       </c>
       <c r="B327">
         <v>666</v>
@@ -20205,7 +20235,7 @@
         <v>6</v>
       </c>
       <c r="G327" s="3">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="H327" t="s">
         <v>52</v>
@@ -20234,7 +20264,7 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
-        <v>1155</v>
+        <v>1325</v>
       </c>
       <c r="B328">
         <v>711</v>
@@ -20252,7 +20282,7 @@
         <v>6</v>
       </c>
       <c r="G328" s="3">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="H328" t="s">
         <v>52</v>
@@ -20281,7 +20311,7 @@
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>1156</v>
+        <v>1326</v>
       </c>
       <c r="B329">
         <v>684</v>
@@ -20299,7 +20329,7 @@
         <v>6</v>
       </c>
       <c r="G329" s="3">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="H329" t="s">
         <v>52</v>
@@ -20346,7 +20376,7 @@
         <v>6</v>
       </c>
       <c r="G330" s="3">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="H330" t="s">
         <v>52</v>
@@ -20393,7 +20423,7 @@
         <v>6</v>
       </c>
       <c r="G331" s="3">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="H331" t="s">
         <v>52</v>
@@ -20440,7 +20470,7 @@
         <v>6</v>
       </c>
       <c r="G332" s="3">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="H332" t="s">
         <v>52</v>
@@ -20487,7 +20517,7 @@
         <v>6</v>
       </c>
       <c r="G333" s="3">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="H333" t="s">
         <v>52</v>
@@ -20534,7 +20564,7 @@
         <v>6</v>
       </c>
       <c r="G334" s="3">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="H334" t="s">
         <v>52</v>
@@ -20581,7 +20611,7 @@
         <v>6</v>
       </c>
       <c r="G335" s="3">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="H335" t="s">
         <v>52</v>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731DAAC2-80F7-2644-81F0-F1C6FB36CA74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C0C0A9-8180-F243-86BF-11CBEF9F7114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="640" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="1328">
   <si>
     <t>organism</t>
   </si>
@@ -4006,6 +4006,9 @@
   </si>
   <si>
     <t>EFV-PL2.6.9-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.2.3-Euschistus_heros</t>
   </si>
 </sst>
 </file>
@@ -4874,8 +4877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="A329" sqref="A329"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E81" sqref="A1:O364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8467,7 +8470,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>888</v>
+        <v>1034</v>
       </c>
       <c r="B77">
         <v>1661</v>
@@ -8514,7 +8517,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B78">
         <v>2703</v>
@@ -8532,7 +8535,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="s">
         <v>130</v>
@@ -8561,7 +8564,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>1035</v>
+        <v>1327</v>
       </c>
       <c r="B79">
         <v>471</v>
@@ -8579,7 +8582,7 @@
         <v>2</v>
       </c>
       <c r="G79" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79" t="s">
         <v>130</v>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C0C0A9-8180-F243-86BF-11CBEF9F7114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4CAC47-90ED-9E4F-A73E-9DB5ADD79B2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="640" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="1334">
   <si>
     <t>organism</t>
   </si>
@@ -4009,6 +4009,24 @@
   </si>
   <si>
     <t>EFV-PL2.2.3-Euschistus_heros</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.10-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.11-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.12-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.13-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.14-Xenocatantops_brachycerus</t>
+  </si>
+  <si>
+    <t>EFV-PL2.6.15-Xenocatantops_brachycerus</t>
   </si>
 </sst>
 </file>
@@ -4877,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E81" sqref="A1:O364"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="A317" sqref="A317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20361,7 +20379,7 @@
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>1157</v>
+        <v>1328</v>
       </c>
       <c r="B330">
         <v>513</v>
@@ -20408,7 +20426,7 @@
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>1158</v>
+        <v>1329</v>
       </c>
       <c r="B331">
         <v>480</v>
@@ -20455,7 +20473,7 @@
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>1159</v>
+        <v>1330</v>
       </c>
       <c r="B332">
         <v>480</v>
@@ -20502,7 +20520,7 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>1160</v>
+        <v>1331</v>
       </c>
       <c r="B333">
         <v>492</v>
@@ -20549,7 +20567,7 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>1161</v>
+        <v>1332</v>
       </c>
       <c r="B334">
         <v>273</v>
@@ -20596,7 +20614,7 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>1162</v>
+        <v>1333</v>
       </c>
       <c r="B335">
         <v>222</v>

--- a/tabular/eve/efv-side-data.xlsx
+++ b/tabular/eve/efv-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4CAC47-90ED-9E4F-A73E-9DB5ADD79B2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F002580-ACB4-5D41-9BB1-DA2A9E206342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="640" windowWidth="37480" windowHeight="28160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="500" windowWidth="37480" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -4895,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="A317" sqref="A317"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
